--- a/output_corners_NNNN_AH.xlsx
+++ b/output_corners_NNNN_AH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,60 +511,80 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Team 1 -3.5 Odd</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Team 1 +3.5 Odd</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Team 2 -3.5 Odd</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Team 2 +3.5 Odd</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Team 1 Over 4.5</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Team 1 Under 4.5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Over 4.5</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Under 4.5</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Team 1 Over 5.5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Team 1 Under 5.5</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Over 5.5</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Under 5.5</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Team 1 Over 6.5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Team 1 Under 6.5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Over 6.5</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Team 2 Under 6.5</t>
         </is>
@@ -592,73 +612,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.918722527961089</v>
+        <v>2.312791972610813</v>
       </c>
       <c r="F2" t="n">
-        <v>7.030128039011147</v>
+        <v>6.785086207772856</v>
       </c>
       <c r="G2" t="n">
-        <v>2.971106174752968</v>
+        <v>2.379592068190155</v>
       </c>
       <c r="H2" t="n">
-        <v>2.654800895521396</v>
+        <v>3.397825518057425</v>
       </c>
       <c r="I2" t="n">
-        <v>1.273550938462806</v>
+        <v>1.396083645024922</v>
       </c>
       <c r="J2" t="n">
-        <v>4.655626281596418</v>
+        <v>3.524719241909316</v>
       </c>
       <c r="K2" t="n">
-        <v>1.604302307731661</v>
+        <v>1.417044523243768</v>
       </c>
       <c r="L2" t="n">
-        <v>4.019616389314129</v>
+        <v>5.499148675577953</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14149779036681</v>
+        <v>1.210286789279645</v>
       </c>
       <c r="N2" t="n">
-        <v>8.067248169795882</v>
+        <v>5.755410472648263</v>
       </c>
       <c r="O2" t="n">
-        <v>1.331167893888382</v>
+        <v>1.222264270889324</v>
       </c>
       <c r="P2" t="n">
-        <v>2.445688623481935</v>
+        <v>9.821679661730025</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69171188301358</v>
+        <v>1.106648910267894</v>
       </c>
       <c r="R2" t="n">
-        <v>3.5589228767841</v>
+        <v>10.37656088081988</v>
       </c>
       <c r="S2" t="n">
-        <v>1.390789425141542</v>
+        <v>1.113357097326734</v>
       </c>
       <c r="T2" t="n">
-        <v>4.068775107818961</v>
+        <v>2.982042807462987</v>
       </c>
       <c r="U2" t="n">
-        <v>1.325862914311345</v>
+        <v>1.5045299709142</v>
       </c>
       <c r="V2" t="n">
-        <v>6.806958390183065</v>
+        <v>3.057572513042207</v>
       </c>
       <c r="W2" t="n">
-        <v>1.172207192269631</v>
+        <v>1.486009602899223</v>
       </c>
       <c r="X2" t="n">
-        <v>7.588487039179724</v>
+        <v>5.351343948514389</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.151779914577247</v>
+        <v>1.229814055572742</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.71913206784491</v>
+        <v>5.537666914872359</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.072890908481289</v>
+        <v>1.220377568199743</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>10.81880282873611</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.101845410020187</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11.30521869351856</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.097038212360204</v>
       </c>
     </row>
     <row r="3">
@@ -683,73 +715,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.11552524041357</v>
+        <v>1.175568535820792</v>
       </c>
       <c r="F3" t="n">
-        <v>20.59678246471482</v>
+        <v>15.54541914979087</v>
       </c>
       <c r="G3" t="n">
-        <v>18.17850502717976</v>
+        <v>11.76191966543118</v>
       </c>
       <c r="H3" t="n">
-        <v>1.21497405559426</v>
+        <v>1.31475633059442</v>
       </c>
       <c r="I3" t="n">
-        <v>1.027177263022086</v>
+        <v>1.04607386981364</v>
       </c>
       <c r="J3" t="n">
-        <v>37.7954638841793</v>
+        <v>22.70427628599033</v>
       </c>
       <c r="K3" t="n">
-        <v>5.65172412194424</v>
+        <v>4.177060801641351</v>
       </c>
       <c r="L3" t="n">
-        <v>1.380439985453953</v>
+        <v>1.543038721401227</v>
       </c>
       <c r="M3" t="n">
-        <v>1.011654715015037</v>
+        <v>1.021188018408338</v>
       </c>
       <c r="N3" t="n">
-        <v>86.80218381228732</v>
+        <v>48.19648533090184</v>
       </c>
       <c r="O3" t="n">
-        <v>3.628535480587749</v>
+        <v>2.841489309306812</v>
       </c>
       <c r="P3" t="n">
-        <v>1.181792066493355</v>
+        <v>1.914776842152114</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.50079010206176</v>
+        <v>1.008976212066859</v>
       </c>
       <c r="R3" t="n">
-        <v>6.501423722320078</v>
+        <v>112.4055675770049</v>
       </c>
       <c r="S3" t="n">
-        <v>1.181771128797597</v>
+        <v>2.093162784540313</v>
       </c>
       <c r="T3" t="n">
-        <v>1.376392549725911</v>
+        <v>1.22875781535031</v>
       </c>
       <c r="U3" t="n">
-        <v>3.656800727666367</v>
+        <v>5.371435347328531</v>
       </c>
       <c r="V3" t="n">
-        <v>15.16408165201571</v>
+        <v>4.866051527315383</v>
       </c>
       <c r="W3" t="n">
-        <v>1.070601117994663</v>
+        <v>1.258661839588674</v>
       </c>
       <c r="X3" t="n">
-        <v>1.716532809863553</v>
+        <v>1.468367131900277</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.39560950487449</v>
+        <v>3.13507723298764</v>
       </c>
       <c r="Z3" t="n">
-        <v>40.32104074063835</v>
+        <v>10.34848236615096</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.025431676811303</v>
+        <v>1.106969234238576</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.889656460753628</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2.124029380006863</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>25.00253622135297</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.041662263969855</v>
       </c>
     </row>
     <row r="4">
@@ -774,73 +818,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.665326388949124</v>
+        <v>4.008872943892104</v>
       </c>
       <c r="F4" t="n">
-        <v>8.720181207955594</v>
+        <v>8.763026311373036</v>
       </c>
       <c r="G4" t="n">
-        <v>1.632662431452664</v>
+        <v>1.571246184884417</v>
       </c>
       <c r="H4" t="n">
-        <v>5.615049467359925</v>
+        <v>6.336422106173567</v>
       </c>
       <c r="I4" t="n">
-        <v>1.950554092131045</v>
+        <v>2.03688767920148</v>
       </c>
       <c r="J4" t="n">
-        <v>2.052017984329647</v>
+        <v>1.964424614216761</v>
       </c>
       <c r="K4" t="n">
-        <v>1.216682401147058</v>
+        <v>1.187391473182589</v>
       </c>
       <c r="L4" t="n">
-        <v>9.304090138126643</v>
+        <v>10.89053649828339</v>
       </c>
       <c r="M4" t="n">
-        <v>1.572445992203348</v>
+        <v>1.616838986886146</v>
       </c>
       <c r="N4" t="n">
-        <v>2.746889686747555</v>
+        <v>2.621168605194822</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12042258493904</v>
+        <v>1.101106749889004</v>
       </c>
       <c r="P4" t="n">
-        <v>2.198262504909942</v>
+        <v>20.37033672575985</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83454167672146</v>
+        <v>1.363694527315796</v>
       </c>
       <c r="R4" t="n">
-        <v>1.438510195513642</v>
+        <v>3.749560207519155</v>
       </c>
       <c r="S4" t="n">
-        <v>3.280448687923129</v>
+        <v>1.05162532867434</v>
       </c>
       <c r="T4" t="n">
-        <v>3.5030473068926</v>
+        <v>2.564516363900642</v>
       </c>
       <c r="U4" t="n">
-        <v>1.399513024482724</v>
+        <v>1.639175161777667</v>
       </c>
       <c r="V4" t="n">
-        <v>1.883692515412503</v>
+        <v>1.488167319172882</v>
       </c>
       <c r="W4" t="n">
-        <v>2.131615332888958</v>
+        <v>3.048477972049281</v>
       </c>
       <c r="X4" t="n">
-        <v>6.237820219442979</v>
+        <v>4.346517151790643</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.190919114842461</v>
+        <v>1.29881813080352</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.698821513514658</v>
+        <v>1.983798907094109</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.588643357789318</v>
+        <v>2.016467890733631</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.269294338018137</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.137564934572815</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2.90066270798861</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.526132277861261</v>
       </c>
     </row>
     <row r="5">
@@ -865,73 +921,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.121283045438992</v>
+        <v>1.17657081177442</v>
       </c>
       <c r="F5" t="n">
-        <v>19.96291216520118</v>
+        <v>15.49871908696802</v>
       </c>
       <c r="G5" t="n">
-        <v>17.22011221324504</v>
+        <v>11.68894169891993</v>
       </c>
       <c r="H5" t="n">
-        <v>1.224138066524888</v>
+        <v>1.316279221522278</v>
       </c>
       <c r="I5" t="n">
-        <v>1.029091634003616</v>
+        <v>1.046452213283515</v>
       </c>
       <c r="J5" t="n">
-        <v>35.3741434350406</v>
+        <v>22.52749953800097</v>
       </c>
       <c r="K5" t="n">
-        <v>5.461535764559488</v>
+        <v>4.161763188827003</v>
       </c>
       <c r="L5" t="n">
-        <v>1.394614110529663</v>
+        <v>1.545311076095041</v>
       </c>
       <c r="M5" t="n">
-        <v>1.012631736073717</v>
+        <v>1.021396912952841</v>
       </c>
       <c r="N5" t="n">
-        <v>80.16568191134904</v>
+        <v>47.73571380151992</v>
       </c>
       <c r="O5" t="n">
-        <v>3.534121242288501</v>
+        <v>2.83381567666106</v>
       </c>
       <c r="P5" t="n">
-        <v>1.181792563053132</v>
+        <v>1.918170088370768</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.500775076853563</v>
+        <v>1.009081668529155</v>
       </c>
       <c r="R5" t="n">
-        <v>6.110813893272541</v>
+        <v>111.1119245642625</v>
       </c>
       <c r="S5" t="n">
-        <v>1.195663552006133</v>
+        <v>2.089122824480628</v>
       </c>
       <c r="T5" t="n">
-        <v>1.376393522379854</v>
+        <v>1.228380907572516</v>
       </c>
       <c r="U5" t="n">
-        <v>3.656793862118613</v>
+        <v>5.378649733154581</v>
       </c>
       <c r="V5" t="n">
-        <v>13.97991600491781</v>
+        <v>4.825515409606563</v>
       </c>
       <c r="W5" t="n">
-        <v>1.077042101013683</v>
+        <v>1.261402685109781</v>
       </c>
       <c r="X5" t="n">
-        <v>1.716534630323189</v>
+        <v>1.467628701235015</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.395605959127134</v>
+        <v>3.138448725150922</v>
       </c>
       <c r="Z5" t="n">
-        <v>36.43558928299527</v>
+        <v>10.23416901756683</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.028220216461304</v>
+        <v>1.108293447747992</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.888258338901582</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2.125798606334051</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24.65584981744083</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.042272841927781</v>
       </c>
     </row>
     <row r="6">
@@ -956,73 +1024,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.116423741964175</v>
+        <v>1.175553945631493</v>
       </c>
       <c r="F6" t="n">
-        <v>20.49397424150552</v>
+        <v>15.54966981035253</v>
       </c>
       <c r="G6" t="n">
-        <v>18.02193964367534</v>
+        <v>11.76094762692905</v>
       </c>
       <c r="H6" t="n">
-        <v>1.216406180927765</v>
+        <v>1.31468454835281</v>
       </c>
       <c r="I6" t="n">
-        <v>1.027474222578841</v>
+        <v>1.046087756948969</v>
       </c>
       <c r="J6" t="n">
-        <v>37.39775419050965</v>
+        <v>22.69773636645521</v>
       </c>
       <c r="K6" t="n">
-        <v>5.62094010306384</v>
+        <v>4.177785516430398</v>
       </c>
       <c r="L6" t="n">
-        <v>1.382656451325532</v>
+        <v>1.542845682779898</v>
       </c>
       <c r="M6" t="n">
-        <v>1.011805586129402</v>
+        <v>1.021199797788762</v>
       </c>
       <c r="N6" t="n">
-        <v>85.7056629835178</v>
+        <v>48.17026124325213</v>
       </c>
       <c r="O6" t="n">
-        <v>3.613310180805716</v>
+        <v>2.842144152052618</v>
       </c>
       <c r="P6" t="n">
-        <v>1.18178770786067</v>
+        <v>1.914340945799745</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.500921991746791</v>
+        <v>1.008983892002674</v>
       </c>
       <c r="R6" t="n">
-        <v>6.436891640760172</v>
+        <v>112.3103318363967</v>
       </c>
       <c r="S6" t="n">
-        <v>1.18392862430861</v>
+        <v>2.093683931135045</v>
       </c>
       <c r="T6" t="n">
-        <v>1.376384012099827</v>
+        <v>1.228330056759684</v>
       </c>
       <c r="U6" t="n">
-        <v>3.656860992636351</v>
+        <v>5.379624891227056</v>
       </c>
       <c r="V6" t="n">
-        <v>14.96708011864893</v>
+        <v>4.857904622083269</v>
       </c>
       <c r="W6" t="n">
-        <v>1.071596925878931</v>
+        <v>1.259208067062062</v>
       </c>
       <c r="X6" t="n">
-        <v>1.716516830495783</v>
+        <v>1.467529076191523</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.3956406289969</v>
+        <v>3.138904403862898</v>
       </c>
       <c r="Z6" t="n">
-        <v>39.66978348722559</v>
+        <v>10.32548648264921</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.025859984458676</v>
+        <v>1.107233011581817</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.888069722412551</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.126037713889599</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>24.93272400712383</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.041783793591667</v>
       </c>
     </row>
     <row r="7">
@@ -1047,73 +1127,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.14240812386288</v>
+        <v>1.571744492928856</v>
       </c>
       <c r="F7" t="n">
-        <v>17.56732446245159</v>
+        <v>7.478886211391416</v>
       </c>
       <c r="G7" t="n">
-        <v>14.76402219104996</v>
+        <v>4.346795635137402</v>
       </c>
       <c r="H7" t="n">
-        <v>1.262655618305185</v>
+        <v>2.064916339067152</v>
       </c>
       <c r="I7" t="n">
-        <v>1.034428543657743</v>
+        <v>1.148811678389527</v>
       </c>
       <c r="J7" t="n">
-        <v>30.04566658238847</v>
+        <v>7.719902704023132</v>
       </c>
       <c r="K7" t="n">
-        <v>4.807266741342191</v>
+        <v>1.939040902382981</v>
       </c>
       <c r="L7" t="n">
-        <v>1.462694849358951</v>
+        <v>2.972962167471333</v>
       </c>
       <c r="M7" t="n">
-        <v>1.015007449644777</v>
+        <v>1.069299347074809</v>
       </c>
       <c r="N7" t="n">
-        <v>67.63357356977886</v>
+        <v>15.43015038684983</v>
       </c>
       <c r="O7" t="n">
-        <v>3.161251635684879</v>
+        <v>1.506852090976311</v>
       </c>
       <c r="P7" t="n">
-        <v>1.229711799731851</v>
+        <v>4.712562281198177</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.353280942325684</v>
+        <v>1.029723651130022</v>
       </c>
       <c r="R7" t="n">
-        <v>6.354799180069366</v>
+        <v>34.64324240066055</v>
       </c>
       <c r="S7" t="n">
-        <v>1.18674836653483</v>
+        <v>1.269355750626563</v>
       </c>
       <c r="T7" t="n">
-        <v>1.470236214576323</v>
+        <v>2.395777500845176</v>
       </c>
       <c r="U7" t="n">
-        <v>3.126590783529904</v>
+        <v>1.716446567876668</v>
       </c>
       <c r="V7" t="n">
-        <v>14.71724479602924</v>
+        <v>6.545201489579058</v>
       </c>
       <c r="W7" t="n">
-        <v>1.07290093709558</v>
+        <v>1.180336098134445</v>
       </c>
       <c r="X7" t="n">
-        <v>1.893195937464387</v>
+        <v>3.953263510630933</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.119575177243651</v>
+        <v>1.338608456847916</v>
       </c>
       <c r="Z7" t="n">
-        <v>38.84661684149125</v>
+        <v>15.29802753557291</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.026422440985629</v>
+        <v>1.069939717035237</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.308667115700426</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.158512088474488</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>40.76492614841345</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.02514778969456</v>
       </c>
     </row>
     <row r="8">
@@ -1138,73 +1230,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.874608754351656</v>
+        <v>1.510373371217801</v>
       </c>
       <c r="F8" t="n">
-        <v>7.058611089641388</v>
+        <v>8.414874654394533</v>
       </c>
       <c r="G8" t="n">
-        <v>3.078017663135952</v>
+        <v>4.564649458239582</v>
       </c>
       <c r="H8" t="n">
-        <v>2.577911426687815</v>
+        <v>1.904803896753523</v>
       </c>
       <c r="I8" t="n">
-        <v>1.257983055838185</v>
+        <v>1.147745297522529</v>
       </c>
       <c r="J8" t="n">
-        <v>4.876223563408093</v>
+        <v>7.768404929080861</v>
       </c>
       <c r="K8" t="n">
-        <v>1.633749133878251</v>
+        <v>2.105211862579334</v>
       </c>
       <c r="L8" t="n">
-        <v>3.87892209902574</v>
+        <v>2.590248612781015</v>
       </c>
       <c r="M8" t="n">
-        <v>1.132377209349239</v>
+        <v>1.073415589581014</v>
       </c>
       <c r="N8" t="n">
-        <v>8.554170426434835</v>
+        <v>14.62108519058491</v>
       </c>
       <c r="O8" t="n">
-        <v>1.347352226146866</v>
+        <v>1.628832493210737</v>
       </c>
       <c r="P8" t="n">
-        <v>2.425676569762615</v>
+        <v>3.817761085606752</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.701421361064037</v>
+        <v>1.033987009466157</v>
       </c>
       <c r="R8" t="n">
-        <v>3.728223762766472</v>
+        <v>30.42300648710465</v>
       </c>
       <c r="S8" t="n">
-        <v>1.366538849799468</v>
+        <v>1.354891692240355</v>
       </c>
       <c r="T8" t="n">
-        <v>4.022377637482552</v>
+        <v>1.773654591072937</v>
       </c>
       <c r="U8" t="n">
-        <v>1.33086533846675</v>
+        <v>2.292566490962275</v>
       </c>
       <c r="V8" t="n">
-        <v>7.247629572583086</v>
+        <v>4.176233839933125</v>
       </c>
       <c r="W8" t="n">
-        <v>1.160060705965727</v>
+        <v>1.314838280301508</v>
       </c>
       <c r="X8" t="n">
-        <v>7.475852077750368</v>
+        <v>2.574991314343375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.154419833559167</v>
+        <v>1.634924136338433</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.94190895237344</v>
+        <v>8.440795556009052</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.066925852860398</v>
+        <v>1.134394231433011</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>4.142188664816253</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.318249509075381</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.33903563101921</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.054528494306896</v>
       </c>
     </row>
     <row r="9">
@@ -1229,73 +1333,85 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.115754950513624</v>
+        <v>1.175520022706314</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55415565433699</v>
+        <v>15.55231180122081</v>
       </c>
       <c r="G9" t="n">
-        <v>18.15083230956264</v>
+        <v>11.76283231838263</v>
       </c>
       <c r="H9" t="n">
-        <v>1.215468454267187</v>
+        <v>1.314618381719359</v>
       </c>
       <c r="I9" t="n">
-        <v>1.027208375762801</v>
+        <v>1.046080674037752</v>
       </c>
       <c r="J9" t="n">
-        <v>37.7533883212236</v>
+        <v>22.70107145526457</v>
       </c>
       <c r="K9" t="n">
-        <v>5.641050604836906</v>
+        <v>4.178453828842092</v>
       </c>
       <c r="L9" t="n">
-        <v>1.381422787786976</v>
+        <v>1.542721638142272</v>
       </c>
       <c r="M9" t="n">
-        <v>1.011661272370783</v>
+        <v>1.021197102404618</v>
       </c>
       <c r="N9" t="n">
-        <v>86.7539356087307</v>
+        <v>48.17625932599739</v>
       </c>
       <c r="O9" t="n">
-        <v>3.621762600504342</v>
+        <v>2.842565193131022</v>
       </c>
       <c r="P9" t="n">
-        <v>1.183032582395118</v>
+        <v>1.914112233923191</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.463508119233485</v>
+        <v>1.00898304438841</v>
       </c>
       <c r="R9" t="n">
-        <v>6.531655594770331</v>
+        <v>112.3208347595676</v>
       </c>
       <c r="S9" t="n">
-        <v>1.180777704408316</v>
+        <v>2.093957572045827</v>
       </c>
       <c r="T9" t="n">
-        <v>1.378822390561836</v>
+        <v>1.228215250349452</v>
       </c>
       <c r="U9" t="n">
-        <v>3.639759488653476</v>
+        <v>5.381828113891434</v>
       </c>
       <c r="V9" t="n">
-        <v>15.25655543393986</v>
+        <v>4.856711931340955</v>
       </c>
       <c r="W9" t="n">
-        <v>1.07014317060202</v>
+        <v>1.259288227330037</v>
       </c>
       <c r="X9" t="n">
-        <v>1.721081246271797</v>
+        <v>1.467304152489848</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.386806279001563</v>
+        <v>3.139933905298917</v>
       </c>
       <c r="Z9" t="n">
-        <v>40.62739810314091</v>
+        <v>10.3221208290261</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.025235065834937</v>
+        <v>1.107271726932172</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.887643891683332</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.126577909643016</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>24.92250935344757</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.041801634821218</v>
       </c>
     </row>
     <row r="10">
@@ -1320,73 +1436,85 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.056836019446762</v>
+        <v>4.263535613010567</v>
       </c>
       <c r="F10" t="n">
-        <v>6.907057294067285</v>
+        <v>8.892132260944718</v>
       </c>
       <c r="G10" t="n">
-        <v>2.709756016385274</v>
+        <v>1.531407841590183</v>
       </c>
       <c r="H10" t="n">
-        <v>2.909676441532259</v>
+        <v>6.857260346271354</v>
       </c>
       <c r="I10" t="n">
-        <v>1.317751903713293</v>
+        <v>2.10754727172351</v>
       </c>
       <c r="J10" t="n">
-        <v>4.147109390420196</v>
+        <v>1.902895998690738</v>
       </c>
       <c r="K10" t="n">
-        <v>1.523648916775469</v>
+        <v>1.170728282658049</v>
       </c>
       <c r="L10" t="n">
-        <v>4.514591384273015</v>
+        <v>12.02012188810848</v>
       </c>
       <c r="M10" t="n">
-        <v>1.166458268376866</v>
+        <v>1.656133303482119</v>
       </c>
       <c r="N10" t="n">
-        <v>7.007511731024225</v>
+        <v>2.524080540787931</v>
       </c>
       <c r="O10" t="n">
-        <v>1.284528097483756</v>
+        <v>1.090743097957843</v>
       </c>
       <c r="P10" t="n">
-        <v>2.61468432613752</v>
+        <v>22.97834288521315</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61931610025106</v>
+        <v>1.385947942075676</v>
       </c>
       <c r="R10" t="n">
-        <v>3.315245405032524</v>
+        <v>3.591023013678673</v>
       </c>
       <c r="S10" t="n">
-        <v>1.431919656476309</v>
+        <v>1.045499335651588</v>
       </c>
       <c r="T10" t="n">
-        <v>4.464909352517543</v>
+        <v>2.765509237841624</v>
       </c>
       <c r="U10" t="n">
-        <v>1.288607838838097</v>
+        <v>1.566408817674907</v>
       </c>
       <c r="V10" t="n">
-        <v>6.18315650827354</v>
+        <v>1.493782555300931</v>
       </c>
       <c r="W10" t="n">
-        <v>1.192932626750469</v>
+        <v>3.025182925691979</v>
       </c>
       <c r="X10" t="n">
-        <v>8.562818262535936</v>
+        <v>4.824772746352181</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.132225840326445</v>
+        <v>1.261453442156461</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.02033478025395</v>
+        <v>1.995168236546222</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.083192358472638</v>
+        <v>2.00485522274158</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.466621393855874</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.118110867780823</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.923748394645408</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.519818497462254</v>
       </c>
     </row>
     <row r="11">
@@ -1411,73 +1539,85 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.125063063677842</v>
+        <v>1.178969611469527</v>
       </c>
       <c r="F11" t="n">
-        <v>19.5772243901357</v>
+        <v>15.3850369280119</v>
       </c>
       <c r="G11" t="n">
-        <v>16.64414921548259</v>
+        <v>11.52027305145817</v>
       </c>
       <c r="H11" t="n">
-        <v>1.23013414847836</v>
+        <v>1.319978156383952</v>
       </c>
       <c r="I11" t="n">
-        <v>1.030363976596499</v>
+        <v>1.047338049926346</v>
       </c>
       <c r="J11" t="n">
-        <v>33.93376270469434</v>
+        <v>22.1246555689536</v>
       </c>
       <c r="K11" t="n">
-        <v>5.345291677102111</v>
+        <v>4.12521333112523</v>
       </c>
       <c r="L11" t="n">
-        <v>1.403871555074123</v>
+        <v>1.550926604745412</v>
       </c>
       <c r="M11" t="n">
-        <v>1.013286952922467</v>
+        <v>1.021882359864325</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26180049220059</v>
+        <v>46.69891027294187</v>
       </c>
       <c r="O11" t="n">
-        <v>3.476034737867266</v>
+        <v>2.815123813928189</v>
       </c>
       <c r="P11" t="n">
-        <v>1.181793611350487</v>
+        <v>1.92672343389757</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.500743357103248</v>
+        <v>1.009325396862301</v>
       </c>
       <c r="R11" t="n">
-        <v>5.880141303564999</v>
+        <v>108.2340421288221</v>
       </c>
       <c r="S11" t="n">
-        <v>1.204912099424148</v>
+        <v>2.079070587213109</v>
       </c>
       <c r="T11" t="n">
-        <v>1.376395575769127</v>
+        <v>1.227976925784149</v>
       </c>
       <c r="U11" t="n">
-        <v>3.656779368239381</v>
+        <v>5.3864088287023</v>
       </c>
       <c r="V11" t="n">
-        <v>13.29015300723741</v>
+        <v>4.740801488338272</v>
       </c>
       <c r="W11" t="n">
-        <v>1.081365952027702</v>
+        <v>1.267322391502848</v>
       </c>
       <c r="X11" t="n">
-        <v>1.716538473532768</v>
+        <v>1.46683724093097</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.395598473686519</v>
+        <v>3.142074179870039</v>
       </c>
       <c r="Z11" t="n">
-        <v>34.20575740303148</v>
+        <v>9.996135120450173</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.030115259467285</v>
+        <v>1.111158846172373</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.886759964560253</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.127700888589285</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>23.93680582629139</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.043598049683699</v>
       </c>
     </row>
     <row r="12">
@@ -1502,73 +1642,85 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.760896333544998</v>
+        <v>2.572616680830862</v>
       </c>
       <c r="F12" t="n">
-        <v>9.367290383855025</v>
+        <v>7.279034277707837</v>
       </c>
       <c r="G12" t="n">
-        <v>1.463697959529252</v>
+        <v>2.110105962872146</v>
       </c>
       <c r="H12" t="n">
-        <v>7.813070193051558</v>
+        <v>3.783863006151783</v>
       </c>
       <c r="I12" t="n">
-        <v>2.267218964622382</v>
+        <v>1.514952608621186</v>
       </c>
       <c r="J12" t="n">
-        <v>1.789129604210107</v>
+        <v>2.941926272939088</v>
       </c>
       <c r="K12" t="n">
-        <v>1.146776705899768</v>
+        <v>1.359213078298106</v>
       </c>
       <c r="L12" t="n">
-        <v>13.98313177068117</v>
+        <v>6.075165128199338</v>
       </c>
       <c r="M12" t="n">
-        <v>1.752518288660609</v>
+        <v>1.289191860407991</v>
       </c>
       <c r="N12" t="n">
-        <v>2.328871357771091</v>
+        <v>4.45791198476058</v>
       </c>
       <c r="O12" t="n">
-        <v>1.077023018610828</v>
+        <v>1.197037923838904</v>
       </c>
       <c r="P12" t="n">
-        <v>2.897776713165366</v>
+        <v>10.66632182911704</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.526932379906836</v>
+        <v>1.15718837056945</v>
       </c>
       <c r="R12" t="n">
-        <v>1.438502444003515</v>
+        <v>7.361793791597162</v>
       </c>
       <c r="S12" t="n">
-        <v>3.280488999947246</v>
+        <v>1.103451966288541</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145067256058605</v>
+        <v>2.507062990172581</v>
       </c>
       <c r="U12" t="n">
-        <v>1.241250609031339</v>
+        <v>1.663542271637555</v>
       </c>
       <c r="V12" t="n">
-        <v>1.883676948995587</v>
+        <v>2.172168523422857</v>
       </c>
       <c r="W12" t="n">
-        <v>2.131635266866052</v>
+        <v>1.85311964962162</v>
       </c>
       <c r="X12" t="n">
-        <v>10.28506316849639</v>
+        <v>4.211752849620511</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.107699859640474</v>
+        <v>1.31135646073083</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.698790328659064</v>
+        <v>3.444414755749374</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.588654163571409</v>
+        <v>1.40909587771386</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>7.937571260544279</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.14414266354095</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.100786838470794</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.196048184656114</v>
       </c>
     </row>
     <row r="13">
@@ -1593,73 +1745,85 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.89296489474322</v>
+        <v>2.06457301509098</v>
       </c>
       <c r="F13" t="n">
-        <v>8.569119152445849</v>
+        <v>6.952995651537126</v>
       </c>
       <c r="G13" t="n">
-        <v>1.596351972382697</v>
+        <v>2.68950634220995</v>
       </c>
       <c r="H13" t="n">
-        <v>6.147394408561923</v>
+        <v>2.915418059260459</v>
       </c>
       <c r="I13" t="n">
-        <v>1.988660519010836</v>
+        <v>1.323270044131755</v>
       </c>
       <c r="J13" t="n">
-        <v>2.011469539615589</v>
+        <v>4.093389004495664</v>
       </c>
       <c r="K13" t="n">
-        <v>1.194273047803885</v>
+        <v>1.522079237566601</v>
       </c>
       <c r="L13" t="n">
-        <v>10.56972890134003</v>
+        <v>4.509964855237964</v>
       </c>
       <c r="M13" t="n">
-        <v>1.584704996832931</v>
+        <v>1.17042012987283</v>
       </c>
       <c r="N13" t="n">
-        <v>2.710264159561703</v>
+        <v>6.86785141371627</v>
       </c>
       <c r="O13" t="n">
-        <v>1.104496168105658</v>
+        <v>1.284903137564949</v>
       </c>
       <c r="P13" t="n">
-        <v>2.633401977869857</v>
+        <v>7.662493543578759</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.612219168060586</v>
+        <v>1.085346773752735</v>
       </c>
       <c r="R13" t="n">
-        <v>1.538080308919726</v>
+        <v>12.71690452994945</v>
       </c>
       <c r="S13" t="n">
-        <v>2.858458641624788</v>
+        <v>1.150093954081769</v>
       </c>
       <c r="T13" t="n">
-        <v>4.509250607892016</v>
+        <v>2.551211978700033</v>
       </c>
       <c r="U13" t="n">
-        <v>1.284961124677469</v>
+        <v>1.64465721882707</v>
       </c>
       <c r="V13" t="n">
-        <v>2.085217185174485</v>
+        <v>3.188207299953841</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92147453400235</v>
+        <v>1.456995093664615</v>
       </c>
       <c r="X13" t="n">
-        <v>8.67324764538246</v>
+        <v>4.315231556463168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.130322914913579</v>
+        <v>1.301638055432497</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.107742030480792</v>
+        <v>5.863046581706702</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.474441362148997</v>
+        <v>1.205632412356833</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.192055562825649</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.139042307343787</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.16410404151427</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.08957279476091</v>
       </c>
     </row>
     <row r="14">
@@ -1684,73 +1848,85 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.118115391208567</v>
+        <v>1.209107988436613</v>
       </c>
       <c r="F14" t="n">
-        <v>20.30384002017952</v>
+        <v>13.76577870776965</v>
       </c>
       <c r="G14" t="n">
-        <v>17.73484868592787</v>
+        <v>9.970079504989293</v>
       </c>
       <c r="H14" t="n">
-        <v>1.219105066576843</v>
+        <v>1.373371774096445</v>
       </c>
       <c r="I14" t="n">
-        <v>1.028033471843295</v>
+        <v>1.055818480942664</v>
       </c>
       <c r="J14" t="n">
-        <v>36.67164301267817</v>
+        <v>18.91521344027933</v>
       </c>
       <c r="K14" t="n">
-        <v>5.5640204292094</v>
+        <v>3.678295654297884</v>
       </c>
       <c r="L14" t="n">
-        <v>1.386839982137999</v>
+        <v>1.644066814925543</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01209006302939</v>
+        <v>1.025959905363033</v>
       </c>
       <c r="N14" t="n">
-        <v>83.71255472937473</v>
+        <v>39.52094166044231</v>
       </c>
       <c r="O14" t="n">
-        <v>3.585048201256677</v>
+        <v>2.552633945463568</v>
       </c>
       <c r="P14" t="n">
-        <v>1.181828925980352</v>
+        <v>2.08954968083223</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.499675008299044</v>
+        <v>1.011129228926067</v>
       </c>
       <c r="R14" t="n">
-        <v>6.320741774961292</v>
+        <v>90.85348460734588</v>
       </c>
       <c r="S14" t="n">
-        <v>1.187943719559154</v>
+        <v>1.91781037394841</v>
       </c>
       <c r="T14" t="n">
-        <v>1.37646474948699</v>
+        <v>1.283337418528626</v>
       </c>
       <c r="U14" t="n">
-        <v>3.656291196885509</v>
+        <v>4.529360877193731</v>
       </c>
       <c r="V14" t="n">
-        <v>14.61385281848415</v>
+        <v>4.833389705771483</v>
       </c>
       <c r="W14" t="n">
-        <v>1.073454591681956</v>
+        <v>1.260865728964216</v>
       </c>
       <c r="X14" t="n">
-        <v>1.716667942504992</v>
+        <v>1.575488024689801</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.395346353158575</v>
+        <v>2.737655619400627</v>
       </c>
       <c r="Z14" t="n">
-        <v>38.50686658897606</v>
+        <v>10.25635402503918</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.026661784652891</v>
+        <v>1.108033897287735</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.093965076781798</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.914105963000005</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>24.72306273863493</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.042153073193683</v>
       </c>
     </row>
     <row r="15">
@@ -1775,73 +1951,85 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.214340979348045</v>
+        <v>1.567876903472875</v>
       </c>
       <c r="F15" t="n">
-        <v>13.81877128441145</v>
+        <v>7.613527945879362</v>
       </c>
       <c r="G15" t="n">
-        <v>9.60220620648615</v>
+        <v>4.331823336084757</v>
       </c>
       <c r="H15" t="n">
-        <v>1.377350919886493</v>
+        <v>2.046738966575963</v>
       </c>
       <c r="I15" t="n">
-        <v>1.059437698835846</v>
+        <v>1.15143762728388</v>
       </c>
       <c r="J15" t="n">
-        <v>17.82433909094945</v>
+        <v>7.603378684251528</v>
       </c>
       <c r="K15" t="n">
-        <v>3.650053166163744</v>
+        <v>1.955348020787979</v>
       </c>
       <c r="L15" t="n">
-        <v>1.643171445815543</v>
+        <v>2.918941909316889</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02834783140377</v>
+        <v>1.071621050656204</v>
       </c>
       <c r="N15" t="n">
-        <v>36.27606700338328</v>
+        <v>14.9623754585813</v>
       </c>
       <c r="O15" t="n">
-        <v>2.55479539165797</v>
+        <v>1.521120517064523</v>
       </c>
       <c r="P15" t="n">
-        <v>1.247821134194806</v>
+        <v>4.569431804507134</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.035168361443809</v>
+        <v>1.031287280131874</v>
       </c>
       <c r="R15" t="n">
-        <v>4.149557098749545</v>
+        <v>32.9618706319329</v>
       </c>
       <c r="S15" t="n">
-        <v>1.317504959791656</v>
+        <v>1.280156634099942</v>
       </c>
       <c r="T15" t="n">
-        <v>1.505734294921589</v>
+        <v>2.259483823109361</v>
       </c>
       <c r="U15" t="n">
-        <v>2.977322894732786</v>
+        <v>1.793976057216235</v>
       </c>
       <c r="V15" t="n">
-        <v>8.368692714972134</v>
+        <v>5.903444965526613</v>
       </c>
       <c r="W15" t="n">
-        <v>1.13570928232197</v>
+        <v>1.203938253009964</v>
       </c>
       <c r="X15" t="n">
-        <v>1.960587188906722</v>
+        <v>3.641395563163178</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.041029915398034</v>
+        <v>1.37858774881959</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.13036868138662</v>
+        <v>13.35950594235079</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.055156076391687</v>
+        <v>1.080909383001583</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>6.563428832397946</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.179745266835557</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>34.42880524943437</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.02991432067459</v>
       </c>
     </row>
     <row r="16">
@@ -1866,73 +2054,85 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.368082911990897</v>
+        <v>1.586495278406215</v>
       </c>
       <c r="F16" t="n">
-        <v>10.09877591849138</v>
+        <v>7.537340366629405</v>
       </c>
       <c r="G16" t="n">
-        <v>5.881375683959416</v>
+        <v>4.219284304326422</v>
       </c>
       <c r="H16" t="n">
-        <v>1.639856291065558</v>
+        <v>2.080255361250555</v>
       </c>
       <c r="I16" t="n">
-        <v>1.108731122867891</v>
+        <v>1.157275898661488</v>
       </c>
       <c r="J16" t="n">
-        <v>10.19699873986413</v>
+        <v>7.358253289350733</v>
       </c>
       <c r="K16" t="n">
-        <v>2.562850930690535</v>
+        <v>1.925707046565687</v>
       </c>
       <c r="L16" t="n">
-        <v>2.092377872157176</v>
+        <v>2.981502624941098</v>
       </c>
       <c r="M16" t="n">
-        <v>1.054330554110539</v>
+        <v>1.074737270284719</v>
       </c>
       <c r="N16" t="n">
-        <v>19.40584945931966</v>
+        <v>14.38020503278224</v>
       </c>
       <c r="O16" t="n">
-        <v>1.915434141873681</v>
+        <v>1.504667512125918</v>
       </c>
       <c r="P16" t="n">
-        <v>1.437844248571184</v>
+        <v>4.692417989205637</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.283917176629124</v>
+        <v>1.032841377350513</v>
       </c>
       <c r="R16" t="n">
-        <v>3.693532516309961</v>
+        <v>31.44939282926833</v>
       </c>
       <c r="S16" t="n">
-        <v>1.371259672547025</v>
+        <v>1.270825243220943</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88235524256844</v>
+        <v>2.287094708943788</v>
       </c>
       <c r="U16" t="n">
-        <v>2.133330377330914</v>
+        <v>1.776943602557901</v>
       </c>
       <c r="V16" t="n">
-        <v>7.156860000193344</v>
+        <v>5.76135660508616</v>
       </c>
       <c r="W16" t="n">
-        <v>1.162420454577268</v>
+        <v>1.210024176498728</v>
       </c>
       <c r="X16" t="n">
-        <v>2.696142728797306</v>
+        <v>3.704147177524069</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.589573025324983</v>
+        <v>1.369802357028365</v>
       </c>
       <c r="Z16" t="n">
-        <v>15.68856508732643</v>
+        <v>12.93781542431235</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.068080169441658</v>
+        <v>1.083767420123067</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>6.712146686354352</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.175065532261082</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>33.07666439252557</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.031175311365387</v>
       </c>
     </row>
     <row r="17">
@@ -1957,73 +2157,85 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.863428848415707</v>
+        <v>4.425628848499814</v>
       </c>
       <c r="F17" t="n">
-        <v>9.432643862074315</v>
+        <v>9.038913286717641</v>
       </c>
       <c r="G17" t="n">
-        <v>1.452709367747507</v>
+        <v>1.507362011038076</v>
       </c>
       <c r="H17" t="n">
-        <v>8.025893590010636</v>
+        <v>7.169843991175479</v>
       </c>
       <c r="I17" t="n">
-        <v>2.295315058582717</v>
+        <v>2.159121284735777</v>
       </c>
       <c r="J17" t="n">
-        <v>1.772012950342878</v>
+        <v>1.862722489155181</v>
       </c>
       <c r="K17" t="n">
-        <v>1.142330649786925</v>
+        <v>1.162078652463542</v>
       </c>
       <c r="L17" t="n">
-        <v>14.45376339748106</v>
+        <v>12.66390675315545</v>
       </c>
       <c r="M17" t="n">
-        <v>1.768201987509289</v>
+        <v>1.687089492900077</v>
       </c>
       <c r="N17" t="n">
-        <v>2.301740969510194</v>
+        <v>2.455414484333308</v>
       </c>
       <c r="O17" t="n">
-        <v>1.074328644740938</v>
+        <v>1.085734567427802</v>
       </c>
       <c r="P17" t="n">
-        <v>2.967492086588453</v>
+        <v>24.40002825144752</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.508261256457685</v>
+        <v>1.404943771477477</v>
       </c>
       <c r="R17" t="n">
-        <v>1.438502997677865</v>
+        <v>3.469478654657168</v>
       </c>
       <c r="S17" t="n">
-        <v>3.280486120495407</v>
+        <v>1.042734991139942</v>
       </c>
       <c r="T17" t="n">
-        <v>5.315603636355979</v>
+        <v>2.818444823029776</v>
       </c>
       <c r="U17" t="n">
-        <v>1.231717294789468</v>
+        <v>1.549920452540245</v>
       </c>
       <c r="V17" t="n">
-        <v>1.883678060871965</v>
+        <v>1.476352489521448</v>
       </c>
       <c r="W17" t="n">
-        <v>2.131633843000759</v>
+        <v>3.099285764213422</v>
       </c>
       <c r="X17" t="n">
-        <v>10.72596198137556</v>
+        <v>4.952441321501208</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.102817592945039</v>
+        <v>1.253008183716737</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.698792556125534</v>
+        <v>1.959910070178522</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.588653391724719</v>
+        <v>2.041764255909955</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.791312240429161</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.113748661479823</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.852262880225011</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.539880170723132</v>
       </c>
     </row>
     <row r="18">
@@ -2048,73 +2260,85 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.126084766013845</v>
+        <v>1.1764419695738</v>
       </c>
       <c r="F18" t="n">
-        <v>19.47645016008061</v>
+        <v>15.49708051096329</v>
       </c>
       <c r="G18" t="n">
-        <v>16.49530087642855</v>
+        <v>11.70260780955664</v>
       </c>
       <c r="H18" t="n">
-        <v>1.231755168206504</v>
+        <v>1.316190028812062</v>
       </c>
       <c r="I18" t="n">
-        <v>1.030708859968578</v>
+        <v>1.046361835549002</v>
       </c>
       <c r="J18" t="n">
-        <v>33.56389201758787</v>
+        <v>22.56946523273572</v>
       </c>
       <c r="K18" t="n">
-        <v>5.314898380643479</v>
+        <v>4.162655077255404</v>
       </c>
       <c r="L18" t="n">
-        <v>1.40637707686559</v>
+        <v>1.545362514177303</v>
       </c>
       <c r="M18" t="n">
-        <v>1.013465105373599</v>
+        <v>1.021338126805855</v>
       </c>
       <c r="N18" t="n">
-        <v>75.26603596884593</v>
+        <v>47.86446983366951</v>
       </c>
       <c r="O18" t="n">
-        <v>3.460768721781897</v>
+        <v>2.833642712881602</v>
       </c>
       <c r="P18" t="n">
-        <v>1.181821200313999</v>
+        <v>1.918563979026671</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.499908692017384</v>
+        <v>1.009048230098039</v>
       </c>
       <c r="R18" t="n">
-        <v>5.821808343592875</v>
+        <v>111.5188516610293</v>
       </c>
       <c r="S18" t="n">
-        <v>1.207391071718722</v>
+        <v>2.088655796256697</v>
       </c>
       <c r="T18" t="n">
-        <v>1.376449616587409</v>
+        <v>1.229357875951071</v>
       </c>
       <c r="U18" t="n">
-        <v>3.656397977145521</v>
+        <v>5.359998521321031</v>
       </c>
       <c r="V18" t="n">
-        <v>13.11688077431635</v>
+        <v>4.849271366489655</v>
       </c>
       <c r="W18" t="n">
-        <v>1.082529490767926</v>
+        <v>1.25978942630692</v>
       </c>
       <c r="X18" t="n">
-        <v>1.716639618927951</v>
+        <v>1.469542784393753</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.395401501100287</v>
+        <v>3.129731375365813</v>
       </c>
       <c r="Z18" t="n">
-        <v>33.64963891889236</v>
+        <v>10.30112948495734</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.030628210084779</v>
+        <v>1.107513824166978</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.891882688007872</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.121223691687099</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>24.85881852925363</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.041913223774006</v>
       </c>
     </row>
     <row r="19">
@@ -2139,73 +2363,85 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.152322664199341</v>
+        <v>1.399990542550285</v>
       </c>
       <c r="F19" t="n">
-        <v>17.34202184683024</v>
+        <v>8.796859221647132</v>
       </c>
       <c r="G19" t="n">
-        <v>13.41847676669771</v>
+        <v>5.812854292369102</v>
       </c>
       <c r="H19" t="n">
-        <v>1.272992257148443</v>
+        <v>1.740128953774035</v>
       </c>
       <c r="I19" t="n">
-        <v>1.039859679483453</v>
+        <v>1.101733891642287</v>
       </c>
       <c r="J19" t="n">
-        <v>26.08800905976009</v>
+        <v>10.82956597705076</v>
       </c>
       <c r="K19" t="n">
-        <v>4.663107556403102</v>
+        <v>2.351115903385268</v>
       </c>
       <c r="L19" t="n">
-        <v>1.469748855046506</v>
+        <v>2.343597091044774</v>
       </c>
       <c r="M19" t="n">
-        <v>1.018304594619495</v>
+        <v>1.046168141501393</v>
       </c>
       <c r="N19" t="n">
-        <v>55.6310923998809</v>
+        <v>22.65995787311086</v>
       </c>
       <c r="O19" t="n">
-        <v>3.128797099252106</v>
+        <v>1.744270739096647</v>
       </c>
       <c r="P19" t="n">
-        <v>1.181972407588059</v>
+        <v>3.441429288583933</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.495338624434505</v>
+        <v>1.019179872950635</v>
       </c>
       <c r="R19" t="n">
-        <v>4.648473522524207</v>
+        <v>53.13798874339766</v>
       </c>
       <c r="S19" t="n">
-        <v>1.274087229584209</v>
+        <v>1.409596134803484</v>
       </c>
       <c r="T19" t="n">
-        <v>1.376745797829693</v>
+        <v>1.923389692655602</v>
       </c>
       <c r="U19" t="n">
-        <v>3.654309632013595</v>
+        <v>2.08296638781409</v>
       </c>
       <c r="V19" t="n">
-        <v>9.738051921748589</v>
+        <v>7.079511263003193</v>
       </c>
       <c r="W19" t="n">
-        <v>1.114441984203716</v>
+        <v>1.164486906387606</v>
       </c>
       <c r="X19" t="n">
-        <v>1.717193977308257</v>
+        <v>2.895790733637381</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.394322919098065</v>
+        <v>1.527484380135849</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.16163723632053</v>
+        <v>16.95204170770465</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.045123019988844</v>
+        <v>1.062687900290344</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>4.848014056285145</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.259874310585392</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>46.31575200177343</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.022067381778435</v>
       </c>
     </row>
   </sheetData>

--- a/output_corners_NNNN_AH.xlsx
+++ b/output_corners_NNNN_AH.xlsx
@@ -612,85 +612,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.312791972610813</v>
+        <v>1.923336850859044</v>
       </c>
       <c r="F2" t="n">
-        <v>6.785086207772856</v>
+        <v>6.93617069790043</v>
       </c>
       <c r="G2" t="n">
-        <v>2.379592068190155</v>
+        <v>2.977089752965037</v>
       </c>
       <c r="H2" t="n">
-        <v>3.397825518057425</v>
+        <v>2.676455202283481</v>
       </c>
       <c r="I2" t="n">
-        <v>1.396083645024922</v>
+        <v>1.270351708665753</v>
       </c>
       <c r="J2" t="n">
-        <v>3.524719241909316</v>
+        <v>4.698885444206093</v>
       </c>
       <c r="K2" t="n">
-        <v>1.417044523243768</v>
+        <v>1.596496702469539</v>
       </c>
       <c r="L2" t="n">
-        <v>5.499148675577953</v>
+        <v>4.085488626355449</v>
       </c>
       <c r="M2" t="n">
-        <v>1.210286789279645</v>
+        <v>1.13845035605351</v>
       </c>
       <c r="N2" t="n">
-        <v>5.755410472648263</v>
+        <v>8.222805549257739</v>
       </c>
       <c r="O2" t="n">
-        <v>1.222264270889324</v>
+        <v>1.324097775457105</v>
       </c>
       <c r="P2" t="n">
-        <v>9.821679661730025</v>
+        <v>6.860976526401542</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.106648910267894</v>
+        <v>1.066841892581375</v>
       </c>
       <c r="R2" t="n">
-        <v>10.37656088081988</v>
+        <v>15.96067752394323</v>
       </c>
       <c r="S2" t="n">
-        <v>1.113357097326734</v>
+        <v>1.170620031575859</v>
       </c>
       <c r="T2" t="n">
-        <v>2.982042807462987</v>
+        <v>2.571316121629716</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5045299709142</v>
+        <v>1.636409177144338</v>
       </c>
       <c r="V2" t="n">
-        <v>3.057572513042207</v>
+        <v>3.793967815533039</v>
       </c>
       <c r="W2" t="n">
-        <v>1.486009602899223</v>
+        <v>1.357913929588061</v>
       </c>
       <c r="X2" t="n">
-        <v>5.351343948514389</v>
+        <v>4.362525098916177</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.229814055572742</v>
+        <v>1.297395549648781</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.537666914872359</v>
+        <v>7.420305257246379</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.220377568199743</v>
+        <v>1.155755834019159</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.81880282873611</v>
+        <v>8.308868274860352</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.101845410020187</v>
+        <v>1.136820087925187</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.30521869351856</v>
+        <v>16.42592156678145</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.097038212360204</v>
+        <v>1.064825948691028</v>
       </c>
     </row>
     <row r="3">
@@ -715,85 +715,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.175568535820792</v>
+        <v>1.183924986501544</v>
       </c>
       <c r="F3" t="n">
-        <v>15.54541914979087</v>
+        <v>15.16733065196016</v>
       </c>
       <c r="G3" t="n">
-        <v>11.76191966543118</v>
+        <v>11.1830914060697</v>
       </c>
       <c r="H3" t="n">
-        <v>1.31475633059442</v>
+        <v>1.327492805707095</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04607386981364</v>
+        <v>1.049224832354532</v>
       </c>
       <c r="J3" t="n">
-        <v>22.70427628599033</v>
+        <v>21.31494983665363</v>
       </c>
       <c r="K3" t="n">
-        <v>4.177060801641351</v>
+        <v>4.053502191722607</v>
       </c>
       <c r="L3" t="n">
-        <v>1.543038721401227</v>
+        <v>1.56213076545669</v>
       </c>
       <c r="M3" t="n">
-        <v>1.021188018408338</v>
+        <v>1.022931349288499</v>
       </c>
       <c r="N3" t="n">
-        <v>48.19648533090184</v>
+        <v>44.60842388378578</v>
       </c>
       <c r="O3" t="n">
-        <v>2.841489309306812</v>
+        <v>2.778945507790476</v>
       </c>
       <c r="P3" t="n">
-        <v>1.914776842152114</v>
+        <v>1.943455431974953</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008976212066859</v>
+        <v>1.009859504391711</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4055675770049</v>
+        <v>102.4249763751488</v>
       </c>
       <c r="S3" t="n">
-        <v>2.093162784540313</v>
+        <v>2.059933480807547</v>
       </c>
       <c r="T3" t="n">
-        <v>1.22875781535031</v>
+        <v>1.226177208500193</v>
       </c>
       <c r="U3" t="n">
-        <v>5.371435347328531</v>
+        <v>5.421311973169682</v>
       </c>
       <c r="V3" t="n">
-        <v>4.866051527315383</v>
+        <v>4.557419825046391</v>
       </c>
       <c r="W3" t="n">
-        <v>1.258661839588674</v>
+        <v>1.281102610650392</v>
       </c>
       <c r="X3" t="n">
-        <v>1.468367131900277</v>
+        <v>1.463311489636002</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.13507723298764</v>
+        <v>3.158375137179619</v>
       </c>
       <c r="Z3" t="n">
-        <v>10.34848236615096</v>
+        <v>9.484925860336233</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.106969234238576</v>
+        <v>1.117856068097733</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.889656460753628</v>
+        <v>1.880087004003894</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.124029380006863</v>
+        <v>2.13625129725876</v>
       </c>
       <c r="AD3" t="n">
-        <v>25.00253622135297</v>
+        <v>22.40594182878175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.041662263969855</v>
+        <v>1.046716001005638</v>
       </c>
     </row>
     <row r="4">
@@ -818,85 +818,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.008872943892104</v>
+        <v>1.976052193185719</v>
       </c>
       <c r="F4" t="n">
-        <v>8.763026311373036</v>
+        <v>6.928795560379236</v>
       </c>
       <c r="G4" t="n">
-        <v>1.571246184884417</v>
+        <v>2.860287013789794</v>
       </c>
       <c r="H4" t="n">
-        <v>6.336422106173567</v>
+        <v>2.766723018385874</v>
       </c>
       <c r="I4" t="n">
-        <v>2.03688767920148</v>
+        <v>1.289631961782188</v>
       </c>
       <c r="J4" t="n">
-        <v>1.964424614216761</v>
+        <v>4.452657620542691</v>
       </c>
       <c r="K4" t="n">
-        <v>1.187391473182589</v>
+        <v>1.566019681406329</v>
       </c>
       <c r="L4" t="n">
-        <v>10.89053649828339</v>
+        <v>4.247891085442803</v>
       </c>
       <c r="M4" t="n">
-        <v>1.616838986886146</v>
+        <v>1.14993940642893</v>
       </c>
       <c r="N4" t="n">
-        <v>2.621168605194822</v>
+        <v>7.669360802585214</v>
       </c>
       <c r="O4" t="n">
-        <v>1.101106749889004</v>
+        <v>1.307892097885316</v>
       </c>
       <c r="P4" t="n">
-        <v>20.37033672575985</v>
+        <v>7.171894160685237</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.363694527315796</v>
+        <v>1.073388008538861</v>
       </c>
       <c r="R4" t="n">
-        <v>3.749560207519155</v>
+        <v>14.62620433378397</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05162532867434</v>
+        <v>1.162024813447057</v>
       </c>
       <c r="T4" t="n">
-        <v>2.564516363900642</v>
+        <v>2.573923406736804</v>
       </c>
       <c r="U4" t="n">
-        <v>1.639175161777667</v>
+        <v>1.635354932596935</v>
       </c>
       <c r="V4" t="n">
-        <v>1.488167319172882</v>
+        <v>3.556576773089214</v>
       </c>
       <c r="W4" t="n">
-        <v>3.048477972049281</v>
+        <v>1.391148042384684</v>
       </c>
       <c r="X4" t="n">
-        <v>4.346517151790643</v>
+        <v>4.36866640204015</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.29881813080352</v>
+        <v>1.296853377762302</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.983798907094109</v>
+        <v>6.800892868441699</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.016467890733631</v>
+        <v>1.172387255320685</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.269294338018137</v>
+        <v>8.324059955774208</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.137564934572815</v>
+        <v>1.13653629353643</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.90066270798861</v>
+        <v>14.70242916771907</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.526132277861261</v>
+        <v>1.072979760578209</v>
       </c>
     </row>
     <row r="5">
@@ -921,85 +921,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.17657081177442</v>
+        <v>1.183952510714555</v>
       </c>
       <c r="F5" t="n">
-        <v>15.49871908696802</v>
+        <v>15.16608951030253</v>
       </c>
       <c r="G5" t="n">
-        <v>11.68894169891993</v>
+        <v>11.18131074225491</v>
       </c>
       <c r="H5" t="n">
-        <v>1.316279221522278</v>
+        <v>1.327535440297096</v>
       </c>
       <c r="I5" t="n">
-        <v>1.046452213283515</v>
+        <v>1.049234982198739</v>
       </c>
       <c r="J5" t="n">
-        <v>22.52749953800097</v>
+        <v>21.31076188803062</v>
       </c>
       <c r="K5" t="n">
-        <v>4.161763188827003</v>
+        <v>4.053104723851984</v>
       </c>
       <c r="L5" t="n">
-        <v>1.545311076095041</v>
+        <v>1.562195919670987</v>
       </c>
       <c r="M5" t="n">
-        <v>1.021396912952841</v>
+        <v>1.022936930246082</v>
       </c>
       <c r="N5" t="n">
-        <v>47.73571380151992</v>
+        <v>44.59781318909644</v>
       </c>
       <c r="O5" t="n">
-        <v>2.83381567666106</v>
+        <v>2.778739341589723</v>
       </c>
       <c r="P5" t="n">
-        <v>1.918170088370768</v>
+        <v>1.943555494920996</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.009081668529155</v>
+        <v>1.009862322920857</v>
       </c>
       <c r="R5" t="n">
-        <v>111.1119245642625</v>
+        <v>102.3959903792231</v>
       </c>
       <c r="S5" t="n">
-        <v>2.089122824480628</v>
+        <v>2.059821076113526</v>
       </c>
       <c r="T5" t="n">
-        <v>1.228380907572516</v>
+        <v>1.226175279764877</v>
       </c>
       <c r="U5" t="n">
-        <v>5.378649733154581</v>
+        <v>5.421349676408319</v>
       </c>
       <c r="V5" t="n">
-        <v>4.825515409606563</v>
+        <v>4.556589152792879</v>
       </c>
       <c r="W5" t="n">
-        <v>1.261402685109781</v>
+        <v>1.281168264603948</v>
       </c>
       <c r="X5" t="n">
-        <v>1.467628701235015</v>
+        <v>1.463307711269392</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.138448725150922</v>
+        <v>3.158392739158502</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.23416901756683</v>
+        <v>9.482623066596688</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.108293447747992</v>
+        <v>1.117888062707614</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.888258338901582</v>
+        <v>1.8800798546061</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.125798606334051</v>
+        <v>2.13626052768538</v>
       </c>
       <c r="AD5" t="n">
-        <v>24.65584981744083</v>
+        <v>22.39908810299136</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.042272841927781</v>
+        <v>1.046730963262879</v>
       </c>
     </row>
     <row r="6">
@@ -1024,85 +1024,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.175553945631493</v>
+        <v>1.184017270993913</v>
       </c>
       <c r="F6" t="n">
-        <v>15.54966981035253</v>
+        <v>15.16300977774388</v>
       </c>
       <c r="G6" t="n">
-        <v>11.76094762692905</v>
+        <v>11.17721090695554</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31468454835281</v>
+        <v>1.327638102363453</v>
       </c>
       <c r="I6" t="n">
-        <v>1.046087756948969</v>
+        <v>1.049257927277037</v>
       </c>
       <c r="J6" t="n">
-        <v>22.69773636645521</v>
+        <v>21.30130083175839</v>
       </c>
       <c r="K6" t="n">
-        <v>4.177785516430398</v>
+        <v>4.052148064545579</v>
       </c>
       <c r="L6" t="n">
-        <v>1.542845682779898</v>
+        <v>1.562356776524866</v>
       </c>
       <c r="M6" t="n">
-        <v>1.021199797788762</v>
+        <v>1.022949337935481</v>
       </c>
       <c r="N6" t="n">
-        <v>48.17026124325213</v>
+        <v>44.57424178472493</v>
       </c>
       <c r="O6" t="n">
-        <v>2.842144152052618</v>
+        <v>2.778230549971477</v>
       </c>
       <c r="P6" t="n">
-        <v>1.914340945799745</v>
+        <v>1.943809177353353</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008983892002674</v>
+        <v>1.009868498370555</v>
       </c>
       <c r="R6" t="n">
-        <v>112.3103318363967</v>
+        <v>102.3325394047489</v>
       </c>
       <c r="S6" t="n">
-        <v>2.093683931135045</v>
+        <v>2.059536211339053</v>
       </c>
       <c r="T6" t="n">
-        <v>1.228330056759684</v>
+        <v>1.226190641231091</v>
       </c>
       <c r="U6" t="n">
-        <v>5.379624891227056</v>
+        <v>5.42104940574591</v>
       </c>
       <c r="V6" t="n">
-        <v>4.857904622083269</v>
+        <v>4.55500347446733</v>
       </c>
       <c r="W6" t="n">
-        <v>1.259208067062062</v>
+        <v>1.281293677258596</v>
       </c>
       <c r="X6" t="n">
-        <v>1.467529076191523</v>
+        <v>1.463337804183686</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.138904403862898</v>
+        <v>3.158252555631222</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.32548648264921</v>
+        <v>9.478227566628307</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.107233011581817</v>
+        <v>1.117949181257668</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.888069722412551</v>
+        <v>1.880136796298589</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.126037713889599</v>
+        <v>2.13618701570653</v>
       </c>
       <c r="AD6" t="n">
-        <v>24.93272400712383</v>
+        <v>22.38600699454496</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.041783793591667</v>
+        <v>1.046759547037232</v>
       </c>
     </row>
     <row r="7">
@@ -1127,85 +1127,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.571744492928856</v>
+        <v>1.351394271588273</v>
       </c>
       <c r="F7" t="n">
-        <v>7.478886211391416</v>
+        <v>9.460477217228302</v>
       </c>
       <c r="G7" t="n">
-        <v>4.346795635137402</v>
+        <v>6.480016722913374</v>
       </c>
       <c r="H7" t="n">
-        <v>2.064916339067152</v>
+        <v>1.648034471860553</v>
       </c>
       <c r="I7" t="n">
-        <v>1.148811678389527</v>
+        <v>1.089073986103413</v>
       </c>
       <c r="J7" t="n">
-        <v>7.719902704023132</v>
+        <v>12.22662231416283</v>
       </c>
       <c r="K7" t="n">
-        <v>1.939040902382981</v>
+        <v>2.543127786287245</v>
       </c>
       <c r="L7" t="n">
-        <v>2.972962167471333</v>
+        <v>2.167402863746525</v>
       </c>
       <c r="M7" t="n">
-        <v>1.069299347074809</v>
+        <v>1.040225757101051</v>
       </c>
       <c r="N7" t="n">
-        <v>15.43015038684983</v>
+        <v>25.85969369048545</v>
       </c>
       <c r="O7" t="n">
-        <v>1.506852090976311</v>
+        <v>1.856602318749431</v>
       </c>
       <c r="P7" t="n">
-        <v>4.712562281198177</v>
+        <v>3.094710232833723</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.029723651130022</v>
+        <v>1.016616080590049</v>
       </c>
       <c r="R7" t="n">
-        <v>34.64324240066055</v>
+        <v>61.18266429201447</v>
       </c>
       <c r="S7" t="n">
-        <v>1.269355750626563</v>
+        <v>1.477392998957761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.395777500845176</v>
+        <v>1.775149402986787</v>
       </c>
       <c r="U7" t="n">
-        <v>1.716446567876668</v>
+        <v>2.290073882720963</v>
       </c>
       <c r="V7" t="n">
-        <v>6.545201489579058</v>
+        <v>7.027394550635948</v>
       </c>
       <c r="W7" t="n">
-        <v>1.180336098134445</v>
+        <v>1.16590916549415</v>
       </c>
       <c r="X7" t="n">
-        <v>3.953263510630933</v>
+        <v>2.578157813736328</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.338608456847916</v>
+        <v>1.633650190935262</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.29802753557291</v>
+        <v>16.78917916015097</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.069939717035237</v>
+        <v>1.063334514724098</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.308667115700426</v>
+        <v>4.149051493512012</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.158512088474488</v>
+        <v>1.317555937735632</v>
       </c>
       <c r="AD7" t="n">
-        <v>40.76492614841345</v>
+        <v>45.76363851907432</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.02514778969456</v>
+        <v>1.022339560256566</v>
       </c>
     </row>
     <row r="8">
@@ -1230,85 +1230,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.510373371217801</v>
+        <v>1.904937168886584</v>
       </c>
       <c r="F8" t="n">
-        <v>8.414874654394533</v>
+        <v>6.968211779276791</v>
       </c>
       <c r="G8" t="n">
-        <v>4.564649458239582</v>
+        <v>3.016232204726836</v>
       </c>
       <c r="H8" t="n">
-        <v>1.904803896753523</v>
+        <v>2.640932447435846</v>
       </c>
       <c r="I8" t="n">
-        <v>1.147745297522529</v>
+        <v>1.265061382637402</v>
       </c>
       <c r="J8" t="n">
-        <v>7.768404929080861</v>
+        <v>4.772711022819869</v>
       </c>
       <c r="K8" t="n">
-        <v>2.105211862579334</v>
+        <v>1.609409608276453</v>
       </c>
       <c r="L8" t="n">
-        <v>2.590248612781015</v>
+        <v>4.01371843658422</v>
       </c>
       <c r="M8" t="n">
-        <v>1.073415589581014</v>
+        <v>1.13564087320727</v>
       </c>
       <c r="N8" t="n">
-        <v>14.62108519058491</v>
+        <v>8.372409041277084</v>
       </c>
       <c r="O8" t="n">
-        <v>1.628832493210737</v>
+        <v>1.331816001077198</v>
       </c>
       <c r="P8" t="n">
-        <v>3.817761085606752</v>
+        <v>6.70757121517873</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.033987009466157</v>
+        <v>1.065407094502636</v>
       </c>
       <c r="R8" t="n">
-        <v>30.42300648710465</v>
+        <v>16.28886136288612</v>
       </c>
       <c r="S8" t="n">
-        <v>1.354891692240355</v>
+        <v>1.175205873444136</v>
       </c>
       <c r="T8" t="n">
-        <v>1.773654591072937</v>
+        <v>2.532379755221637</v>
       </c>
       <c r="U8" t="n">
-        <v>2.292566490962275</v>
+        <v>1.652579751587337</v>
       </c>
       <c r="V8" t="n">
-        <v>4.176233839933125</v>
+        <v>3.805289316703965</v>
       </c>
       <c r="W8" t="n">
-        <v>1.314838280301508</v>
+        <v>1.356469471453638</v>
       </c>
       <c r="X8" t="n">
-        <v>2.574991314343375</v>
+        <v>4.271027741815391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.634924136338433</v>
+        <v>1.305714313338415</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.440795556009052</v>
+        <v>7.450127065688388</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.134394231433011</v>
+        <v>1.155035705469978</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.142188664816253</v>
+        <v>8.083159160037358</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.318249509075381</v>
+        <v>1.141179942086001</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.33903563101921</v>
+        <v>16.50978338716183</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.054528494306896</v>
+        <v>1.064475433024277</v>
       </c>
     </row>
     <row r="9">
@@ -1333,85 +1333,85 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.175520022706314</v>
+        <v>1.184383151524549</v>
       </c>
       <c r="F9" t="n">
-        <v>15.55231180122081</v>
+        <v>15.14377111265257</v>
       </c>
       <c r="G9" t="n">
-        <v>11.76283231838263</v>
+        <v>11.15512626180548</v>
       </c>
       <c r="H9" t="n">
-        <v>1.314618381719359</v>
+        <v>1.328245595125627</v>
       </c>
       <c r="I9" t="n">
-        <v>1.046080674037752</v>
+        <v>1.049376620092058</v>
       </c>
       <c r="J9" t="n">
-        <v>22.70107145526457</v>
+        <v>21.25250003211253</v>
       </c>
       <c r="K9" t="n">
-        <v>4.178453828842092</v>
+        <v>4.046499373791377</v>
       </c>
       <c r="L9" t="n">
-        <v>1.542721638142272</v>
+        <v>1.563354001779139</v>
       </c>
       <c r="M9" t="n">
-        <v>1.021197102404618</v>
+        <v>1.023010981369475</v>
       </c>
       <c r="N9" t="n">
-        <v>48.17625932599739</v>
+        <v>44.45751204364343</v>
       </c>
       <c r="O9" t="n">
-        <v>2.842565193131022</v>
+        <v>2.775082802007052</v>
       </c>
       <c r="P9" t="n">
-        <v>1.914112233923191</v>
+        <v>1.945455953942015</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.00898304438841</v>
+        <v>1.009898056015272</v>
       </c>
       <c r="R9" t="n">
-        <v>112.3208347595676</v>
+        <v>102.0299394605406</v>
       </c>
       <c r="S9" t="n">
-        <v>2.093957572045827</v>
+        <v>2.057690732001388</v>
       </c>
       <c r="T9" t="n">
-        <v>1.228215250349452</v>
+        <v>1.226510098524577</v>
       </c>
       <c r="U9" t="n">
-        <v>5.381828113891434</v>
+        <v>5.414814202606054</v>
       </c>
       <c r="V9" t="n">
-        <v>4.856711931340955</v>
+        <v>4.550354074691479</v>
       </c>
       <c r="W9" t="n">
-        <v>1.259288227330037</v>
+        <v>1.281662048055559</v>
       </c>
       <c r="X9" t="n">
-        <v>1.467304152489848</v>
+        <v>1.463963621097726</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.139933905298917</v>
+        <v>3.15534139860799</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.3221208290261</v>
+        <v>9.465341894060328</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.107271726932172</v>
+        <v>1.118128719727392</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.887643891683332</v>
+        <v>1.881321015968066</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.126577909643016</v>
+        <v>2.134660335884053</v>
       </c>
       <c r="AD9" t="n">
-        <v>24.92250935344757</v>
+        <v>22.34766701219579</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.041801634821218</v>
+        <v>1.046843526247093</v>
       </c>
     </row>
     <row r="10">
@@ -1436,85 +1436,85 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.263535613010567</v>
+        <v>4.586898710139524</v>
       </c>
       <c r="F10" t="n">
-        <v>8.892132260944718</v>
+        <v>9.349774840402226</v>
       </c>
       <c r="G10" t="n">
-        <v>1.531407841590183</v>
+        <v>1.481408340814993</v>
       </c>
       <c r="H10" t="n">
-        <v>6.857260346271354</v>
+        <v>7.419198195676522</v>
       </c>
       <c r="I10" t="n">
-        <v>2.10754727172351</v>
+        <v>2.230491039320907</v>
       </c>
       <c r="J10" t="n">
-        <v>1.902895998690738</v>
+        <v>1.812683691343164</v>
       </c>
       <c r="K10" t="n">
-        <v>1.170728282658049</v>
+        <v>1.155782695831626</v>
       </c>
       <c r="L10" t="n">
-        <v>12.02012188810848</v>
+        <v>13.05249047613408</v>
       </c>
       <c r="M10" t="n">
-        <v>1.656133303482119</v>
+        <v>1.735678925487833</v>
       </c>
       <c r="N10" t="n">
-        <v>2.524080540787931</v>
+        <v>2.359288631704238</v>
       </c>
       <c r="O10" t="n">
-        <v>1.090743097957843</v>
+        <v>1.082970403667206</v>
       </c>
       <c r="P10" t="n">
-        <v>22.97834288521315</v>
+        <v>24.9913311395622</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.385947942075676</v>
+        <v>1.438143427525581</v>
       </c>
       <c r="R10" t="n">
-        <v>3.591023013678673</v>
+        <v>3.282357641760165</v>
       </c>
       <c r="S10" t="n">
-        <v>1.045499335651588</v>
+        <v>1.041681722209693</v>
       </c>
       <c r="T10" t="n">
-        <v>2.765509237841624</v>
+        <v>2.672832229631065</v>
       </c>
       <c r="U10" t="n">
-        <v>1.566408817674907</v>
+        <v>1.597788578129287</v>
       </c>
       <c r="V10" t="n">
-        <v>1.493782555300931</v>
+        <v>1.411591504717847</v>
       </c>
       <c r="W10" t="n">
-        <v>3.025182925691979</v>
+        <v>3.429593391840088</v>
       </c>
       <c r="X10" t="n">
-        <v>4.824772746352181</v>
+        <v>4.60295685513101</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.261453442156461</v>
+        <v>1.277549812614572</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.995168236546222</v>
+        <v>1.829745563653429</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.00485522274158</v>
+        <v>2.205188727490061</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.466621393855874</v>
+        <v>8.90749337734746</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.118110867780823</v>
+        <v>1.126462325326088</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.923748394645408</v>
+        <v>2.591127467430399</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.519818497462254</v>
+        <v>1.628485159403951</v>
       </c>
     </row>
     <row r="11">
@@ -1539,85 +1539,85 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.178969611469527</v>
+        <v>1.184448199371951</v>
       </c>
       <c r="F11" t="n">
-        <v>15.3850369280119</v>
+        <v>15.14174163551137</v>
       </c>
       <c r="G11" t="n">
-        <v>11.52027305145817</v>
+        <v>11.15045958879614</v>
       </c>
       <c r="H11" t="n">
-        <v>1.319978156383952</v>
+        <v>1.328333330451867</v>
       </c>
       <c r="I11" t="n">
-        <v>1.047338049926346</v>
+        <v>1.049405811450337</v>
       </c>
       <c r="J11" t="n">
-        <v>22.1246555689536</v>
+        <v>21.24053386928397</v>
       </c>
       <c r="K11" t="n">
-        <v>4.12521333112523</v>
+        <v>4.045685305916873</v>
       </c>
       <c r="L11" t="n">
-        <v>1.550926604745412</v>
+        <v>1.563466105561978</v>
       </c>
       <c r="M11" t="n">
-        <v>1.021882359864325</v>
+        <v>1.023028199287424</v>
       </c>
       <c r="N11" t="n">
-        <v>46.69891027294187</v>
+        <v>44.42501936511045</v>
       </c>
       <c r="O11" t="n">
-        <v>2.815123813928189</v>
+        <v>2.77472964234937</v>
       </c>
       <c r="P11" t="n">
-        <v>1.92672343389757</v>
+        <v>1.945591374331092</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.009325396862301</v>
+        <v>1.009907260880814</v>
       </c>
       <c r="R11" t="n">
-        <v>108.2340421288221</v>
+        <v>101.9360722433978</v>
       </c>
       <c r="S11" t="n">
-        <v>2.079070587213109</v>
+        <v>2.057539257596757</v>
       </c>
       <c r="T11" t="n">
-        <v>1.227976925784149</v>
+        <v>1.226395470965047</v>
       </c>
       <c r="U11" t="n">
-        <v>5.3864088287023</v>
+        <v>5.417049491923759</v>
       </c>
       <c r="V11" t="n">
-        <v>4.740801488338272</v>
+        <v>4.546374888258343</v>
       </c>
       <c r="W11" t="n">
-        <v>1.267322391502848</v>
+        <v>1.281978085089337</v>
       </c>
       <c r="X11" t="n">
-        <v>1.46683724093097</v>
+        <v>1.463739064758288</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.142074179870039</v>
+        <v>3.156385079443815</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.996135120450173</v>
+        <v>9.45431661616168</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.111158846172373</v>
+        <v>1.118282771441083</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.886759964560253</v>
+        <v>1.880896081630238</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.127700888589285</v>
+        <v>2.135207683236985</v>
       </c>
       <c r="AD11" t="n">
-        <v>23.93680582629139</v>
+        <v>22.31487200787445</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.043598049683699</v>
+        <v>1.04691559956966</v>
       </c>
     </row>
     <row r="12">
@@ -1642,85 +1642,85 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.572616680830862</v>
+        <v>4.395973212565194</v>
       </c>
       <c r="F12" t="n">
-        <v>7.279034277707837</v>
+        <v>9.1802112366922</v>
       </c>
       <c r="G12" t="n">
-        <v>2.110105962872146</v>
+        <v>1.506956567420807</v>
       </c>
       <c r="H12" t="n">
-        <v>3.783863006151783</v>
+        <v>7.050177112164888</v>
       </c>
       <c r="I12" t="n">
-        <v>1.514952608621186</v>
+        <v>2.170193715924846</v>
       </c>
       <c r="J12" t="n">
-        <v>2.941926272939088</v>
+        <v>1.854559366018868</v>
       </c>
       <c r="K12" t="n">
-        <v>1.359213078298106</v>
+        <v>1.165284417540329</v>
       </c>
       <c r="L12" t="n">
-        <v>6.075165128199338</v>
+        <v>12.29206702878279</v>
       </c>
       <c r="M12" t="n">
-        <v>1.289191860407991</v>
+        <v>1.699610865239598</v>
       </c>
       <c r="N12" t="n">
-        <v>4.45791198476058</v>
+        <v>2.429366022864048</v>
       </c>
       <c r="O12" t="n">
-        <v>1.197037923838904</v>
+        <v>1.088557745667915</v>
       </c>
       <c r="P12" t="n">
-        <v>10.66632182911704</v>
+        <v>23.31458591067049</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.15718837056945</v>
+        <v>1.4160512139852</v>
       </c>
       <c r="R12" t="n">
-        <v>7.361793791597162</v>
+        <v>3.403550251473543</v>
       </c>
       <c r="S12" t="n">
-        <v>1.103451966288541</v>
+        <v>1.044813737705158</v>
       </c>
       <c r="T12" t="n">
-        <v>2.507062990172581</v>
+        <v>2.609077111600766</v>
       </c>
       <c r="U12" t="n">
-        <v>1.663542271637555</v>
+        <v>1.621474255516049</v>
       </c>
       <c r="V12" t="n">
-        <v>2.172168523422857</v>
+        <v>1.426033793345391</v>
       </c>
       <c r="W12" t="n">
-        <v>1.85311964962162</v>
+        <v>3.347231641292095</v>
       </c>
       <c r="X12" t="n">
-        <v>4.211752849620511</v>
+        <v>4.451643939598328</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.31135646073083</v>
+        <v>1.289717021077316</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.444414755749374</v>
+        <v>1.858661551069982</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.40909587771386</v>
+        <v>2.16460321153765</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.937571260544279</v>
+        <v>8.529833717140793</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.14414266354095</v>
+        <v>1.132805057530502</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.100786838470794</v>
+        <v>2.648757572936995</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.196048184656114</v>
+        <v>1.606517305160068</v>
       </c>
     </row>
     <row r="13">
@@ -1745,85 +1745,85 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.06457301509098</v>
+        <v>2.124730399453318</v>
       </c>
       <c r="F13" t="n">
-        <v>6.952995651537126</v>
+        <v>7.010724870846568</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68950634220995</v>
+        <v>2.585894022788549</v>
       </c>
       <c r="H13" t="n">
-        <v>2.915418059260459</v>
+        <v>3.011125257968979</v>
       </c>
       <c r="I13" t="n">
-        <v>1.323270044131755</v>
+        <v>1.348206726927858</v>
       </c>
       <c r="J13" t="n">
-        <v>4.093389004495664</v>
+        <v>3.871857212015273</v>
       </c>
       <c r="K13" t="n">
-        <v>1.522079237566601</v>
+        <v>1.497234071342674</v>
       </c>
       <c r="L13" t="n">
-        <v>4.509964855237964</v>
+        <v>4.667970503819315</v>
       </c>
       <c r="M13" t="n">
-        <v>1.17042012987283</v>
+        <v>1.186195340499351</v>
       </c>
       <c r="N13" t="n">
-        <v>6.86785141371627</v>
+        <v>6.37070367775121</v>
       </c>
       <c r="O13" t="n">
-        <v>1.284903137564949</v>
+        <v>1.272630327577264</v>
       </c>
       <c r="P13" t="n">
-        <v>7.662493543578759</v>
+        <v>7.935681835074612</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.085346773752735</v>
+        <v>1.094914530019117</v>
       </c>
       <c r="R13" t="n">
-        <v>12.71690452994945</v>
+        <v>11.53579467546847</v>
       </c>
       <c r="S13" t="n">
-        <v>1.150093954081769</v>
+        <v>1.144181931031334</v>
       </c>
       <c r="T13" t="n">
-        <v>2.551211978700033</v>
+        <v>2.493765382457853</v>
       </c>
       <c r="U13" t="n">
-        <v>1.64465721882707</v>
+        <v>1.669449173038535</v>
       </c>
       <c r="V13" t="n">
-        <v>3.188207299953841</v>
+        <v>2.925078747206789</v>
       </c>
       <c r="W13" t="n">
-        <v>1.456995093664615</v>
+        <v>1.51945926962778</v>
       </c>
       <c r="X13" t="n">
-        <v>4.315231556463168</v>
+        <v>4.180687923311669</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.301638055432497</v>
+        <v>1.31439739581833</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.863046581706702</v>
+        <v>5.211713803815157</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.205632412356833</v>
+        <v>1.23743303713898</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.192055562825649</v>
+        <v>7.861472555895426</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.139042307343787</v>
+        <v>1.14574131017121</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.16410404151427</v>
+        <v>10.45695336808394</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.08957279476091</v>
+        <v>1.105742299985837</v>
       </c>
     </row>
     <row r="14">
@@ -1848,85 +1848,85 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.209107988436613</v>
+        <v>1.185135382972137</v>
       </c>
       <c r="F14" t="n">
-        <v>13.76577870776965</v>
+        <v>15.10504545588787</v>
       </c>
       <c r="G14" t="n">
-        <v>9.970079504989293</v>
+        <v>11.10969167740878</v>
       </c>
       <c r="H14" t="n">
-        <v>1.373371774096445</v>
+        <v>1.329485731516454</v>
       </c>
       <c r="I14" t="n">
-        <v>1.055818480942664</v>
+        <v>1.049624253878911</v>
       </c>
       <c r="J14" t="n">
-        <v>18.91521344027933</v>
+        <v>21.15143648184843</v>
       </c>
       <c r="K14" t="n">
-        <v>3.678295654297884</v>
+        <v>4.035032793066675</v>
       </c>
       <c r="L14" t="n">
-        <v>1.644066814925543</v>
+        <v>1.565376023130016</v>
       </c>
       <c r="M14" t="n">
-        <v>1.025959905363033</v>
+        <v>1.023140528297569</v>
       </c>
       <c r="N14" t="n">
-        <v>39.52094166044231</v>
+        <v>44.21422515254582</v>
       </c>
       <c r="O14" t="n">
-        <v>2.552633945463568</v>
+        <v>2.768734362776533</v>
       </c>
       <c r="P14" t="n">
-        <v>2.08954968083223</v>
+        <v>1.948773977136531</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.011129228926067</v>
+        <v>1.009960611260003</v>
       </c>
       <c r="R14" t="n">
-        <v>90.85348460734588</v>
+        <v>101.3954450080252</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91781037394841</v>
+        <v>2.053991808479056</v>
       </c>
       <c r="T14" t="n">
-        <v>1.283337418528626</v>
+        <v>1.227092636216611</v>
       </c>
       <c r="U14" t="n">
-        <v>4.529360877193731</v>
+        <v>5.403489327792016</v>
       </c>
       <c r="V14" t="n">
-        <v>4.833389705771483</v>
+        <v>4.53949139728145</v>
       </c>
       <c r="W14" t="n">
-        <v>1.260865728964216</v>
+        <v>1.282526467155158</v>
       </c>
       <c r="X14" t="n">
-        <v>1.575488024689801</v>
+        <v>1.46510483339801</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.737655619400627</v>
+        <v>3.150052908919692</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.25635402503918</v>
+        <v>9.435250636497589</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.108033897287735</v>
+        <v>1.1185501229416</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.093965076781798</v>
+        <v>1.883480759713229</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.914105963000005</v>
+        <v>2.131886562333958</v>
       </c>
       <c r="AD14" t="n">
-        <v>24.72306273863493</v>
+        <v>22.25818055259501</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.042153073193683</v>
+        <v>1.0470407143982</v>
       </c>
     </row>
     <row r="15">
@@ -1951,85 +1951,85 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.567876903472875</v>
+        <v>1.790521465122191</v>
       </c>
       <c r="F15" t="n">
-        <v>7.613527945879362</v>
+        <v>7.09970124094787</v>
       </c>
       <c r="G15" t="n">
-        <v>4.331823336084757</v>
+        <v>3.326099213919304</v>
       </c>
       <c r="H15" t="n">
-        <v>2.046738966575963</v>
+        <v>2.436706739072624</v>
       </c>
       <c r="I15" t="n">
-        <v>1.15143762728388</v>
+        <v>1.22664932103983</v>
       </c>
       <c r="J15" t="n">
-        <v>7.603378684251528</v>
+        <v>5.412102341238725</v>
       </c>
       <c r="K15" t="n">
-        <v>1.955348020787979</v>
+        <v>1.696036270175421</v>
       </c>
       <c r="L15" t="n">
-        <v>2.918941909316889</v>
+        <v>3.631088972036415</v>
       </c>
       <c r="M15" t="n">
-        <v>1.071621050656204</v>
+        <v>1.113750241032529</v>
       </c>
       <c r="N15" t="n">
-        <v>14.9623754585813</v>
+        <v>9.79119016296446</v>
       </c>
       <c r="O15" t="n">
-        <v>1.521120517064523</v>
+        <v>1.380070765613836</v>
       </c>
       <c r="P15" t="n">
-        <v>4.569431804507134</v>
+        <v>5.945667826354293</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.031287280131874</v>
+        <v>1.053497835377221</v>
       </c>
       <c r="R15" t="n">
-        <v>32.9618706319329</v>
+        <v>19.69234508179359</v>
       </c>
       <c r="S15" t="n">
-        <v>1.280156634099942</v>
+        <v>1.202197162266183</v>
       </c>
       <c r="T15" t="n">
-        <v>2.259483823109361</v>
+        <v>2.433648191174552</v>
       </c>
       <c r="U15" t="n">
-        <v>1.793976057216235</v>
+        <v>1.697521195336441</v>
       </c>
       <c r="V15" t="n">
-        <v>5.903444965526613</v>
+        <v>4.247598464334214</v>
       </c>
       <c r="W15" t="n">
-        <v>1.203938253009964</v>
+        <v>1.307919840147174</v>
       </c>
       <c r="X15" t="n">
-        <v>3.641395563163178</v>
+        <v>4.040846440794581</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.37858774881959</v>
+        <v>1.328855803629037</v>
       </c>
       <c r="Z15" t="n">
-        <v>13.35950594235079</v>
+        <v>8.634317610341641</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.080909383001583</v>
+        <v>1.130987476686243</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.563428832397946</v>
+        <v>7.520648777502621</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.179745266835557</v>
+        <v>1.153358973028907</v>
       </c>
       <c r="AD15" t="n">
-        <v>34.42880524943437</v>
+        <v>19.90113945125158</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.02991432067459</v>
+        <v>1.052906863238543</v>
       </c>
     </row>
     <row r="16">
@@ -2054,85 +2054,85 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.586495278406215</v>
+        <v>1.363923885202606</v>
       </c>
       <c r="F16" t="n">
-        <v>7.537340366629405</v>
+        <v>9.906185005115955</v>
       </c>
       <c r="G16" t="n">
-        <v>4.219284304326422</v>
+        <v>6.028664288951375</v>
       </c>
       <c r="H16" t="n">
-        <v>2.080255361250555</v>
+        <v>1.642738878777742</v>
       </c>
       <c r="I16" t="n">
-        <v>1.157275898661488</v>
+        <v>1.103252373710711</v>
       </c>
       <c r="J16" t="n">
-        <v>7.358253289350733</v>
+        <v>10.68500736653048</v>
       </c>
       <c r="K16" t="n">
-        <v>1.925707046565687</v>
+        <v>2.55584177808201</v>
       </c>
       <c r="L16" t="n">
-        <v>2.981502624941098</v>
+        <v>2.113401879656806</v>
       </c>
       <c r="M16" t="n">
-        <v>1.074737270284719</v>
+        <v>1.050248273934449</v>
       </c>
       <c r="N16" t="n">
-        <v>14.38020503278224</v>
+        <v>20.90118110931609</v>
       </c>
       <c r="O16" t="n">
-        <v>1.504667512125918</v>
+        <v>1.898148295122547</v>
       </c>
       <c r="P16" t="n">
-        <v>4.692417989205637</v>
+        <v>2.922204761589236</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.032841377350513</v>
+        <v>1.022677101487431</v>
       </c>
       <c r="R16" t="n">
-        <v>31.44939282926833</v>
+        <v>45.0973464159097</v>
       </c>
       <c r="S16" t="n">
-        <v>1.270825243220943</v>
+        <v>1.520235939470477</v>
       </c>
       <c r="T16" t="n">
-        <v>2.287094708943788</v>
+        <v>1.517957604427166</v>
       </c>
       <c r="U16" t="n">
-        <v>1.776943602557901</v>
+        <v>2.930659944853879</v>
       </c>
       <c r="V16" t="n">
-        <v>5.76135660508616</v>
+        <v>4.35681776835258</v>
       </c>
       <c r="W16" t="n">
-        <v>1.210024176498728</v>
+        <v>1.297901187674769</v>
       </c>
       <c r="X16" t="n">
-        <v>3.704147177524069</v>
+        <v>2.044232403657739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.369802357028365</v>
+        <v>1.957641226701258</v>
       </c>
       <c r="Z16" t="n">
-        <v>12.93781542431235</v>
+        <v>8.93225904687143</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.083767420123067</v>
+        <v>1.126067491504127</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.712146686354352</v>
+        <v>3.023748182430139</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.175065532261082</v>
+        <v>1.494132624148519</v>
       </c>
       <c r="AD16" t="n">
-        <v>33.07666439252557</v>
+        <v>20.77226497147352</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.031175311365387</v>
+        <v>1.050575895146193</v>
       </c>
     </row>
     <row r="17">
@@ -2157,85 +2157,85 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.425628848499814</v>
+        <v>4.759270459486919</v>
       </c>
       <c r="F17" t="n">
-        <v>9.038913286717641</v>
+        <v>9.497247325585811</v>
       </c>
       <c r="G17" t="n">
-        <v>1.507362011038076</v>
+        <v>1.460728114988945</v>
       </c>
       <c r="H17" t="n">
-        <v>7.169843991175479</v>
+        <v>7.757180151156741</v>
       </c>
       <c r="I17" t="n">
-        <v>2.159121284735777</v>
+        <v>2.283535686458462</v>
       </c>
       <c r="J17" t="n">
-        <v>1.862722489155181</v>
+        <v>1.779097932804038</v>
       </c>
       <c r="K17" t="n">
-        <v>1.162078652463542</v>
+        <v>1.147990726550159</v>
       </c>
       <c r="L17" t="n">
-        <v>12.66390675315545</v>
+        <v>13.75940047451036</v>
       </c>
       <c r="M17" t="n">
-        <v>1.687089492900077</v>
+        <v>1.767065068137085</v>
       </c>
       <c r="N17" t="n">
-        <v>2.455414484333308</v>
+        <v>2.303670368445569</v>
       </c>
       <c r="O17" t="n">
-        <v>1.085734567427802</v>
+        <v>1.078373588320056</v>
       </c>
       <c r="P17" t="n">
-        <v>24.40002825144752</v>
+        <v>26.57388779493776</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.404943771477477</v>
+        <v>1.457193623445761</v>
       </c>
       <c r="R17" t="n">
-        <v>3.469478654657168</v>
+        <v>3.187257102282475</v>
       </c>
       <c r="S17" t="n">
-        <v>1.042734991139942</v>
+        <v>1.03910238474566</v>
       </c>
       <c r="T17" t="n">
-        <v>2.818444823029776</v>
+        <v>2.737499397804152</v>
       </c>
       <c r="U17" t="n">
-        <v>1.549920452540245</v>
+        <v>1.575539767820235</v>
       </c>
       <c r="V17" t="n">
-        <v>1.476352489521448</v>
+        <v>1.401525376697351</v>
       </c>
       <c r="W17" t="n">
-        <v>3.099285764213422</v>
+        <v>3.490502613372176</v>
       </c>
       <c r="X17" t="n">
-        <v>4.952441321501208</v>
+        <v>4.757503329620183</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.253008183716737</v>
+        <v>1.266134162042401</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.959910070178522</v>
+        <v>1.809628312198106</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.041764255909955</v>
+        <v>2.235134672211553</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.791312240429161</v>
+        <v>9.296377995783509</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.113748661479823</v>
+        <v>1.120534527297121</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.852262880225011</v>
+        <v>2.551163197590005</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.539880170723132</v>
+        <v>1.644677492061228</v>
       </c>
     </row>
     <row r="18">
@@ -2260,85 +2260,85 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.1764419695738</v>
+        <v>1.183935731833171</v>
       </c>
       <c r="F18" t="n">
-        <v>15.49708051096329</v>
+        <v>15.166829947791</v>
       </c>
       <c r="G18" t="n">
-        <v>11.70260780955664</v>
+        <v>11.1824049374413</v>
       </c>
       <c r="H18" t="n">
-        <v>1.316190028812062</v>
+        <v>1.327509685521211</v>
       </c>
       <c r="I18" t="n">
-        <v>1.046361835549002</v>
+        <v>1.049228700893391</v>
       </c>
       <c r="J18" t="n">
-        <v>22.56946523273572</v>
+        <v>21.31335342700951</v>
       </c>
       <c r="K18" t="n">
-        <v>4.162655077255404</v>
+        <v>4.053344814546667</v>
       </c>
       <c r="L18" t="n">
-        <v>1.545362514177303</v>
+        <v>1.562156958737098</v>
       </c>
       <c r="M18" t="n">
-        <v>1.021338126805855</v>
+        <v>1.022933455440054</v>
       </c>
       <c r="N18" t="n">
-        <v>47.86446983366951</v>
+        <v>44.60441899450787</v>
       </c>
       <c r="O18" t="n">
-        <v>2.833642712881602</v>
+        <v>2.778862619163389</v>
       </c>
       <c r="P18" t="n">
-        <v>1.918563979026671</v>
+        <v>1.943496324225437</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.009048230098039</v>
+        <v>1.00986055891677</v>
       </c>
       <c r="R18" t="n">
-        <v>111.5188516610293</v>
+        <v>102.4141296087489</v>
       </c>
       <c r="S18" t="n">
-        <v>2.088655796256697</v>
+        <v>2.059887542032502</v>
       </c>
       <c r="T18" t="n">
-        <v>1.229357875951071</v>
+        <v>1.226178448410362</v>
       </c>
       <c r="U18" t="n">
-        <v>5.359998521321031</v>
+        <v>5.421287735539117</v>
       </c>
       <c r="V18" t="n">
-        <v>4.849271366489655</v>
+        <v>4.557132323490399</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25978942630692</v>
+        <v>1.281125330479345</v>
       </c>
       <c r="X18" t="n">
-        <v>1.469542784393753</v>
+        <v>1.463313918603542</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.129731375365813</v>
+        <v>3.158363821691487</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.30112948495734</v>
+        <v>9.484128833838799</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.107513824166978</v>
+        <v>1.117867139877876</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.891882688007872</v>
+        <v>1.880091600080478</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.121223691687099</v>
+        <v>2.136245363446893</v>
       </c>
       <c r="AD18" t="n">
-        <v>24.85881852925363</v>
+        <v>22.40356962275347</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.041913223774006</v>
+        <v>1.046721178645684</v>
       </c>
     </row>
     <row r="19">
@@ -2363,85 +2363,85 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.399990542550285</v>
+        <v>1.351422527197567</v>
       </c>
       <c r="F19" t="n">
-        <v>8.796859221647132</v>
+        <v>10.31391835759162</v>
       </c>
       <c r="G19" t="n">
-        <v>5.812854292369102</v>
+        <v>6.131861561289377</v>
       </c>
       <c r="H19" t="n">
-        <v>1.740128953774035</v>
+        <v>1.612271048653916</v>
       </c>
       <c r="I19" t="n">
-        <v>1.101733891642287</v>
+        <v>1.102889487443615</v>
       </c>
       <c r="J19" t="n">
-        <v>10.82956597705076</v>
+        <v>10.71916592108613</v>
       </c>
       <c r="K19" t="n">
-        <v>2.351115903385268</v>
+        <v>2.633263572070751</v>
       </c>
       <c r="L19" t="n">
-        <v>2.343597091044774</v>
+        <v>2.046139227677672</v>
       </c>
       <c r="M19" t="n">
-        <v>1.046168141501393</v>
+        <v>1.051076232491334</v>
       </c>
       <c r="N19" t="n">
-        <v>22.65995787311086</v>
+        <v>20.57857796519474</v>
       </c>
       <c r="O19" t="n">
-        <v>1.744270739096647</v>
+        <v>1.95589571019137</v>
       </c>
       <c r="P19" t="n">
-        <v>3.441429288583933</v>
+        <v>2.77916837522133</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.019179872950635</v>
+        <v>1.023599158522498</v>
       </c>
       <c r="R19" t="n">
-        <v>53.13798874339766</v>
+        <v>43.37439224990318</v>
       </c>
       <c r="S19" t="n">
-        <v>1.409596134803484</v>
+        <v>1.562060350176581</v>
       </c>
       <c r="T19" t="n">
-        <v>1.923389692655602</v>
+        <v>1.425398587002292</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08296638781409</v>
+        <v>3.350736534051091</v>
       </c>
       <c r="V19" t="n">
-        <v>7.079511263003193</v>
+        <v>3.797057236032786</v>
       </c>
       <c r="W19" t="n">
-        <v>1.164486906387606</v>
+        <v>1.357518604595433</v>
       </c>
       <c r="X19" t="n">
-        <v>2.895790733637381</v>
+        <v>1.857388431358307</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.527484380135849</v>
+        <v>2.166332508610785</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.95204170770465</v>
+        <v>7.428440559930785</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.062687900290344</v>
+        <v>1.155558722317994</v>
       </c>
       <c r="AB19" t="n">
-        <v>4.848014056285145</v>
+        <v>2.646215606019505</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.259874310585392</v>
+        <v>1.607453845257832</v>
       </c>
       <c r="AD19" t="n">
-        <v>46.31575200177343</v>
+        <v>16.44879096990615</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.022067381778435</v>
+        <v>1.064729984498332</v>
       </c>
     </row>
   </sheetData>

--- a/output_corners_NNNN_AH.xlsx
+++ b/output_corners_NNNN_AH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,419 +593,419 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26/08/2023</t>
+          <t>01/09/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>corinthians</t>
+          <t>oud-heverlee leuven</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>goiás</t>
+          <t>kv kortrijk</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.923336850859044</v>
+        <v>1.187388775263484</v>
       </c>
       <c r="F2" t="n">
-        <v>6.93617069790043</v>
+        <v>15.13741713480761</v>
       </c>
       <c r="G2" t="n">
-        <v>2.977089752965037</v>
+        <v>10.8986614155354</v>
       </c>
       <c r="H2" t="n">
-        <v>2.676455202283481</v>
+        <v>1.331037926974381</v>
       </c>
       <c r="I2" t="n">
-        <v>1.270351708665753</v>
+        <v>1.05124101765258</v>
       </c>
       <c r="J2" t="n">
-        <v>4.698885444206093</v>
+        <v>20.515615532465</v>
       </c>
       <c r="K2" t="n">
-        <v>1.596496702469539</v>
+        <v>4.020801903696636</v>
       </c>
       <c r="L2" t="n">
-        <v>4.085488626355449</v>
+        <v>1.564493907744859</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13845035605351</v>
+        <v>1.02421061404953</v>
       </c>
       <c r="N2" t="n">
-        <v>8.222805549257739</v>
+        <v>42.30419814855632</v>
       </c>
       <c r="O2" t="n">
-        <v>1.324097775457105</v>
+        <v>2.771498303666335</v>
       </c>
       <c r="P2" t="n">
-        <v>6.860976526401542</v>
+        <v>1.941997396616543</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.066841892581375</v>
+        <v>1.010582373423872</v>
       </c>
       <c r="R2" t="n">
-        <v>15.96067752394323</v>
+        <v>95.49675984256399</v>
       </c>
       <c r="S2" t="n">
-        <v>1.170620031575859</v>
+        <v>2.06157405911289</v>
       </c>
       <c r="T2" t="n">
-        <v>2.571316121629716</v>
+        <v>1.210993434686204</v>
       </c>
       <c r="U2" t="n">
-        <v>1.636409177144338</v>
+        <v>5.739483963030559</v>
       </c>
       <c r="V2" t="n">
-        <v>3.793967815533039</v>
+        <v>4.192472865545882</v>
       </c>
       <c r="W2" t="n">
-        <v>1.357913929588061</v>
+        <v>1.313236804858171</v>
       </c>
       <c r="X2" t="n">
-        <v>4.362525098916177</v>
+        <v>1.433574009972354</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.297395549648781</v>
+        <v>3.306411309256668</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.420305257246379</v>
+        <v>8.484750462739939</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.155755834019159</v>
+        <v>1.133604988566837</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.308868274860352</v>
+        <v>1.823927530836801</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.136820087925187</v>
+        <v>2.213698975423694</v>
       </c>
       <c r="AD2" t="n">
-        <v>16.42592156678145</v>
+        <v>19.46644613734571</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.064825948691028</v>
+        <v>1.054152271236296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>26/08/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>flamengo</t>
+          <t>kv mechelen</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>internacional</t>
+          <t>eupen</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.183924986501544</v>
+        <v>1.199744901819251</v>
       </c>
       <c r="F3" t="n">
-        <v>15.16733065196016</v>
+        <v>14.52034542158622</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1830914060697</v>
+        <v>10.24374033438572</v>
       </c>
       <c r="H3" t="n">
-        <v>1.327492805707095</v>
+        <v>1.351760526704817</v>
       </c>
       <c r="I3" t="n">
-        <v>1.049224832354532</v>
+        <v>1.055195125306552</v>
       </c>
       <c r="J3" t="n">
-        <v>21.31494983665363</v>
+        <v>19.11754198302893</v>
       </c>
       <c r="K3" t="n">
-        <v>4.053502191722607</v>
+        <v>3.842843139245009</v>
       </c>
       <c r="L3" t="n">
-        <v>1.56213076545669</v>
+        <v>1.59888454533261</v>
       </c>
       <c r="M3" t="n">
-        <v>1.022931349288499</v>
+        <v>1.026259870992859</v>
       </c>
       <c r="N3" t="n">
-        <v>44.60842388378578</v>
+        <v>39.08091822964172</v>
       </c>
       <c r="O3" t="n">
-        <v>2.778945507790476</v>
+        <v>2.669770922949127</v>
       </c>
       <c r="P3" t="n">
-        <v>1.943455431974953</v>
+        <v>1.999413509457741</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.009859504391711</v>
+        <v>1.01156639547031</v>
       </c>
       <c r="R3" t="n">
-        <v>102.4249763751488</v>
+        <v>87.45735852340196</v>
       </c>
       <c r="S3" t="n">
-        <v>2.059933480807547</v>
+        <v>2.00058683471527</v>
       </c>
       <c r="T3" t="n">
-        <v>1.226177208500193</v>
+        <v>1.223725563305786</v>
       </c>
       <c r="U3" t="n">
-        <v>5.421311973169682</v>
+        <v>5.469761904826279</v>
       </c>
       <c r="V3" t="n">
-        <v>4.557419825046391</v>
+        <v>4.107829757822846</v>
       </c>
       <c r="W3" t="n">
-        <v>1.281102610650392</v>
+        <v>1.321767946742533</v>
       </c>
       <c r="X3" t="n">
-        <v>1.463311489636002</v>
+        <v>1.458508977370434</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.158375137179619</v>
+        <v>3.180982378436812</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.484925860336233</v>
+        <v>8.256172040578887</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.117856068097733</v>
+        <v>1.137813711473167</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.880087004003894</v>
+        <v>1.87100260593706</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.13625129725876</v>
+        <v>2.148102190720957</v>
       </c>
       <c r="AD3" t="n">
-        <v>22.40594182878175</v>
+        <v>18.80556975401666</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.046716001005638</v>
+        <v>1.056162201705139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>grêmio</t>
+          <t>cercle brugge</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>kvc westerlo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.976052193185719</v>
+        <v>1.186935073029217</v>
       </c>
       <c r="F4" t="n">
-        <v>6.928795560379236</v>
+        <v>15.15823335238723</v>
       </c>
       <c r="G4" t="n">
-        <v>2.860287013789794</v>
+        <v>10.926193224478</v>
       </c>
       <c r="H4" t="n">
-        <v>2.766723018385874</v>
+        <v>1.330325606116143</v>
       </c>
       <c r="I4" t="n">
-        <v>1.289631961782188</v>
+        <v>1.051076476953011</v>
       </c>
       <c r="J4" t="n">
-        <v>4.452657620542691</v>
+        <v>20.57848425841838</v>
       </c>
       <c r="K4" t="n">
-        <v>1.566019681406329</v>
+        <v>4.027316022386702</v>
       </c>
       <c r="L4" t="n">
-        <v>4.247891085442803</v>
+        <v>1.563388056656948</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14993940642893</v>
+        <v>1.024120317013861</v>
       </c>
       <c r="N4" t="n">
-        <v>7.669360802585214</v>
+        <v>42.45882491616259</v>
       </c>
       <c r="O4" t="n">
-        <v>1.307892097885316</v>
+        <v>2.774975504333257</v>
       </c>
       <c r="P4" t="n">
-        <v>7.171894160685237</v>
+        <v>1.940269657055714</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.073388008538861</v>
+        <v>1.010536657031412</v>
       </c>
       <c r="R4" t="n">
-        <v>14.62620433378397</v>
+        <v>95.90676189029966</v>
       </c>
       <c r="S4" t="n">
-        <v>1.162024813447057</v>
+        <v>2.063524694746953</v>
       </c>
       <c r="T4" t="n">
-        <v>2.573923406736804</v>
+        <v>1.210920236281667</v>
       </c>
       <c r="U4" t="n">
-        <v>1.635354932596935</v>
+        <v>5.741128768055148</v>
       </c>
       <c r="V4" t="n">
-        <v>3.556576773089214</v>
+        <v>4.202591486973116</v>
       </c>
       <c r="W4" t="n">
-        <v>1.391148042384684</v>
+        <v>1.312247129884535</v>
       </c>
       <c r="X4" t="n">
-        <v>4.36866640204015</v>
+        <v>1.433430677593494</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.296853377762302</v>
+        <v>3.307174022734684</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.800892868441699</v>
+        <v>8.512163210473291</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.172387255320685</v>
+        <v>1.133117448594011</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.324059955774208</v>
+        <v>1.823657371314151</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.13653629353643</v>
+        <v>2.214097068547439</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.70242916771907</v>
+        <v>19.54598441876908</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.072979760578209</v>
+        <v>1.053920028045962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>red bull bragantino</t>
+          <t>royal charleroi sc</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cuiabá</t>
+          <t>sint truiden</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.183952510714555</v>
+        <v>2.681599355644123</v>
       </c>
       <c r="F5" t="n">
-        <v>15.16608951030253</v>
+        <v>7.542803086383398</v>
       </c>
       <c r="G5" t="n">
-        <v>11.18131074225491</v>
+        <v>2.022197630280069</v>
       </c>
       <c r="H5" t="n">
-        <v>1.327535440297096</v>
+        <v>3.935223804015373</v>
       </c>
       <c r="I5" t="n">
-        <v>1.049234982198739</v>
+        <v>1.569476122003417</v>
       </c>
       <c r="J5" t="n">
-        <v>21.31076188803062</v>
+        <v>2.755999876662081</v>
       </c>
       <c r="K5" t="n">
-        <v>4.053104723851984</v>
+        <v>1.340689523787591</v>
       </c>
       <c r="L5" t="n">
-        <v>1.562195919670987</v>
+        <v>6.277692540028268</v>
       </c>
       <c r="M5" t="n">
-        <v>1.022936930246082</v>
+        <v>1.326903103770554</v>
       </c>
       <c r="N5" t="n">
-        <v>44.59781318909644</v>
+        <v>4.05901041766149</v>
       </c>
       <c r="O5" t="n">
-        <v>2.778739341589723</v>
+        <v>1.189476744318767</v>
       </c>
       <c r="P5" t="n">
-        <v>1.943555494920996</v>
+        <v>10.90583692874974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.009862322920857</v>
+        <v>1.18249168578649</v>
       </c>
       <c r="R5" t="n">
-        <v>102.3959903792231</v>
+        <v>6.479701695396527</v>
       </c>
       <c r="S5" t="n">
-        <v>2.059821076113526</v>
+        <v>1.100950581681564</v>
       </c>
       <c r="T5" t="n">
-        <v>1.226175279764877</v>
+        <v>2.304599435593753</v>
       </c>
       <c r="U5" t="n">
-        <v>5.421349676408319</v>
+        <v>1.766518804712557</v>
       </c>
       <c r="V5" t="n">
-        <v>4.556589152792879</v>
+        <v>1.915446803381331</v>
       </c>
       <c r="W5" t="n">
-        <v>1.281168264603948</v>
+        <v>2.09236276352308</v>
       </c>
       <c r="X5" t="n">
-        <v>1.463307711269392</v>
+        <v>3.744043966509957</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.158392739158502</v>
+        <v>1.364425647768269</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.482623066596688</v>
+        <v>2.87859211767231</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.117888062707614</v>
+        <v>1.532313529154514</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.8800798546061</v>
+        <v>6.807027871313254</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.13626052768538</v>
+        <v>1.172205131809338</v>
       </c>
       <c r="AD5" t="n">
-        <v>22.39908810299136</v>
+        <v>4.809647979332107</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.046730963262879</v>
+        <v>1.26249144420302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1015,100 +1015,100 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>athletico-pr</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>atlético mineiro</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>santos</t>
-        </is>
-      </c>
       <c r="E6" t="n">
-        <v>1.184017270993913</v>
+        <v>1.75754218040867</v>
       </c>
       <c r="F6" t="n">
-        <v>15.16300977774388</v>
+        <v>7.119782011090208</v>
       </c>
       <c r="G6" t="n">
-        <v>11.17721090695554</v>
+        <v>3.441512998297065</v>
       </c>
       <c r="H6" t="n">
-        <v>1.327638102363453</v>
+        <v>2.382102305701421</v>
       </c>
       <c r="I6" t="n">
-        <v>1.049257927277037</v>
+        <v>1.214196491525812</v>
       </c>
       <c r="J6" t="n">
-        <v>21.30130083175839</v>
+        <v>5.668610549484623</v>
       </c>
       <c r="K6" t="n">
-        <v>4.052148064545579</v>
+        <v>1.723535440086323</v>
       </c>
       <c r="L6" t="n">
-        <v>1.562356776524866</v>
+        <v>3.536910139600059</v>
       </c>
       <c r="M6" t="n">
-        <v>1.022949337935481</v>
+        <v>1.106370132867442</v>
       </c>
       <c r="N6" t="n">
-        <v>44.57424178472493</v>
+        <v>10.40113519690903</v>
       </c>
       <c r="O6" t="n">
-        <v>2.778230549971477</v>
+        <v>1.394180300039184</v>
       </c>
       <c r="P6" t="n">
-        <v>1.943809177353353</v>
+        <v>5.773930708540257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.009868498370555</v>
+        <v>1.049377100542719</v>
       </c>
       <c r="R6" t="n">
-        <v>102.3325394047489</v>
+        <v>21.25230297058102</v>
       </c>
       <c r="S6" t="n">
-        <v>2.059536211339053</v>
+        <v>1.209470991736655</v>
       </c>
       <c r="T6" t="n">
-        <v>1.226190641231091</v>
+        <v>2.444261150444944</v>
       </c>
       <c r="U6" t="n">
-        <v>5.42104940574591</v>
+        <v>1.692395554427205</v>
       </c>
       <c r="V6" t="n">
-        <v>4.55500347446733</v>
+        <v>4.521668166893664</v>
       </c>
       <c r="W6" t="n">
-        <v>1.281293677258596</v>
+        <v>1.283956339044307</v>
       </c>
       <c r="X6" t="n">
-        <v>1.463337804183686</v>
+        <v>4.065461897726993</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.158252555631222</v>
+        <v>1.326215113207406</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.478227566628307</v>
+        <v>9.38592115645214</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.117949181257668</v>
+        <v>1.11924748412768</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.880136796298589</v>
+        <v>7.58043326170286</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.13618701570653</v>
+        <v>1.151965677673513</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.38600699454496</v>
+        <v>22.11162542405213</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.046759547037232</v>
+        <v>1.047367267082179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1118,100 +1118,100 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fortaleza</t>
+          <t>goiás</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>coritiba</t>
+          <t>internacional</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.351394271588273</v>
+        <v>1.413338018036807</v>
       </c>
       <c r="F7" t="n">
-        <v>9.460477217228302</v>
+        <v>8.93952946163094</v>
       </c>
       <c r="G7" t="n">
-        <v>6.480016722913374</v>
+        <v>5.537329603651868</v>
       </c>
       <c r="H7" t="n">
-        <v>1.648034471860553</v>
+        <v>1.748294431571844</v>
       </c>
       <c r="I7" t="n">
-        <v>1.089073986103413</v>
+        <v>1.111424171452357</v>
       </c>
       <c r="J7" t="n">
-        <v>12.22662231416283</v>
+        <v>9.974713358560503</v>
       </c>
       <c r="K7" t="n">
-        <v>2.543127786287245</v>
+        <v>2.336372366020996</v>
       </c>
       <c r="L7" t="n">
-        <v>2.167402863746525</v>
+        <v>2.332248401094561</v>
       </c>
       <c r="M7" t="n">
-        <v>1.040225757101051</v>
+        <v>1.052577722167223</v>
       </c>
       <c r="N7" t="n">
-        <v>25.85969369048545</v>
+        <v>20.01946221290294</v>
       </c>
       <c r="O7" t="n">
-        <v>1.856602318749431</v>
+        <v>1.750610771368472</v>
       </c>
       <c r="P7" t="n">
-        <v>3.094710232833723</v>
+        <v>3.375519680893545</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.016616080590049</v>
+        <v>1.022877803898817</v>
       </c>
       <c r="R7" t="n">
-        <v>61.18266429201447</v>
+        <v>44.71048918955597</v>
       </c>
       <c r="S7" t="n">
-        <v>1.477392998957761</v>
+        <v>1.420960519941411</v>
       </c>
       <c r="T7" t="n">
-        <v>1.775149402986787</v>
+        <v>1.774369197626818</v>
       </c>
       <c r="U7" t="n">
-        <v>2.290073882720963</v>
+        <v>2.291373679460217</v>
       </c>
       <c r="V7" t="n">
-        <v>7.027394550635948</v>
+        <v>5.528093312893561</v>
       </c>
       <c r="W7" t="n">
-        <v>1.16590916549415</v>
+        <v>1.220843505400505</v>
       </c>
       <c r="X7" t="n">
-        <v>2.578157813736328</v>
+        <v>2.576504992599603</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.633650190935262</v>
+        <v>1.634314515142153</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.78917916015097</v>
+        <v>12.25171641693245</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.063334514724098</v>
+        <v>1.088875329144905</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.149051493512012</v>
+        <v>4.145469028387359</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.317555937735632</v>
+        <v>1.317917611324467</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.76363851907432</v>
+        <v>30.89799931683791</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.022339560256566</v>
+        <v>1.03344705407886</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>02/09/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1221,100 +1221,100 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>athletico-pr</t>
+          <t>botafogo</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fluminense</t>
+          <t>flamengo</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.904937168886584</v>
+        <v>1.187254227160563</v>
       </c>
       <c r="F8" t="n">
-        <v>6.968211779276791</v>
+        <v>15.14524145874096</v>
       </c>
       <c r="G8" t="n">
-        <v>3.016232204726836</v>
+        <v>10.90594917413199</v>
       </c>
       <c r="H8" t="n">
-        <v>2.640932447435846</v>
+        <v>1.330802567763981</v>
       </c>
       <c r="I8" t="n">
-        <v>1.265061382637402</v>
+        <v>1.051202059465547</v>
       </c>
       <c r="J8" t="n">
-        <v>4.772711022819869</v>
+        <v>20.5304644078406</v>
       </c>
       <c r="K8" t="n">
-        <v>1.609409608276453</v>
+        <v>4.022951142004053</v>
       </c>
       <c r="L8" t="n">
-        <v>4.01371843658422</v>
+        <v>1.56408873923716</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13564087320727</v>
+        <v>1.024191538908677</v>
       </c>
       <c r="N8" t="n">
-        <v>8.372409041277084</v>
+        <v>42.33676670074641</v>
       </c>
       <c r="O8" t="n">
-        <v>1.331816001077198</v>
+        <v>2.772770719288494</v>
       </c>
       <c r="P8" t="n">
-        <v>6.70757121517873</v>
+        <v>1.941299409279226</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.065407094502636</v>
+        <v>1.010573749989351</v>
       </c>
       <c r="R8" t="n">
-        <v>16.28886136288612</v>
+        <v>95.57382678870472</v>
       </c>
       <c r="S8" t="n">
-        <v>1.175205873444136</v>
+        <v>2.062361231869593</v>
       </c>
       <c r="T8" t="n">
-        <v>2.532379755221637</v>
+        <v>1.210776929612063</v>
       </c>
       <c r="U8" t="n">
-        <v>1.652579751587337</v>
+        <v>5.744352248799294</v>
       </c>
       <c r="V8" t="n">
-        <v>3.805289316703965</v>
+        <v>4.192088997420691</v>
       </c>
       <c r="W8" t="n">
-        <v>1.356469471453638</v>
+        <v>1.313274473489941</v>
       </c>
       <c r="X8" t="n">
-        <v>4.271027741815391</v>
+        <v>1.43315006424573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.305714313338415</v>
+        <v>3.308668709864698</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.450127065688388</v>
+        <v>8.483710876485583</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.155035705469978</v>
+        <v>1.133623548063846</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.083159160037358</v>
+        <v>1.823128472648564</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.141179942086001</v>
+        <v>2.21487718288048</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.50978338716183</v>
+        <v>19.46343094711154</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.064475433024277</v>
+        <v>1.054161114630563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1324,100 +1324,100 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>palmeiras</t>
+          <t>américa-mg</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vasco da gama</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.184383151524549</v>
+        <v>1.48320378971514</v>
       </c>
       <c r="F9" t="n">
-        <v>15.14377111265257</v>
+        <v>8.120422923016525</v>
       </c>
       <c r="G9" t="n">
-        <v>11.15512626180548</v>
+        <v>4.934920244202683</v>
       </c>
       <c r="H9" t="n">
-        <v>1.328245595125627</v>
+        <v>1.889643767423325</v>
       </c>
       <c r="I9" t="n">
-        <v>1.049376620092058</v>
+        <v>1.126889707946578</v>
       </c>
       <c r="J9" t="n">
-        <v>21.25250003211253</v>
+        <v>8.880859812688733</v>
       </c>
       <c r="K9" t="n">
-        <v>4.046499373791377</v>
+        <v>2.124045417522904</v>
       </c>
       <c r="L9" t="n">
-        <v>1.563354001779139</v>
+        <v>2.618805786962221</v>
       </c>
       <c r="M9" t="n">
-        <v>1.023010981369475</v>
+        <v>1.059100781434581</v>
       </c>
       <c r="N9" t="n">
-        <v>44.45751204364343</v>
+        <v>17.9202500496022</v>
       </c>
       <c r="O9" t="n">
-        <v>2.775082802007052</v>
+        <v>1.617739328617397</v>
       </c>
       <c r="P9" t="n">
-        <v>1.945455953942015</v>
+        <v>3.969510822631373</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.009898056015272</v>
+        <v>1.025331584512181</v>
       </c>
       <c r="R9" t="n">
-        <v>102.0299394605406</v>
+        <v>40.4764093623574</v>
       </c>
       <c r="S9" t="n">
-        <v>2.057690732001388</v>
+        <v>1.336755802463744</v>
       </c>
       <c r="T9" t="n">
-        <v>1.226510098524577</v>
+        <v>2.070397589520527</v>
       </c>
       <c r="U9" t="n">
-        <v>5.414814202606054</v>
+        <v>1.934232298157491</v>
       </c>
       <c r="V9" t="n">
-        <v>4.550354074691479</v>
+        <v>6.282698277006218</v>
       </c>
       <c r="W9" t="n">
-        <v>1.281662048055559</v>
+        <v>1.189297201460977</v>
       </c>
       <c r="X9" t="n">
-        <v>1.463963621097726</v>
+        <v>3.21768506228214</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.15534139860799</v>
+        <v>1.450920654608611</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.465341894060328</v>
+        <v>14.49853869565908</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.118128719727392</v>
+        <v>1.074082093072903</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.881321015968066</v>
+        <v>5.576450327165254</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.134660335884053</v>
+        <v>1.218509964822326</v>
       </c>
       <c r="AD9" t="n">
-        <v>22.34766701219579</v>
+        <v>38.12857338305443</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.046843526247093</v>
+        <v>1.026933434519097</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1427,100 +1427,100 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>américa-mg</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>são paulo</t>
+          <t>red bull bragantino</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4.586898710139524</v>
+        <v>2.598023531267418</v>
       </c>
       <c r="F10" t="n">
-        <v>9.349774840402226</v>
+        <v>7.521367106607318</v>
       </c>
       <c r="G10" t="n">
-        <v>1.481408340814993</v>
+        <v>2.074097278170901</v>
       </c>
       <c r="H10" t="n">
-        <v>7.419198195676522</v>
+        <v>3.780686902778115</v>
       </c>
       <c r="I10" t="n">
-        <v>2.230491039320907</v>
+        <v>1.541879865286108</v>
       </c>
       <c r="J10" t="n">
-        <v>1.812683691343164</v>
+        <v>2.845427490597032</v>
       </c>
       <c r="K10" t="n">
-        <v>1.155782695831626</v>
+        <v>1.359623371836982</v>
       </c>
       <c r="L10" t="n">
-        <v>13.05249047613408</v>
+        <v>5.975953286605371</v>
       </c>
       <c r="M10" t="n">
-        <v>1.735678925487833</v>
+        <v>1.310543463610797</v>
       </c>
       <c r="N10" t="n">
-        <v>2.359288631704238</v>
+        <v>4.220161159963416</v>
       </c>
       <c r="O10" t="n">
-        <v>1.082970403667206</v>
+        <v>1.200966516846505</v>
       </c>
       <c r="P10" t="n">
-        <v>24.9913311395622</v>
+        <v>10.27967878217047</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.438143427525581</v>
+        <v>1.17282518855953</v>
       </c>
       <c r="R10" t="n">
-        <v>3.282357641760165</v>
+        <v>6.786193600220184</v>
       </c>
       <c r="S10" t="n">
-        <v>1.041681722209693</v>
+        <v>1.107762350774614</v>
       </c>
       <c r="T10" t="n">
-        <v>2.672832229631065</v>
+        <v>2.246598049377581</v>
       </c>
       <c r="U10" t="n">
-        <v>1.597788578129287</v>
+        <v>1.802183190082235</v>
       </c>
       <c r="V10" t="n">
-        <v>1.411591504717847</v>
+        <v>1.939700416371151</v>
       </c>
       <c r="W10" t="n">
-        <v>3.429593391840088</v>
+        <v>2.064168944248964</v>
       </c>
       <c r="X10" t="n">
-        <v>4.60295685513101</v>
+        <v>3.612185367999838</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.277549812614572</v>
+        <v>1.38282122404112</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.829745563653429</v>
+        <v>2.931170980580649</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.205188727490061</v>
+        <v>1.51782054000176</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.90749337734746</v>
+        <v>6.494419558027894</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.126462325326088</v>
+        <v>1.182002846604406</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.591127467430399</v>
+        <v>4.927120247257121</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.628485159403951</v>
+        <v>1.254639516245637</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1530,918 +1530,3493 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>botafogo</t>
+          <t>são paulo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bahia</t>
+          <t>coritiba</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.184448199371951</v>
+        <v>1.186919336298595</v>
       </c>
       <c r="F11" t="n">
-        <v>15.14174163551137</v>
+        <v>15.15560903444423</v>
       </c>
       <c r="G11" t="n">
-        <v>11.15045958879614</v>
+        <v>10.92889116652482</v>
       </c>
       <c r="H11" t="n">
-        <v>1.328333330451867</v>
+        <v>1.330349437137325</v>
       </c>
       <c r="I11" t="n">
-        <v>1.049405811450337</v>
+        <v>1.051050977705808</v>
       </c>
       <c r="J11" t="n">
-        <v>21.24053386928397</v>
+        <v>20.58826343665159</v>
       </c>
       <c r="K11" t="n">
-        <v>4.045685305916873</v>
+        <v>4.027097635357263</v>
       </c>
       <c r="L11" t="n">
-        <v>1.563466105561978</v>
+        <v>1.563505122324936</v>
       </c>
       <c r="M11" t="n">
-        <v>1.023028199287424</v>
+        <v>1.024101691762161</v>
       </c>
       <c r="N11" t="n">
-        <v>44.42501936511045</v>
+        <v>42.4908633745768</v>
       </c>
       <c r="O11" t="n">
-        <v>2.77472964234937</v>
+        <v>2.774606761113636</v>
       </c>
       <c r="P11" t="n">
-        <v>1.945591374331092</v>
+        <v>1.940583306779027</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.009907260880814</v>
+        <v>1.010525151303928</v>
       </c>
       <c r="R11" t="n">
-        <v>101.9360722433978</v>
+        <v>96.01051064479877</v>
       </c>
       <c r="S11" t="n">
-        <v>2.057539257596757</v>
+        <v>2.063170048620617</v>
       </c>
       <c r="T11" t="n">
-        <v>1.226395470965047</v>
+        <v>1.211310262899675</v>
       </c>
       <c r="U11" t="n">
-        <v>5.417049491923759</v>
+        <v>5.732377813919877</v>
       </c>
       <c r="V11" t="n">
-        <v>4.546374888258343</v>
+        <v>4.209776014592616</v>
       </c>
       <c r="W11" t="n">
-        <v>1.281978085089337</v>
+        <v>1.311548218770935</v>
       </c>
       <c r="X11" t="n">
-        <v>1.463739064758288</v>
+        <v>1.434194404499859</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.156385079443815</v>
+        <v>3.303115815487955</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.45431661616168</v>
+        <v>8.53163835516218</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.118282771441083</v>
+        <v>1.132773236425326</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.880896081630238</v>
+        <v>1.825096936630737</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.135207683236985</v>
+        <v>2.211978805888525</v>
       </c>
       <c r="AD11" t="n">
-        <v>22.31487200787445</v>
+        <v>19.60252795598096</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.04691559956966</v>
+        <v>1.053756134777289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mjallby</t>
+          <t>grêmio</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>hammarby if</t>
+          <t>cuiabá</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4.395973212565194</v>
+        <v>1.471537219727097</v>
       </c>
       <c r="F12" t="n">
-        <v>9.1802112366922</v>
+        <v>9.051074959227938</v>
       </c>
       <c r="G12" t="n">
-        <v>1.506956567420807</v>
+        <v>4.762938701709701</v>
       </c>
       <c r="H12" t="n">
-        <v>7.050177112164888</v>
+        <v>1.81547376894095</v>
       </c>
       <c r="I12" t="n">
-        <v>2.170193715924846</v>
+        <v>1.143830466332151</v>
       </c>
       <c r="J12" t="n">
-        <v>1.854559366018868</v>
+        <v>7.952629894772608</v>
       </c>
       <c r="K12" t="n">
-        <v>1.165284417540329</v>
+        <v>2.226281013672202</v>
       </c>
       <c r="L12" t="n">
-        <v>12.29206702878279</v>
+        <v>2.395489408381051</v>
       </c>
       <c r="M12" t="n">
-        <v>1.699610865239598</v>
+        <v>1.073747746766163</v>
       </c>
       <c r="N12" t="n">
-        <v>2.429366022864048</v>
+        <v>14.55973631534481</v>
       </c>
       <c r="O12" t="n">
-        <v>1.088557745667915</v>
+        <v>1.716594475023733</v>
       </c>
       <c r="P12" t="n">
-        <v>23.31458591067049</v>
+        <v>3.398283712867297</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4160512139852</v>
+        <v>1.035419930535288</v>
       </c>
       <c r="R12" t="n">
-        <v>3.403550251473543</v>
+        <v>29.23269229745432</v>
       </c>
       <c r="S12" t="n">
-        <v>1.044813737705158</v>
+        <v>1.416964846416956</v>
       </c>
       <c r="T12" t="n">
-        <v>2.609077111600766</v>
+        <v>1.542337415391171</v>
       </c>
       <c r="U12" t="n">
-        <v>1.621474255516049</v>
+        <v>2.843870571383558</v>
       </c>
       <c r="V12" t="n">
-        <v>1.426033793345391</v>
+        <v>3.357404147564725</v>
       </c>
       <c r="W12" t="n">
-        <v>3.347231641292095</v>
+        <v>1.424195401977651</v>
       </c>
       <c r="X12" t="n">
-        <v>4.451643939598328</v>
+        <v>2.093904807217618</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.289717021077316</v>
+        <v>1.914156326402415</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.858661551069982</v>
+        <v>6.2901725856596</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.16460321153765</v>
+        <v>1.189029749749708</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.529833717140793</v>
+        <v>3.125599771254127</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.132805057530502</v>
+        <v>1.470455451455938</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.648757572936995</v>
+        <v>13.30898440680594</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.606517305160068</v>
+        <v>1.081241471022343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ifk gotemburgo</t>
+          <t>fluminense</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bk hacken</t>
+          <t>fortaleza</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.124730399453318</v>
+        <v>1.187317737044235</v>
       </c>
       <c r="F13" t="n">
-        <v>7.010724870846568</v>
+        <v>15.14210394376717</v>
       </c>
       <c r="G13" t="n">
-        <v>2.585894022788549</v>
+        <v>10.90221900861936</v>
       </c>
       <c r="H13" t="n">
-        <v>3.011125257968979</v>
+        <v>1.330905569434407</v>
       </c>
       <c r="I13" t="n">
-        <v>1.348206726927858</v>
+        <v>1.051223752232421</v>
       </c>
       <c r="J13" t="n">
-        <v>3.871857212015273</v>
+        <v>20.52219344382708</v>
       </c>
       <c r="K13" t="n">
-        <v>1.497234071342674</v>
+        <v>4.022010181663696</v>
       </c>
       <c r="L13" t="n">
-        <v>4.667970503819315</v>
+        <v>1.564254075397998</v>
       </c>
       <c r="M13" t="n">
-        <v>1.186195340499351</v>
+        <v>1.024203130491918</v>
       </c>
       <c r="N13" t="n">
-        <v>6.37070367775121</v>
+        <v>42.31696932072263</v>
       </c>
       <c r="O13" t="n">
-        <v>1.272630327577264</v>
+        <v>2.772251266939718</v>
       </c>
       <c r="P13" t="n">
-        <v>7.935681835074612</v>
+        <v>1.941566593528469</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.094914530019117</v>
+        <v>1.010579478555447</v>
       </c>
       <c r="R13" t="n">
-        <v>11.53579467546847</v>
+        <v>95.52261704194694</v>
       </c>
       <c r="S13" t="n">
-        <v>1.144181931031334</v>
+        <v>2.062059770252209</v>
       </c>
       <c r="T13" t="n">
-        <v>2.493765382457853</v>
+        <v>1.210813788739346</v>
       </c>
       <c r="U13" t="n">
-        <v>1.669449173038535</v>
+        <v>5.743522736249569</v>
       </c>
       <c r="V13" t="n">
-        <v>2.925078747206789</v>
+        <v>4.191137999906818</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51945926962778</v>
+        <v>1.313367833051783</v>
       </c>
       <c r="X13" t="n">
-        <v>4.180687923311669</v>
+        <v>1.433222239212512</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.31439739581833</v>
+        <v>3.308284084902349</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.211713803815157</v>
+        <v>8.481135513635307</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.23743303713898</v>
+        <v>1.133669547647864</v>
       </c>
       <c r="AB13" t="n">
-        <v>7.861472555895426</v>
+        <v>1.823264505852128</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.14574131017121</v>
+        <v>2.214676441036334</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.45695336808394</v>
+        <v>19.45596179918648</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.105742299985837</v>
+        <v>1.054183033692889</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>djurgardens if</t>
+          <t>bahia</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>degerfors if</t>
+          <t>vasco da gama</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.185135382972137</v>
+        <v>1.190611035399585</v>
       </c>
       <c r="F14" t="n">
-        <v>15.10504545588787</v>
+        <v>14.97614602681855</v>
       </c>
       <c r="G14" t="n">
-        <v>11.10969167740878</v>
+        <v>10.71555444220902</v>
       </c>
       <c r="H14" t="n">
-        <v>1.329485731516454</v>
+        <v>1.33633533730923</v>
       </c>
       <c r="I14" t="n">
-        <v>1.049624253878911</v>
+        <v>1.052313467606475</v>
       </c>
       <c r="J14" t="n">
-        <v>21.15143648184843</v>
+        <v>20.11553651007108</v>
       </c>
       <c r="K14" t="n">
-        <v>4.035032793066675</v>
+        <v>3.973223117143322</v>
       </c>
       <c r="L14" t="n">
-        <v>1.565376023130016</v>
+        <v>1.573113870208393</v>
       </c>
       <c r="M14" t="n">
-        <v>1.023140528297569</v>
+        <v>1.024776923735377</v>
       </c>
       <c r="N14" t="n">
-        <v>44.21422515254582</v>
+        <v>41.36013553095724</v>
       </c>
       <c r="O14" t="n">
-        <v>2.768734362776533</v>
+        <v>2.744853949593619</v>
       </c>
       <c r="P14" t="n">
-        <v>1.948773977136531</v>
+        <v>1.956115385127771</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.009960611260003</v>
+        <v>1.010859200218768</v>
       </c>
       <c r="R14" t="n">
-        <v>101.3954450080252</v>
+        <v>93.08781308514166</v>
       </c>
       <c r="S14" t="n">
-        <v>2.053991808479056</v>
+        <v>2.045898869064182</v>
       </c>
       <c r="T14" t="n">
-        <v>1.227092636216611</v>
+        <v>1.213445957643777</v>
       </c>
       <c r="U14" t="n">
-        <v>5.403489327792016</v>
+        <v>5.685026650487873</v>
       </c>
       <c r="V14" t="n">
-        <v>4.53949139728145</v>
+        <v>4.154942927692451</v>
       </c>
       <c r="W14" t="n">
-        <v>1.282526467155158</v>
+        <v>1.316962944471204</v>
       </c>
       <c r="X14" t="n">
-        <v>1.46510483339801</v>
+        <v>1.438376490321731</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.150052908919692</v>
+        <v>3.281144226657969</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.435250636497589</v>
+        <v>8.38323925205122</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.1185501229416</v>
+        <v>1.135441906439938</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.883480759713229</v>
+        <v>1.832982350591304</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.131886562333958</v>
+        <v>2.200505628108611</v>
       </c>
       <c r="AD14" t="n">
-        <v>22.25818055259501</v>
+        <v>19.17243299975879</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.0470407143982</v>
+        <v>1.055028404837881</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>03/09/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ifk varnamo</t>
+          <t>corinthians</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>halmstad</t>
+          <t>palmeiras</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.790521465122191</v>
+        <v>4.35332782966545</v>
       </c>
       <c r="F15" t="n">
-        <v>7.09970124094787</v>
+        <v>9.051139223958181</v>
       </c>
       <c r="G15" t="n">
-        <v>3.326099213919304</v>
+        <v>1.515593920314922</v>
       </c>
       <c r="H15" t="n">
-        <v>2.436706739072624</v>
+        <v>7.001281680836554</v>
       </c>
       <c r="I15" t="n">
-        <v>1.22664932103983</v>
+        <v>2.145626039286928</v>
       </c>
       <c r="J15" t="n">
-        <v>5.412102341238725</v>
+        <v>1.872885187405856</v>
       </c>
       <c r="K15" t="n">
-        <v>1.696036270175421</v>
+        <v>1.166631072024702</v>
       </c>
       <c r="L15" t="n">
-        <v>3.631088972036415</v>
+        <v>12.25801026657795</v>
       </c>
       <c r="M15" t="n">
-        <v>1.113750241032529</v>
+        <v>1.681695277222779</v>
       </c>
       <c r="N15" t="n">
-        <v>9.79119016296446</v>
+        <v>2.466931095773453</v>
       </c>
       <c r="O15" t="n">
-        <v>1.380070765613836</v>
+        <v>1.088825642926329</v>
       </c>
       <c r="P15" t="n">
-        <v>5.945667826354293</v>
+        <v>23.37916035137073</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.053497835377221</v>
+        <v>1.403199681411778</v>
       </c>
       <c r="R15" t="n">
-        <v>19.69234508179359</v>
+        <v>3.480160689856106</v>
       </c>
       <c r="S15" t="n">
-        <v>1.202197162266183</v>
+        <v>1.044684428919548</v>
       </c>
       <c r="T15" t="n">
-        <v>2.433648191174552</v>
+        <v>2.699614224813995</v>
       </c>
       <c r="U15" t="n">
-        <v>1.697521195336441</v>
+        <v>1.588368810639626</v>
       </c>
       <c r="V15" t="n">
-        <v>4.247598464334214</v>
+        <v>1.45809347148194</v>
       </c>
       <c r="W15" t="n">
-        <v>1.307919840147174</v>
+        <v>3.182960601392078</v>
       </c>
       <c r="X15" t="n">
-        <v>4.040846440794581</v>
+        <v>4.666832967329757</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.328855803629037</v>
+        <v>1.272714903817453</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.634317610341641</v>
+        <v>1.92307876622628</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.130987476686243</v>
+        <v>2.083331170197087</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.520648777502621</v>
+        <v>9.067843087740565</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.153358973028907</v>
+        <v>1.12394886577796</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.90113945125158</v>
+        <v>2.777926972316726</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.052906863238543</v>
+        <v>1.562452797876704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27/08/2023</t>
+          <t>04/09/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brommapojkarna</t>
+          <t>cambridge utd fc</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>kalmar</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.363923885202606</v>
+        <v>1.187076313988499</v>
       </c>
       <c r="F16" t="n">
-        <v>9.906185005115955</v>
+        <v>15.15315124339484</v>
       </c>
       <c r="G16" t="n">
-        <v>6.028664288951375</v>
+        <v>10.91687534612468</v>
       </c>
       <c r="H16" t="n">
-        <v>1.642738878777742</v>
+        <v>1.330526933056074</v>
       </c>
       <c r="I16" t="n">
-        <v>1.103252373710711</v>
+        <v>1.051136027183571</v>
       </c>
       <c r="J16" t="n">
-        <v>10.68500736653048</v>
+        <v>20.55568422259607</v>
       </c>
       <c r="K16" t="n">
-        <v>2.55584177808201</v>
+        <v>4.025472056857618</v>
       </c>
       <c r="L16" t="n">
-        <v>2.113401879656806</v>
+        <v>1.563666913744709</v>
       </c>
       <c r="M16" t="n">
-        <v>1.050248273934449</v>
+        <v>1.024154946217296</v>
       </c>
       <c r="N16" t="n">
-        <v>20.90118110931609</v>
+        <v>42.39938839043873</v>
       </c>
       <c r="O16" t="n">
-        <v>1.898148295122547</v>
+        <v>2.774097389106133</v>
       </c>
       <c r="P16" t="n">
-        <v>2.922204761589236</v>
+        <v>1.940650304616354</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.022677101487431</v>
+        <v>1.010555063338169</v>
       </c>
       <c r="R16" t="n">
-        <v>45.0973464159097</v>
+        <v>95.74125999640526</v>
       </c>
       <c r="S16" t="n">
-        <v>1.520235939470477</v>
+        <v>2.063094324312</v>
       </c>
       <c r="T16" t="n">
-        <v>1.517957604427166</v>
+        <v>1.210777955168544</v>
       </c>
       <c r="U16" t="n">
-        <v>2.930659944853879</v>
+        <v>5.744329164785619</v>
       </c>
       <c r="V16" t="n">
-        <v>4.35681776835258</v>
+        <v>4.196567661092795</v>
       </c>
       <c r="W16" t="n">
-        <v>1.297901187674769</v>
+        <v>1.312835549258524</v>
       </c>
       <c r="X16" t="n">
-        <v>2.044232403657739</v>
+        <v>1.433152072418167</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.957641226701258</v>
+        <v>3.308658006453206</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.93225904687143</v>
+        <v>8.495841594558948</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.126067491504127</v>
+        <v>1.133407301553154</v>
       </c>
       <c r="AB16" t="n">
-        <v>3.023748182430139</v>
+        <v>1.823132257574437</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.494132624148519</v>
+        <v>2.214871596633508</v>
       </c>
       <c r="AD16" t="n">
-        <v>20.77226497147352</v>
+        <v>19.49861993650461</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.050575895146193</v>
+        <v>1.054058086680652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>28/08/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ik sirius</t>
+          <t>exeter city</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>malmo</t>
+          <t>leyton orient</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.759270459486919</v>
+        <v>1.186950916705289</v>
       </c>
       <c r="F17" t="n">
-        <v>9.497247325585811</v>
+        <v>15.15760706516327</v>
       </c>
       <c r="G17" t="n">
-        <v>1.460728114988945</v>
+        <v>10.92517616917338</v>
       </c>
       <c r="H17" t="n">
-        <v>7.757180151156741</v>
+        <v>1.330348999627553</v>
       </c>
       <c r="I17" t="n">
-        <v>2.283535686458462</v>
+        <v>1.051082826154511</v>
       </c>
       <c r="J17" t="n">
-        <v>1.779097932804038</v>
+        <v>20.57605080375313</v>
       </c>
       <c r="K17" t="n">
-        <v>1.147990726550159</v>
+        <v>4.027101644404662</v>
       </c>
       <c r="L17" t="n">
-        <v>13.75940047451036</v>
+        <v>1.563421929162684</v>
       </c>
       <c r="M17" t="n">
-        <v>1.767065068137085</v>
+        <v>1.024123942295256</v>
       </c>
       <c r="N17" t="n">
-        <v>2.303670368445569</v>
+        <v>42.45259459506558</v>
       </c>
       <c r="O17" t="n">
-        <v>1.078373588320056</v>
+        <v>2.774868794131115</v>
       </c>
       <c r="P17" t="n">
-        <v>26.57388779493776</v>
+        <v>1.940318584035024</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.457193623445761</v>
+        <v>1.010538555569908</v>
       </c>
       <c r="R17" t="n">
-        <v>3.187257102282475</v>
+        <v>95.88966427765895</v>
       </c>
       <c r="S17" t="n">
-        <v>1.03910238474566</v>
+        <v>2.063469357065002</v>
       </c>
       <c r="T17" t="n">
-        <v>2.737499397804152</v>
+        <v>1.210910807693671</v>
       </c>
       <c r="U17" t="n">
-        <v>1.575539767820235</v>
+        <v>5.741340716178035</v>
       </c>
       <c r="V17" t="n">
-        <v>1.401525376697351</v>
+        <v>4.202028663041529</v>
       </c>
       <c r="W17" t="n">
-        <v>3.490502613372176</v>
+        <v>1.312302013889571</v>
       </c>
       <c r="X17" t="n">
-        <v>4.757503329620183</v>
+        <v>1.433412215155218</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.266134162042401</v>
+        <v>3.307272303439511</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.809628312198106</v>
+        <v>8.510637954903578</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.235134672211553</v>
+        <v>1.133144482000642</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.296377995783509</v>
+        <v>1.823622572814919</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.120534527297121</v>
+        <v>2.214148364805339</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.551163197590005</v>
+        <v>19.54155730964125</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.644677492061228</v>
+        <v>1.053932902360905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>28/08/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>elfsborg</t>
+          <t>port vale fc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>norrkoping</t>
+          <t>burton albion</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.183935731833171</v>
+        <v>1.186821751666223</v>
       </c>
       <c r="F18" t="n">
-        <v>15.166829947791</v>
+        <v>15.16005650164152</v>
       </c>
       <c r="G18" t="n">
-        <v>11.1824049374413</v>
+        <v>10.93485662289476</v>
       </c>
       <c r="H18" t="n">
-        <v>1.327509685521211</v>
+        <v>1.330196815072175</v>
       </c>
       <c r="I18" t="n">
-        <v>1.049228700893391</v>
+        <v>1.051015359036952</v>
       </c>
       <c r="J18" t="n">
-        <v>21.31335342700951</v>
+        <v>20.60193986433902</v>
       </c>
       <c r="K18" t="n">
-        <v>4.053344814546667</v>
+        <v>4.028496806613405</v>
       </c>
       <c r="L18" t="n">
-        <v>1.562156958737098</v>
+        <v>1.563269168001074</v>
       </c>
       <c r="M18" t="n">
-        <v>1.022933455440054</v>
+        <v>1.024082095637518</v>
       </c>
       <c r="N18" t="n">
-        <v>44.60441899450787</v>
+        <v>42.5246253919057</v>
       </c>
       <c r="O18" t="n">
-        <v>2.778862619163389</v>
+        <v>2.775350146624913</v>
       </c>
       <c r="P18" t="n">
-        <v>1.943496324225437</v>
+        <v>1.940216284198627</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.00986055891677</v>
+        <v>1.010515209632332</v>
       </c>
       <c r="R18" t="n">
-        <v>102.4141296087489</v>
+        <v>96.10033893430307</v>
       </c>
       <c r="S18" t="n">
-        <v>2.059887542032502</v>
+        <v>2.063585067400027</v>
       </c>
       <c r="T18" t="n">
-        <v>1.226178448410362</v>
+        <v>1.211299467105636</v>
       </c>
       <c r="U18" t="n">
-        <v>5.421287735539117</v>
+        <v>5.732619602396185</v>
       </c>
       <c r="V18" t="n">
-        <v>4.557132323490399</v>
+        <v>4.212052986806177</v>
       </c>
       <c r="W18" t="n">
-        <v>1.281125330479345</v>
+        <v>1.311327367296741</v>
       </c>
       <c r="X18" t="n">
-        <v>1.463313918603542</v>
+        <v>1.434173264750902</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.158363821691487</v>
+        <v>3.303227953415623</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.484128833838799</v>
+        <v>8.537812507776675</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.117867139877876</v>
+        <v>1.132664483093512</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.880091600080478</v>
+        <v>1.825057087960328</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.136245363446893</v>
+        <v>2.212037342133692</v>
       </c>
       <c r="AD18" t="n">
-        <v>22.40356962275347</v>
+        <v>19.62046007970612</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.046721178645684</v>
+        <v>1.053704365827667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>28/08/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>shrewsbury town</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>bolton wanderers fc</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4.325403253216502</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.062728104668476</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.518682145658913</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.934241489622611</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.14113195308106</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.87632284531162</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.168513533153096</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12.09380696594152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.680266185915498</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.470012798966638</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.090140382203336</v>
+      </c>
+      <c r="P19" t="n">
+        <v>22.9623110480969</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.403062517953976</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.481004696433191</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.045532548820114</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.647608850215162</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.606940172644381</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.448985142529196</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3.227245192049921</v>
+      </c>
+      <c r="X19" t="n">
+        <v>4.542966929717571</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>1.282249318110264</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.904745070143642</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2.105283723558985</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.757395039619666</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.128909253027938</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.741054604035804</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.57436452462891</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>stevenage f.c.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>carlisle utd</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1.186983092909959</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15.15654814173189</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10.92300083604315</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.33039342510603</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.051096978630234</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20.57062876919901</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.02669461318451</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.563480847559982</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.024132289970709</v>
+      </c>
+      <c r="N20" t="n">
+        <v>42.43825559918958</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.774683211204533</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.940394222374801</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.010543042337352</v>
+      </c>
+      <c r="R20" t="n">
+        <v>95.84928239898757</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.063383819473791</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.210866749168126</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.742331372513778</v>
+      </c>
+      <c r="V20" t="n">
+        <v>4.200452987089847</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.312455769240745</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.433325942698356</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.307731666774712</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.50636817077368</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.133220217453966</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.823459965266318</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2.214388121074697</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>19.52916509040461</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.053968972434589</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>wigan fc</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>charlton athletic</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1.432083957345671</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.836141187275548</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.303763949766493</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.777373158242569</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.118782070375414</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.418779002920818</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.286383494717943</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.377940862548808</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.056831268824989</v>
+      </c>
+      <c r="N21" t="n">
+        <v>18.59594710228076</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.725720549538155</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.449581919659218</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.025139911983457</v>
+      </c>
+      <c r="R21" t="n">
+        <v>40.77738667732965</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.408232928229287</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.762206277404765</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.311980797908013</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.113015035870005</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.243130645348705</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.5507644119697</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.644843273601986</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>11.05058359874083</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.099496709835366</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>4.089752120647562</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.323650558670194</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>27.1508376323711</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.03823969289466</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>derby county</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>northampton</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1.610293501568773</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7.835203568268989</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.978261290609746</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.08711695627754</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.177887943571472</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.621516444132799</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.91986422824657</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.931827073051386</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.089287832916314</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.19973424528358</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.517644676353183</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4.483986766173949</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.04188087769302</v>
+      </c>
+      <c r="R22" t="n">
+        <v>24.87724553744616</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.287027496691149</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.95717238901914</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.044743884667158</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4.069556426259478</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.325779969850102</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.969163641170635</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.507829811140285</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>8.153247752943543</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.139796639867325</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>5.012336770116553</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.249231322616758</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>18.50937474370872</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.057112262124569</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>barnsley fc</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>portsmouth</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4.120804699527166</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.924621879384302</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.549716327719668</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.527849033719519</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.080466119017536</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.925526476396406</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.180902190689374</v>
+      </c>
+      <c r="L23" t="n">
+        <v>11.235816034594</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.645237352315529</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.549817282603607</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.097696167713478</v>
+      </c>
+      <c r="P23" t="n">
+        <v>21.02994287922694</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.382398584611614</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.615072440750941</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.049925254706398</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.531411682355426</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.652992276029869</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.454428300869684</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3.200567169972034</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.268758000776483</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.305926593453065</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.915698207990502</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2.092062855724593</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.07757511102411</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.141291329913601</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.763072895802967</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.567191522472225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>peterborough united</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>cheltenham town</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1.187236367430198</v>
+      </c>
+      <c r="F24" t="n">
+        <v>15.14647705345703</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.9068156279558</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.330768479326885</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.051198050635303</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20.53199365193165</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.023262682209028</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.564025843189671</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.024189917428364</v>
+      </c>
+      <c r="N24" t="n">
+        <v>42.33953755573597</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.772968405746826</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.941184856389158</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.010573188759182</v>
+      </c>
+      <c r="R24" t="n">
+        <v>95.57884681493393</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.062490533301275</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.210725209700029</v>
+      </c>
+      <c r="U24" t="n">
+        <v>5.745516691730979</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.191639444151746</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.313318599264828</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.433048790001653</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.309208622881001</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>8.482493436658203</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.13364528929632</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.822937596129349</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.215158967950251</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19.4599000241923</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.054171474314025</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>fleetwood town</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>blackpool fc</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2.165977802386112</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.900345214292304</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.541977803575548</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.104332609943085</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.355543721068729</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.812593615755885</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.475210047724844</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.881379528326724</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.188761203398989</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.297698796114748</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.257640355111344</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.440443153742345</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.095487063116194</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11.47262285973901</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.134400596757066</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.671749891995169</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.598175603173833</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3.059193734167783</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.485626963314429</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4.600379310205419</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.277748513098456</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5.541680918802994</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.220182795286191</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.901034294230971</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.126565708078265</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.31574173149635</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.096939224151645</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ING C</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>lincoln city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>oxford united</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.842303563550387</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.008390713798031</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.179496773916811</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.532143819036887</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.242895400018249</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.116998510160628</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.652680242921716</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.815331488891667</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.122695278823939</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.150272851451327</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.355197959439469</v>
+      </c>
+      <c r="P26" t="n">
+        <v>6.322746649860497</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.058200243006119</v>
+      </c>
+      <c r="R26" t="n">
+        <v>18.18205884286208</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.187872928354801</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.509860522260958</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.662312833044034</v>
+      </c>
+      <c r="V26" t="n">
+        <v>4.105333662485354</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.322026586733887</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.218294322559602</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.31072360069438</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8.249451303802442</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.137941474201708</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.953613397542212</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.14381012328834</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18.7862024060834</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.05622335657543</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>crawley town</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>newport county afc</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1.918690915650612</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.963793897510975</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.983191850489623</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.664523711480822</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.270057369501021</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.702916909276267</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.600772457071437</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.056201260363359</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.138600965697634</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8.214956944683633</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.327203582096916</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.788935730456433</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.067081174982312</v>
+      </c>
+      <c r="R27" t="n">
+        <v>15.90731192862496</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.172743323913384</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.534092439410147</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.651851201603272</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.740183682100533</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.364939039135301</v>
+      </c>
+      <c r="X27" t="n">
+        <v>4.275043911153091</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.305339417463846</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7.278978360529687</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>1.159261577693292</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.09304159001689</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.140983242140784</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>16.0295800840864</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.06653545836978</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>afc wimbledon</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stockport county fc</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1.187065347949062</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15.15344827844417</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.91764869025612</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.330512712943657</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.051130827498324</v>
+      </c>
+      <c r="J28" t="n">
+        <v>20.55767291332756</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.025602225989017</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.563649780238711</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.024151806231261</v>
+      </c>
+      <c r="N28" t="n">
+        <v>42.40477074156239</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2.774151317111291</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.940631606325189</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.010553345019991</v>
+      </c>
+      <c r="R28" t="n">
+        <v>95.75668597072044</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.063115456971245</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.210800390488374</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5.743824229562579</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4.197232663586878</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.312770481607094</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.433196003688926</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3.308423880840073</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.497643102346549</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1.133375246907529</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.823215057781594</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.214749403023322</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>19.50384677890289</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.054042816715287</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>wrexham</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>doncaster rovers</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1.187034264785149</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.1546555235202</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.91965178226017</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.330467111618436</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.05111824980065</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20.5624850987619</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.026019730382795</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.563584264649528</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02414459820523</v>
+      </c>
+      <c r="N29" t="n">
+        <v>42.41713154635956</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.774357558797107</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.940537867989614</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.010549558573776</v>
+      </c>
+      <c r="R29" t="n">
+        <v>95.79069602834169</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.06322141195387</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.210821225463511</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5.743355408362712</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4.19837539069237</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.312658733840346</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.433236801291229</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3.308206498200466</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>8.500738964942116</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.133320197473066</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.823291952172366</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2.214635947018997</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>19.51282962761985</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.05401659390351</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>forest green rovers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>crewe alexandra fc</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>3.408561658062419</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.485787273968743</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.698435863483832</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.149491860232961</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.860737609641229</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.16179424344757</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.240993363448569</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.410375655941019</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.516732393536598</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.935237683002306</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.134945925338925</v>
+      </c>
+      <c r="P30" t="n">
+        <v>14.86954482737025</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.305996852540818</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.268007470327195</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.072100419476391</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.137846292815398</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.878853326951286</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.478407255999797</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3.090269299762509</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.367601799980408</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.422368322244169</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.964061475581947</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2.037278249705351</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>5.922147284444083</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.203163363916474</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2.860663370404894</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.537442729246824</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>barrow</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>morecambe</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1.195510857600032</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14.7103728755537</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10.46482027064907</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.34485845532997</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.053755818274347</v>
+      </c>
+      <c r="J31" t="n">
+        <v>19.60263748374971</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.899740413913217</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.587729432264947</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.025490729506424</v>
+      </c>
+      <c r="N31" t="n">
+        <v>40.22994827386077</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2.701463199054496</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.98123565275494</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.011185798798781</v>
+      </c>
+      <c r="R31" t="n">
+        <v>90.39906912226502</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.019123181258627</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.220957679175815</v>
+      </c>
+      <c r="U31" t="n">
+        <v>5.525753545792373</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4.162126249104774</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.316242907848195</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.453087499377657</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.207079209586584</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8.402648873432883</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.135086780029358</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.860754281836118</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2.161771740323906</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>19.2285864370981</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.054858889001115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>mk dons</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>notts county</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2.898438379157937</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.185283170707359</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.876820007354994</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.214214610489794</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.68833112221733</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.452789170390387</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.311117993408541</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.601918148309679</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.412273254941731</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.425575726810936</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.17851028407149</v>
+      </c>
+      <c r="P32" t="n">
+        <v>11.163152393396</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.242150090485197</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5.129670147949542</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.098394667450799</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.916227646133493</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.091431811973835</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.533187277154579</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2.875513619410849</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.88028197369648</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.531835125789182</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.075239150317571</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.930025659598287</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>4.813415087647279</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.262232140224986</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.087254777815244</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.479098196649818</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>salford city</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>walsall</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1.644050033198359</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.037634764677374</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.740676897723185</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.118397459721354</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.200204695049393</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.994887855918103</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.894136508723068</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.940933841149859</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.104838393209346</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.5384903315254</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.515215912463856</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4.418141674589664</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.051727178508841</v>
+      </c>
+      <c r="R33" t="n">
+        <v>20.33219689972228</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.292556627314182</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.759971781532873</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.315838330185085</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.144680942942645</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.466269821294693</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.546040806362838</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.646813457888324</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.754199767648625</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.210340340934935</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>4.079543054490038</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.324723500306962</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11.87547703116837</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.091949989608186</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>accrington stanley</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>mansfield town</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4.283524853212576</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.034624715719126</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.524710713042136</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6.850539954436916</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.128849434515443</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.885857732151186</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.170924394634998</v>
+      </c>
+      <c r="L34" t="n">
+        <v>11.91592309047087</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.673206241630369</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.48542888963448</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.091609293296776</v>
+      </c>
+      <c r="P34" t="n">
+        <v>22.55890635432844</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.398913668981913</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.506808058375509</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.046384542126796</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.623206154662769</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.616064692169527</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.449915911041352</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3.222637553949697</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.485085834959699</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.286936978701864</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.906617377950721</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2.103001138429927</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.613033404362108</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.13135368609141</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.744816168126995</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.573126280159055</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>bradford city</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>grimsby town</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3.346564075781911</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.4483954414117</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.715794473553829</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.033376312804488</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.840531929827418</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.18972279875831</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.247931242325534</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.180693855969997</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.504660519245039</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.98153008183794</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.139262308080243</v>
+      </c>
+      <c r="P35" t="n">
+        <v>14.38751791206747</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.298697115878181</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4.347872968441497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.07469644534321</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.107872454631812</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.902630980506089</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.482554060448693</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3.072306673930316</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.300809526147225</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1.434629633020744</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.972443690274823</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.028337177772617</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.767640748153889</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.209747347340971</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.877638424407328</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.532583902737103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ING D</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>gillingham</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>harrogate town fc</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.187462922145961</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.13126294772783</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.89560738774141</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.331194502053463</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.051251519295588</v>
+      </c>
+      <c r="J36" t="n">
+        <v>20.51161670413316</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.019373793344481</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.564803235319485</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.024212535731109</v>
+      </c>
+      <c r="N36" t="n">
+        <v>42.30091994929583</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.770528101586287</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.942588880970883</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.01058162162437</v>
+      </c>
+      <c r="R36" t="n">
+        <v>95.50347361664679</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.06090791031821</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.211329799574562</v>
+      </c>
+      <c r="U36" t="n">
+        <v>5.731940322723755</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.196443567852522</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.312847694249091</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.434232660186127</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.302912912104231</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.495505431860041</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1.133413284679836</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.825169049315584</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.211872889354521</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>19.49764463238654</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.05406093693946</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>SUE A</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ifk varnamo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>elfsborg</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4.341346291085443</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.070157472598732</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.516518592072553</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6.9673557505829</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.145399084620244</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.873058144909858</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.167578411912566</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12.16660913698633</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.682591958256404</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.465004074402481</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.089552700173571</v>
+      </c>
+      <c r="P37" t="n">
+        <v>23.13239932243206</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.404352241226789</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3.47309127548308</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.045182629566351</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.660743905736176</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.602139798042323</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.449684088695864</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3.223783374012888</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.574186128834888</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.279783974296263</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.906151025376872</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2.103568800337776</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.835447053565911</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.127625136531923</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.74387915658897</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.573434229213452</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>halmstad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ik sirius</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1.885781617910918</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6.978413209955017</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.063567319419363</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.60767650944255</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.258257821916608</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.872099565382774</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.622015681716182</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.953070656136265</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.131652593781066</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8.595748562789179</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.33863057015655</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.589889714137056</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.063175230044038</v>
+      </c>
+      <c r="R38" t="n">
+        <v>16.82898866063367</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.178894405997127</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.52603087635417</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.655294735837255</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.892044683672625</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.345776123600585</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4.256146753948761</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1.307111465042935</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>7.679478039695396</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1.149712296987446</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8.046562091035037</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.141913175117302</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>17.15736317107305</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.061891286926714</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>norrkoping</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>djurgardens if</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1.682992480090268</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7.278381861498759</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.72540620437589</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.248664677696971</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.189806578037047</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6.268521303855001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.800855520190091</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.287361427771724</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09282643716894</v>
+      </c>
+      <c r="N39" t="n">
+        <v>11.77279308027346</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.437184953745665</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5.279560104572314</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.042264407130823</v>
+      </c>
+      <c r="R39" t="n">
+        <v>24.66057086532994</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.233668876137898</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.361822098003536</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.734310304896671</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.914382864775066</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.255468111972093</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.875074790855934</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1.347817038770769</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>10.48512431069522</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1.105428243979093</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>7.120404201960421</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.163387901681345</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>25.41809335503092</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.040953238463804</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>degerfors if</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>bk hacken</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4.322627963226221</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.061287826015946</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.519065041284049</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.92853491995765</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.140370423154087</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.876908046452271</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.168675737513771</v>
+      </c>
+      <c r="L40" t="n">
+        <v>12.08137006642689</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.679844785377842</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.470923983691694</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.090241549014746</v>
+      </c>
+      <c r="P40" t="n">
+        <v>22.93347374063655</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.402824792726649</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3.482468850120122</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.045592413305116</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.645498963831111</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.607718401518627</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.448910726427538</v>
+      </c>
+      <c r="W40" t="n">
+        <v>3.227614403331523</v>
+      </c>
+      <c r="X40" t="n">
+        <v>4.537956349030325</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.282649049718795</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.904595388457799</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.105466612763583</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.744880172152946</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.129117556085057</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.740753924903114</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.574463734186702</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>kalmar</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>mjallby</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>1.683085851539049</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7.598905047885141</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.646237166142644</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.215150193736433</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.202159659193257</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.946585307823629</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.822943538300501</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.165252704123581</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.102871270800002</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10.72088700978679</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.461839857350398</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4.930977632489774</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.049093884734065</v>
+      </c>
+      <c r="R41" t="n">
+        <v>21.36913569616384</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.254389643872541</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.035454168158341</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.965759790004612</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.804672831979151</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.356547825685015</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.14056259338222</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.467166904201544</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>7.448502544312836</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1.155074762416266</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>5.400172732934671</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.227263805467258</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>16.50521303671686</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.064494437943675</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hammarby if</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>aik</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E42" t="n">
+        <v>1.187041090650458</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.1542779847436</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.9192701890366</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.330478755546715</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.051120346813987</v>
+      </c>
+      <c r="J42" t="n">
+        <v>20.56168262392143</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.025913113070434</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.563603870207372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.024145660298179</v>
+      </c>
+      <c r="N42" t="n">
+        <v>42.4153097347866</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.774295835889244</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.94057099453328</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.010550056480495</v>
+      </c>
+      <c r="R42" t="n">
+        <v>95.78622241016564</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.06318396571033</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.210829816494772</v>
+      </c>
+      <c r="U42" t="n">
+        <v>5.743162123014025</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.198353159494018</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.312660907077004</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.433253623656432</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.308116875193166</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.500678734187103</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.133321268039668</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.823323658700121</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.214589170896436</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>19.51265485685823</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.054017103853127</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>varbergs bois fc</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>1.351422527197567</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10.31391835759162</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.131861561289377</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.612271048653916</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.102889487443615</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10.71916592108613</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2.633263572070751</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.046139227677672</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.051076232491334</v>
-      </c>
-      <c r="N19" t="n">
-        <v>20.57857796519474</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.95589571019137</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.77916837522133</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.023599158522498</v>
-      </c>
-      <c r="R19" t="n">
-        <v>43.37439224990318</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.562060350176581</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.425398587002292</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3.350736534051091</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3.797057236032786</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.357518604595433</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.857388431358307</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.166332508610785</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>7.428440559930785</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.155558722317994</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>2.646215606019505</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.607453845257832</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>16.44879096990615</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.064729984498332</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>brommapojkarna</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2.055507176540528</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6.912504422856729</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.71122698450935</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.906432475931729</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.317601783422416</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.14859692922437</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.524539952306085</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.506806648914604</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.166447574230404</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.007897709676175</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.285159719401556</v>
+      </c>
+      <c r="P43" t="n">
+        <v>7.683500022001404</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.082768686071144</v>
+      </c>
+      <c r="R43" t="n">
+        <v>13.08186389645538</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.149622203442523</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.606416421600013</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.622503596548139</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.306600981573813</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.433538357084064</v>
+      </c>
+      <c r="X43" t="n">
+        <v>4.445352224693541</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.290246086548944</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>6.161261298734092</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1.193751089534117</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.514197763423766</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.133081405558371</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>12.96142416069337</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.083602085049882</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03/09/2023</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>malmo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ifk gotemburgo</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1.187018558139126</v>
+      </c>
+      <c r="F44" t="n">
+        <v>15.15539281372911</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.92059825918799</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.330442225662598</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.051112646318839</v>
+      </c>
+      <c r="J44" t="n">
+        <v>20.56462973491973</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.026247623150503</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.563545257982387</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.024141544951524</v>
+      </c>
+      <c r="N44" t="n">
+        <v>42.42236969539395</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2.774480373732917</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.940476319113526</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.010548022579255</v>
+      </c>
+      <c r="R44" t="n">
+        <v>95.80449937286606</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.063290993804692</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.210816865972107</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5.74345349642144</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.19869431575118</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.312627560275375</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.433228264836578</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.308251979766874</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>8.501603035158798</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1.133304841020401</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.823275862823912</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.214659684750028</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>19.51533692014785</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.054009279135063</v>
       </c>
     </row>
   </sheetData>

--- a/output_corners_NNNN_AH.xlsx
+++ b/output_corners_NNNN_AH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -603,100 +603,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>oud-heverlee leuven</t>
+          <t>kvc westerlo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kv kortrijk</t>
+          <t>royal antwerp fc</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.187388775263484</v>
+        <v>5.509897154352965</v>
       </c>
       <c r="F2" t="n">
-        <v>15.13741713480761</v>
+        <v>10.12633211745636</v>
       </c>
       <c r="G2" t="n">
-        <v>10.8986614155354</v>
+        <v>1.389359786102035</v>
       </c>
       <c r="H2" t="n">
-        <v>1.331037926974381</v>
+        <v>9.262732806390998</v>
       </c>
       <c r="I2" t="n">
-        <v>1.05124101765258</v>
+        <v>2.505922180042577</v>
       </c>
       <c r="J2" t="n">
-        <v>20.515615532465</v>
+        <v>1.664044937548983</v>
       </c>
       <c r="K2" t="n">
-        <v>4.020801903696636</v>
+        <v>1.121025334284866</v>
       </c>
       <c r="L2" t="n">
-        <v>1.564493907744859</v>
+        <v>16.98657112416898</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02421061404953</v>
+        <v>1.896768137104998</v>
       </c>
       <c r="N2" t="n">
-        <v>42.30419814855632</v>
+        <v>2.115115444699298</v>
       </c>
       <c r="O2" t="n">
-        <v>2.771498303666335</v>
+        <v>1.062552500610226</v>
       </c>
       <c r="P2" t="n">
-        <v>1.941997396616543</v>
+        <v>33.98901874662756</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.010582373423872</v>
+        <v>1.535070832223578</v>
       </c>
       <c r="R2" t="n">
-        <v>95.49675984256399</v>
+        <v>2.868911440835471</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06157405911289</v>
+        <v>1.030313117455251</v>
       </c>
       <c r="T2" t="n">
-        <v>1.210993434686204</v>
+        <v>3.040108950492229</v>
       </c>
       <c r="U2" t="n">
-        <v>5.739483963030559</v>
+        <v>1.490169899876536</v>
       </c>
       <c r="V2" t="n">
-        <v>4.192472865545882</v>
+        <v>1.370238456303297</v>
       </c>
       <c r="W2" t="n">
-        <v>1.313236804858171</v>
+        <v>3.7009619961812</v>
       </c>
       <c r="X2" t="n">
-        <v>1.433574009972354</v>
+        <v>5.494467458994352</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.306411309256668</v>
+        <v>1.222495770438563</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.484750462739939</v>
+        <v>1.747289143019555</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.133604988566837</v>
+        <v>2.33817011707051</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.823927530836801</v>
+        <v>11.19208454994849</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.213698975423694</v>
+        <v>1.09811535560751</v>
       </c>
       <c r="AD2" t="n">
-        <v>19.46644613734571</v>
+        <v>2.428003272411438</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.054152271236296</v>
+        <v>1.700278507283335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -706,100 +706,100 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kv mechelen</t>
+          <t>clube brugge</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>eupen</t>
+          <t>royal charleroi sc</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.199744901819251</v>
+        <v>1.243253736687792</v>
       </c>
       <c r="F3" t="n">
-        <v>14.52034542158622</v>
+        <v>12.95603086524827</v>
       </c>
       <c r="G3" t="n">
-        <v>10.24374033438572</v>
+        <v>8.440611352227815</v>
       </c>
       <c r="H3" t="n">
-        <v>1.351760526704817</v>
+        <v>1.422303867553744</v>
       </c>
       <c r="I3" t="n">
-        <v>1.055195125306552</v>
+        <v>1.070335704592298</v>
       </c>
       <c r="J3" t="n">
-        <v>19.11754198302893</v>
+        <v>15.21753014058103</v>
       </c>
       <c r="K3" t="n">
-        <v>3.842843139245009</v>
+        <v>3.367963158359509</v>
       </c>
       <c r="L3" t="n">
-        <v>1.59888454533261</v>
+        <v>1.712712813530589</v>
       </c>
       <c r="M3" t="n">
-        <v>1.026259870992859</v>
+        <v>1.034495927550301</v>
       </c>
       <c r="N3" t="n">
-        <v>39.08091822964172</v>
+        <v>29.98892915814035</v>
       </c>
       <c r="O3" t="n">
-        <v>2.669770922949127</v>
+        <v>2.403089689164233</v>
       </c>
       <c r="P3" t="n">
-        <v>1.999413509457741</v>
+        <v>2.185203682607264</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01156639547031</v>
+        <v>1.015728765019882</v>
       </c>
       <c r="R3" t="n">
-        <v>87.45735852340196</v>
+        <v>64.57778240923386</v>
       </c>
       <c r="S3" t="n">
-        <v>2.00058683471527</v>
+        <v>1.843736831630623</v>
       </c>
       <c r="T3" t="n">
-        <v>1.223725563305786</v>
+        <v>1.249954735122521</v>
       </c>
       <c r="U3" t="n">
-        <v>5.469761904826279</v>
+        <v>5.000724369193601</v>
       </c>
       <c r="V3" t="n">
-        <v>4.107829757822846</v>
+        <v>3.636721894093137</v>
       </c>
       <c r="W3" t="n">
-        <v>1.321767946742533</v>
+        <v>1.379258807021033</v>
       </c>
       <c r="X3" t="n">
-        <v>1.458508977370434</v>
+        <v>1.50991915811226</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.180982378436812</v>
+        <v>2.961095173795857</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.256172040578887</v>
+        <v>7.00873777221023</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.137813711473167</v>
+        <v>1.166424303723969</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.87100260593706</v>
+        <v>1.968553258802028</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.148102190720957</v>
+        <v>2.032467746003837</v>
       </c>
       <c r="AD3" t="n">
-        <v>18.80556975401666</v>
+        <v>15.27677726829076</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.056162201705139</v>
+        <v>1.070043818798031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -809,100 +809,100 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>rwd molenbeek 47</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>cercle brugge</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>kvc westerlo</t>
-        </is>
-      </c>
       <c r="E4" t="n">
-        <v>1.186935073029217</v>
+        <v>5.507857486830011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.15823335238723</v>
+        <v>10.12471561096692</v>
       </c>
       <c r="G4" t="n">
-        <v>10.926193224478</v>
+        <v>1.389519976109898</v>
       </c>
       <c r="H4" t="n">
-        <v>1.330325606116143</v>
+        <v>9.25854083128605</v>
       </c>
       <c r="I4" t="n">
-        <v>1.051076476953011</v>
+        <v>2.505344380379975</v>
       </c>
       <c r="J4" t="n">
-        <v>20.57848425841838</v>
+        <v>1.664299819385902</v>
       </c>
       <c r="K4" t="n">
-        <v>4.027316022386702</v>
+        <v>1.121086765862036</v>
       </c>
       <c r="L4" t="n">
-        <v>1.563388056656948</v>
+        <v>16.97735736904189</v>
       </c>
       <c r="M4" t="n">
-        <v>1.024120317013861</v>
+        <v>1.896437632686045</v>
       </c>
       <c r="N4" t="n">
-        <v>42.45882491616259</v>
+        <v>2.11552657266702</v>
       </c>
       <c r="O4" t="n">
-        <v>2.774975504333257</v>
+        <v>1.062588573122713</v>
       </c>
       <c r="P4" t="n">
-        <v>1.940269657055714</v>
+        <v>33.96730290109022</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.010536657031412</v>
+        <v>1.53487570222592</v>
       </c>
       <c r="R4" t="n">
-        <v>95.90676189029966</v>
+        <v>2.869593245381003</v>
       </c>
       <c r="S4" t="n">
-        <v>2.063524694746953</v>
+        <v>1.030333084966042</v>
       </c>
       <c r="T4" t="n">
-        <v>1.210920236281667</v>
+        <v>3.039163177020587</v>
       </c>
       <c r="U4" t="n">
-        <v>5.741128768055148</v>
+        <v>1.490397242981357</v>
       </c>
       <c r="V4" t="n">
-        <v>4.202591486973116</v>
+        <v>1.370288278519365</v>
       </c>
       <c r="W4" t="n">
-        <v>1.312247129884535</v>
+        <v>3.700598582268392</v>
       </c>
       <c r="X4" t="n">
-        <v>1.433430677593494</v>
+        <v>5.492129939209802</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.307174022734684</v>
+        <v>1.222611548092464</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.512163210473291</v>
+        <v>1.747388193129843</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.133117448594011</v>
+        <v>2.337992771617508</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.823657371314151</v>
+        <v>11.18596897689993</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.214097068547439</v>
+        <v>1.098174263270174</v>
       </c>
       <c r="AD4" t="n">
-        <v>19.54598441876908</v>
+        <v>2.428198139624488</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.053920028045962</v>
+        <v>1.700182959391704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -912,512 +912,512 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>royal charleroi sc</t>
+          <t>royal union saint-gilloise</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sint truiden</t>
+          <t>genk</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.681599355644123</v>
+        <v>1.79030640794861</v>
       </c>
       <c r="F5" t="n">
-        <v>7.542803086383398</v>
+        <v>6.998902241933876</v>
       </c>
       <c r="G5" t="n">
-        <v>2.022197630280069</v>
+        <v>3.349445886119389</v>
       </c>
       <c r="H5" t="n">
-        <v>3.935223804015373</v>
+        <v>2.449586310960375</v>
       </c>
       <c r="I5" t="n">
-        <v>1.569476122003417</v>
+        <v>1.221943035503225</v>
       </c>
       <c r="J5" t="n">
-        <v>2.755999876662081</v>
+        <v>5.505660642752948</v>
       </c>
       <c r="K5" t="n">
-        <v>1.340689523787591</v>
+        <v>1.689851989108178</v>
       </c>
       <c r="L5" t="n">
-        <v>6.277692540028268</v>
+        <v>3.679911109875837</v>
       </c>
       <c r="M5" t="n">
-        <v>1.326903103770554</v>
+        <v>1.109956363543745</v>
       </c>
       <c r="N5" t="n">
-        <v>4.05901041766149</v>
+        <v>10.09451684078438</v>
       </c>
       <c r="O5" t="n">
-        <v>1.189476744318767</v>
+        <v>1.373146704871988</v>
       </c>
       <c r="P5" t="n">
-        <v>10.90583692874974</v>
+        <v>6.090288172239791</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.18249168578649</v>
+        <v>1.050927022702908</v>
       </c>
       <c r="R5" t="n">
-        <v>6.479701695396527</v>
+        <v>20.6359407427699</v>
       </c>
       <c r="S5" t="n">
-        <v>1.100950581681564</v>
+        <v>1.196452531990932</v>
       </c>
       <c r="T5" t="n">
-        <v>2.304599435593753</v>
+        <v>2.567598414565929</v>
       </c>
       <c r="U5" t="n">
-        <v>1.766518804712557</v>
+        <v>1.63791848135857</v>
       </c>
       <c r="V5" t="n">
-        <v>1.915446803381331</v>
+        <v>4.617825069274782</v>
       </c>
       <c r="W5" t="n">
-        <v>2.09236276352308</v>
+        <v>1.276409163199385</v>
       </c>
       <c r="X5" t="n">
-        <v>3.744043966509957</v>
+        <v>4.353771377544752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.364425647768269</v>
+        <v>1.298171785559243</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.87859211767231</v>
+        <v>9.652694515530838</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.532313529154514</v>
+        <v>1.115570935528243</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.807027871313254</v>
+        <v>8.287223383151565</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.172205131809338</v>
+        <v>1.137226478100294</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.809647979332107</v>
+        <v>22.90629451508239</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.26249144420302</v>
+        <v>1.045648979991185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>athletico-pr</t>
+          <t>kv kortrijk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>atlético mineiro</t>
+          <t>anderlecht</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.75754218040867</v>
+        <v>5.483836624291028</v>
       </c>
       <c r="F6" t="n">
-        <v>7.119782011090208</v>
+        <v>10.11111165618199</v>
       </c>
       <c r="G6" t="n">
-        <v>3.441512998297065</v>
+        <v>1.391314368700357</v>
       </c>
       <c r="H6" t="n">
-        <v>2.382102305701421</v>
+        <v>9.206708695407247</v>
       </c>
       <c r="I6" t="n">
-        <v>1.214196491525812</v>
+        <v>2.499288433315415</v>
       </c>
       <c r="J6" t="n">
-        <v>5.668610549484623</v>
+        <v>1.666983068620542</v>
       </c>
       <c r="K6" t="n">
-        <v>1.723535440086323</v>
+        <v>1.121851528684043</v>
       </c>
       <c r="L6" t="n">
-        <v>3.536910139600059</v>
+        <v>16.85847798683629</v>
       </c>
       <c r="M6" t="n">
-        <v>1.106370132867442</v>
+        <v>1.89320044586826</v>
       </c>
       <c r="N6" t="n">
-        <v>10.40113519690903</v>
+        <v>2.119569526219754</v>
       </c>
       <c r="O6" t="n">
-        <v>1.394180300039184</v>
+        <v>1.063057753766161</v>
       </c>
       <c r="P6" t="n">
-        <v>5.773930708540257</v>
+        <v>33.67658517918458</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.049377100542719</v>
+        <v>1.533100301561309</v>
       </c>
       <c r="R6" t="n">
-        <v>21.25230297058102</v>
+        <v>2.87581961043966</v>
       </c>
       <c r="S6" t="n">
-        <v>1.209470991736655</v>
+        <v>1.030602952986563</v>
       </c>
       <c r="T6" t="n">
-        <v>2.444261150444944</v>
+        <v>3.021183510987763</v>
       </c>
       <c r="U6" t="n">
-        <v>1.692395554427205</v>
+        <v>1.494759627002545</v>
       </c>
       <c r="V6" t="n">
-        <v>4.521668166893664</v>
+        <v>1.369628485443841</v>
       </c>
       <c r="W6" t="n">
-        <v>1.283956339044307</v>
+        <v>3.705419196248431</v>
       </c>
       <c r="X6" t="n">
-        <v>4.065461897726993</v>
+        <v>5.447732245088443</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.326215113207406</v>
+        <v>1.224833678129857</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.38592115645214</v>
+        <v>1.746076533379334</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.11924748412768</v>
+        <v>2.340345065499549</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.58043326170286</v>
+        <v>11.06993242672761</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.151965677673513</v>
+        <v>1.099305532313782</v>
       </c>
       <c r="AD6" t="n">
-        <v>22.11162542405213</v>
+        <v>2.425617845161096</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.047367267082179</v>
+        <v>1.701450254283959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>goiás</t>
+          <t>sint truiden</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>internacional</t>
+          <t>kv mechelen</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.413338018036807</v>
+        <v>2.024454232546844</v>
       </c>
       <c r="F7" t="n">
-        <v>8.93952946163094</v>
+        <v>6.778995322170154</v>
       </c>
       <c r="G7" t="n">
-        <v>5.537329603651868</v>
+        <v>2.789204019674504</v>
       </c>
       <c r="H7" t="n">
-        <v>1.748294431571844</v>
+        <v>2.875141204140467</v>
       </c>
       <c r="I7" t="n">
-        <v>1.111424171452357</v>
+        <v>1.29857533357979</v>
       </c>
       <c r="J7" t="n">
-        <v>9.974713358560503</v>
+        <v>4.349238492042958</v>
       </c>
       <c r="K7" t="n">
-        <v>2.336372366020996</v>
+        <v>1.533293171624578</v>
       </c>
       <c r="L7" t="n">
-        <v>2.332248401094561</v>
+        <v>4.494615232693175</v>
       </c>
       <c r="M7" t="n">
-        <v>1.052577722167223</v>
+        <v>1.153265549526798</v>
       </c>
       <c r="N7" t="n">
-        <v>20.01946221290294</v>
+        <v>7.524623459658501</v>
       </c>
       <c r="O7" t="n">
-        <v>1.750610771368472</v>
+        <v>1.28615453588272</v>
       </c>
       <c r="P7" t="n">
-        <v>3.375519680893545</v>
+        <v>7.753237646522367</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.022877803898817</v>
+        <v>1.07433559399153</v>
       </c>
       <c r="R7" t="n">
-        <v>44.71048918955597</v>
+        <v>14.45250567465628</v>
       </c>
       <c r="S7" t="n">
-        <v>1.420960519941411</v>
+        <v>1.14807712275829</v>
       </c>
       <c r="T7" t="n">
-        <v>1.774369197626818</v>
+        <v>2.806191470923241</v>
       </c>
       <c r="U7" t="n">
-        <v>2.291373679460217</v>
+        <v>1.553651158306515</v>
       </c>
       <c r="V7" t="n">
-        <v>5.528093312893561</v>
+        <v>3.763669662325696</v>
       </c>
       <c r="W7" t="n">
-        <v>1.220843505400505</v>
+        <v>1.361837745527979</v>
       </c>
       <c r="X7" t="n">
-        <v>2.576504992599603</v>
+        <v>4.922826981831929</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.634314515142153</v>
+        <v>1.25491820175383</v>
       </c>
       <c r="Z7" t="n">
-        <v>12.25171641693245</v>
+        <v>7.340621399979448</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.088875329144905</v>
+        <v>1.157713248736668</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.145469028387359</v>
+        <v>9.715812210542307</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.317917611324467</v>
+        <v>1.11473400021061</v>
       </c>
       <c r="AD7" t="n">
-        <v>30.89799931683791</v>
+        <v>16.20223276486826</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.03344705407886</v>
+        <v>1.065779811128202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>botafogo</t>
+          <t>oud-heverlee leuven</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>flamengo</t>
+          <t>gent</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.187254227160563</v>
+        <v>2.412730138990529</v>
       </c>
       <c r="F8" t="n">
-        <v>15.14524145874096</v>
+        <v>6.78113439196455</v>
       </c>
       <c r="G8" t="n">
-        <v>10.90594917413199</v>
+        <v>2.282772436029956</v>
       </c>
       <c r="H8" t="n">
-        <v>1.330802567763981</v>
+        <v>3.589356829224758</v>
       </c>
       <c r="I8" t="n">
-        <v>1.051202059465547</v>
+        <v>1.426928755434587</v>
       </c>
       <c r="J8" t="n">
-        <v>20.5304644078406</v>
+        <v>3.342311187219188</v>
       </c>
       <c r="K8" t="n">
-        <v>4.022951142004053</v>
+        <v>1.386196289639769</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56408873923716</v>
+        <v>5.88938221448928</v>
       </c>
       <c r="M8" t="n">
-        <v>1.024191538908677</v>
+        <v>1.227788062892631</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33676670074641</v>
+        <v>5.390045673602089</v>
       </c>
       <c r="O8" t="n">
-        <v>2.772770719288494</v>
+        <v>1.204524816455662</v>
       </c>
       <c r="P8" t="n">
-        <v>1.941299409279226</v>
+        <v>10.6739691296064</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.010573749989351</v>
+        <v>1.11639173410443</v>
       </c>
       <c r="R8" t="n">
-        <v>95.57382678870472</v>
+        <v>9.591675411440852</v>
       </c>
       <c r="S8" t="n">
-        <v>2.062361231869593</v>
+        <v>1.103370187210912</v>
       </c>
       <c r="T8" t="n">
-        <v>1.210776929612063</v>
+        <v>3.106584761435327</v>
       </c>
       <c r="U8" t="n">
-        <v>5.744352248799294</v>
+        <v>1.474702000273963</v>
       </c>
       <c r="V8" t="n">
-        <v>4.192088997420691</v>
+        <v>2.958738276400109</v>
       </c>
       <c r="W8" t="n">
-        <v>1.313274473489941</v>
+        <v>1.510532730201128</v>
       </c>
       <c r="X8" t="n">
-        <v>1.43315006424573</v>
+        <v>5.659286079737872</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.308668709864698</v>
+        <v>1.214625155632483</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.483710876485583</v>
+        <v>5.294126295081511</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.133623548063846</v>
+        <v>1.232876243333923</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.823128472648564</v>
+        <v>11.62486514115118</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.21487718288048</v>
+        <v>1.094118841671401</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.46343094711154</v>
+        <v>10.67024396111945</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.054161114630563</v>
+        <v>1.103410007443518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>BEL A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>américa-mg</t>
+          <t>eupen</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>standard liege</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.48320378971514</v>
+        <v>1.905985621135294</v>
       </c>
       <c r="F9" t="n">
-        <v>8.120422923016525</v>
+        <v>6.881466072976604</v>
       </c>
       <c r="G9" t="n">
-        <v>4.934920244202683</v>
+        <v>3.030126739906647</v>
       </c>
       <c r="H9" t="n">
-        <v>1.889643767423325</v>
+        <v>2.655700454063167</v>
       </c>
       <c r="I9" t="n">
-        <v>1.126889707946578</v>
+        <v>1.26091783392634</v>
       </c>
       <c r="J9" t="n">
-        <v>8.880859812688733</v>
+        <v>4.832624182685457</v>
       </c>
       <c r="K9" t="n">
-        <v>2.124045417522904</v>
+        <v>1.6039739842711</v>
       </c>
       <c r="L9" t="n">
-        <v>2.618805786962221</v>
+        <v>4.065936053182009</v>
       </c>
       <c r="M9" t="n">
-        <v>1.059100781434581</v>
+        <v>1.132149387814104</v>
       </c>
       <c r="N9" t="n">
-        <v>17.9202500496022</v>
+        <v>8.567193587054042</v>
       </c>
       <c r="O9" t="n">
-        <v>1.617739328617397</v>
+        <v>1.326164663141667</v>
       </c>
       <c r="P9" t="n">
-        <v>3.969510822631373</v>
+        <v>6.860181976463524</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.025331584512181</v>
+        <v>1.062952528077121</v>
       </c>
       <c r="R9" t="n">
-        <v>40.4764093623574</v>
+        <v>16.88498556841009</v>
       </c>
       <c r="S9" t="n">
-        <v>1.336755802463744</v>
+        <v>1.170643165010291</v>
       </c>
       <c r="T9" t="n">
-        <v>2.070397589520527</v>
+        <v>2.656271689598715</v>
       </c>
       <c r="U9" t="n">
-        <v>1.934232298157491</v>
+        <v>1.603765678227756</v>
       </c>
       <c r="V9" t="n">
-        <v>6.282698277006218</v>
+        <v>4.065325078976227</v>
       </c>
       <c r="W9" t="n">
-        <v>1.189297201460977</v>
+        <v>1.326229673602509</v>
       </c>
       <c r="X9" t="n">
-        <v>3.21768506228214</v>
+        <v>4.563551622227985</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.450920654608611</v>
+        <v>1.280618917869018</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.49853869565908</v>
+        <v>8.141885532446649</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.074082093072903</v>
+        <v>1.140019046154808</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.576450327165254</v>
+        <v>8.80884469547283</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.218509964822326</v>
+        <v>1.128059916543064</v>
       </c>
       <c r="AD9" t="n">
-        <v>38.12857338305443</v>
+        <v>18.47672990974116</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.026933434519097</v>
+        <v>1.057218942282939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1427,100 +1427,100 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>internacional</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>red bull bragantino</t>
+          <t>são paulo</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.598023531267418</v>
+        <v>2.424563913354495</v>
       </c>
       <c r="F10" t="n">
-        <v>7.521367106607318</v>
+        <v>6.759441299573457</v>
       </c>
       <c r="G10" t="n">
-        <v>2.074097278170901</v>
+        <v>2.27472554156536</v>
       </c>
       <c r="H10" t="n">
-        <v>3.780686902778115</v>
+        <v>3.617402937246984</v>
       </c>
       <c r="I10" t="n">
-        <v>1.541879865286108</v>
+        <v>1.428838644111492</v>
       </c>
       <c r="J10" t="n">
-        <v>2.845427490597032</v>
+        <v>3.33187939970264</v>
       </c>
       <c r="K10" t="n">
-        <v>1.359623371836982</v>
+        <v>1.3820581026213</v>
       </c>
       <c r="L10" t="n">
-        <v>5.975953286605371</v>
+        <v>5.957000521450565</v>
       </c>
       <c r="M10" t="n">
-        <v>1.310543463610797</v>
+        <v>1.228401828383071</v>
       </c>
       <c r="N10" t="n">
-        <v>4.220161159963416</v>
+        <v>5.378248664116736</v>
       </c>
       <c r="O10" t="n">
-        <v>1.200966516846505</v>
+        <v>1.201734899093246</v>
       </c>
       <c r="P10" t="n">
-        <v>10.27967878217047</v>
+        <v>10.84314664546877</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.17282518855953</v>
+        <v>1.116487985212165</v>
       </c>
       <c r="R10" t="n">
-        <v>6.786193600220184</v>
+        <v>9.584576325006006</v>
       </c>
       <c r="S10" t="n">
-        <v>1.107762350774614</v>
+        <v>1.101593528575574</v>
       </c>
       <c r="T10" t="n">
-        <v>2.246598049377581</v>
+        <v>3.164457846280171</v>
       </c>
       <c r="U10" t="n">
-        <v>1.802183190082235</v>
+        <v>1.462009459652262</v>
       </c>
       <c r="V10" t="n">
-        <v>1.939700416371151</v>
+        <v>2.990012798765463</v>
       </c>
       <c r="W10" t="n">
-        <v>2.064168944248964</v>
+        <v>1.50250933090499</v>
       </c>
       <c r="X10" t="n">
-        <v>3.612185367999838</v>
+        <v>5.803602882103771</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.38282122404112</v>
+        <v>1.2081770755292</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.931170980580649</v>
+        <v>5.370941591194219</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.51782054000176</v>
+        <v>1.228783656595782</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.494419558027894</v>
+        <v>12.00631714972031</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.182002846604406</v>
+        <v>1.090856913025209</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.927120247257121</v>
+        <v>10.86977447959752</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.254639516245637</v>
+        <v>1.101319437649479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>são paulo</t>
+          <t>vasco da gama</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1539,91 +1539,91 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.186919336298595</v>
+        <v>2.048393833107445</v>
       </c>
       <c r="F11" t="n">
-        <v>15.15560903444423</v>
+        <v>6.74002240155399</v>
       </c>
       <c r="G11" t="n">
-        <v>10.92889116652482</v>
+        <v>2.751446664931702</v>
       </c>
       <c r="H11" t="n">
-        <v>1.330349437137325</v>
+        <v>2.924099271307483</v>
       </c>
       <c r="I11" t="n">
-        <v>1.051050977705808</v>
+        <v>1.30469425013428</v>
       </c>
       <c r="J11" t="n">
-        <v>20.58826343665159</v>
+        <v>4.281978572156499</v>
       </c>
       <c r="K11" t="n">
-        <v>4.027097635357263</v>
+        <v>1.519723703923275</v>
       </c>
       <c r="L11" t="n">
-        <v>1.563505122324936</v>
+        <v>4.599264758460975</v>
       </c>
       <c r="M11" t="n">
-        <v>1.024101691762161</v>
+        <v>1.156327844455332</v>
       </c>
       <c r="N11" t="n">
-        <v>42.4908633745768</v>
+        <v>7.396813078848089</v>
       </c>
       <c r="O11" t="n">
-        <v>2.774606761113636</v>
+        <v>1.277834520966886</v>
       </c>
       <c r="P11" t="n">
-        <v>1.940583306779027</v>
+        <v>7.989608168334978</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.010525151303928</v>
+        <v>1.075808759036941</v>
       </c>
       <c r="R11" t="n">
-        <v>96.01051064479877</v>
+        <v>14.19108784662609</v>
       </c>
       <c r="S11" t="n">
-        <v>2.063170048620617</v>
+        <v>1.14306953636261</v>
       </c>
       <c r="T11" t="n">
-        <v>1.211310262899675</v>
+        <v>2.877187062258406</v>
       </c>
       <c r="U11" t="n">
-        <v>5.732377813919877</v>
+        <v>1.532711960414281</v>
       </c>
       <c r="V11" t="n">
-        <v>4.209776014592616</v>
+        <v>3.779975216925728</v>
       </c>
       <c r="W11" t="n">
-        <v>1.311548218770935</v>
+        <v>1.359715436997983</v>
       </c>
       <c r="X11" t="n">
-        <v>1.434194404499859</v>
+        <v>5.094925623009719</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.303115815487955</v>
+        <v>1.244204679660338</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.53163835516218</v>
+        <v>7.38348236387639</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.132773236425326</v>
+        <v>1.156654306066375</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.825096936630737</v>
+        <v>10.15609690618808</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.211978805888525</v>
+        <v>1.109216843186113</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.60252795598096</v>
+        <v>16.32248150316128</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.053756134777289</v>
+        <v>1.065263580170985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1633,100 +1633,100 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>grêmio</t>
+          <t>américa-mg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cuiabá</t>
+          <t>red bull bragantino</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.471537219727097</v>
+        <v>5.477535473460966</v>
       </c>
       <c r="F12" t="n">
-        <v>9.051074959227938</v>
+        <v>10.10589195195956</v>
       </c>
       <c r="G12" t="n">
-        <v>4.762938701709701</v>
+        <v>1.391819505130702</v>
       </c>
       <c r="H12" t="n">
-        <v>1.81547376894095</v>
+        <v>9.193878912806202</v>
       </c>
       <c r="I12" t="n">
-        <v>1.143830466332151</v>
+        <v>2.497468488199661</v>
       </c>
       <c r="J12" t="n">
-        <v>7.952629894772608</v>
+        <v>1.667793685062618</v>
       </c>
       <c r="K12" t="n">
-        <v>2.226281013672202</v>
+        <v>1.122042320937536</v>
       </c>
       <c r="L12" t="n">
-        <v>2.395489408381051</v>
+        <v>16.83053004504757</v>
       </c>
       <c r="M12" t="n">
-        <v>1.073747746766163</v>
+        <v>1.892149247009648</v>
       </c>
       <c r="N12" t="n">
-        <v>14.55973631534481</v>
+        <v>2.120888689142373</v>
       </c>
       <c r="O12" t="n">
-        <v>1.716594475023733</v>
+        <v>1.063169078808756</v>
       </c>
       <c r="P12" t="n">
-        <v>3.398283712867297</v>
+        <v>33.61127120254464</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.035419930535288</v>
+        <v>1.532473712047996</v>
       </c>
       <c r="R12" t="n">
-        <v>29.23269229745432</v>
+        <v>2.878026984945055</v>
       </c>
       <c r="S12" t="n">
-        <v>1.416964846416956</v>
+        <v>1.030664244695925</v>
       </c>
       <c r="T12" t="n">
-        <v>1.542337415391171</v>
+        <v>3.01855446033478</v>
       </c>
       <c r="U12" t="n">
-        <v>2.843870571383558</v>
+        <v>1.495404022854131</v>
       </c>
       <c r="V12" t="n">
-        <v>3.357404147564725</v>
+        <v>1.369834722788878</v>
       </c>
       <c r="W12" t="n">
-        <v>1.424195401977651</v>
+        <v>3.703910526461994</v>
       </c>
       <c r="X12" t="n">
-        <v>2.093904807217618</v>
+        <v>5.441246609038988</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.914156326402415</v>
+        <v>1.225162006983527</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.2901725856596</v>
+        <v>1.746486517472889</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.189029749749708</v>
+        <v>2.33960892339401</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.125599771254127</v>
+        <v>11.05300082980937</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.470455451455938</v>
+        <v>1.099472785979961</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.30898440680594</v>
+        <v>2.426424315712062</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.081241471022343</v>
+        <v>1.701053668943386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>13/09/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1736,100 +1736,100 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fluminense</t>
+          <t>flamengo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fortaleza</t>
+          <t>athletico-pr</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.187317737044235</v>
+        <v>1.278342236815414</v>
       </c>
       <c r="F13" t="n">
-        <v>15.14210394376717</v>
+        <v>12.09419657442774</v>
       </c>
       <c r="G13" t="n">
-        <v>10.90221900861936</v>
+        <v>7.404523251276817</v>
       </c>
       <c r="H13" t="n">
-        <v>1.330905569434407</v>
+        <v>1.477943993265519</v>
       </c>
       <c r="I13" t="n">
-        <v>1.051223752232421</v>
+        <v>1.083323045480209</v>
       </c>
       <c r="J13" t="n">
-        <v>20.52219344382708</v>
+        <v>13.00148163376394</v>
       </c>
       <c r="K13" t="n">
-        <v>4.022010181663696</v>
+        <v>3.092295361152196</v>
       </c>
       <c r="L13" t="n">
-        <v>1.564254075397998</v>
+        <v>1.800984237478155</v>
       </c>
       <c r="M13" t="n">
-        <v>1.024203130491918</v>
+        <v>1.041841572677878</v>
       </c>
       <c r="N13" t="n">
-        <v>42.31696932072263</v>
+        <v>24.8996752750816</v>
       </c>
       <c r="O13" t="n">
-        <v>2.772251266939718</v>
+        <v>2.248464018653394</v>
       </c>
       <c r="P13" t="n">
-        <v>1.941566593528469</v>
+        <v>2.327512997859859</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.010579478555447</v>
+        <v>1.019605278190066</v>
       </c>
       <c r="R13" t="n">
-        <v>95.52261704194694</v>
+        <v>52.00667230045935</v>
       </c>
       <c r="S13" t="n">
-        <v>2.062059770252209</v>
+        <v>1.75328829292982</v>
       </c>
       <c r="T13" t="n">
-        <v>1.210813788739346</v>
+        <v>1.262374521955896</v>
       </c>
       <c r="U13" t="n">
-        <v>5.743522736249569</v>
+        <v>4.811345676955987</v>
       </c>
       <c r="V13" t="n">
-        <v>4.191137999906818</v>
+        <v>3.283913317544541</v>
       </c>
       <c r="W13" t="n">
-        <v>1.313367833051783</v>
+        <v>1.437844988388224</v>
       </c>
       <c r="X13" t="n">
-        <v>1.433222239212512</v>
+        <v>1.534292257834459</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.308284084902349</v>
+        <v>2.871634831567844</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.481135513635307</v>
+        <v>6.103874290614828</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.133669547647864</v>
+        <v>1.195929590554147</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.823264505852128</v>
+        <v>2.015039062835672</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.214676441036334</v>
+        <v>1.98518375953566</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.45596179918648</v>
+        <v>12.80725823080918</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.054183033692889</v>
+        <v>1.084693667272446</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>14/09/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1839,100 +1839,100 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bahia</t>
+          <t>fortaleza</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vasco da gama</t>
+          <t>corinthians</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.190611035399585</v>
+        <v>1.243587611896694</v>
       </c>
       <c r="F14" t="n">
-        <v>14.97614602681855</v>
+        <v>12.95426798638876</v>
       </c>
       <c r="G14" t="n">
-        <v>10.71555444220902</v>
+        <v>8.42600006546925</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33633533730923</v>
+        <v>1.422677201054249</v>
       </c>
       <c r="I14" t="n">
-        <v>1.052313467606475</v>
+        <v>1.070525145560267</v>
       </c>
       <c r="J14" t="n">
-        <v>20.11553651007108</v>
+        <v>15.17933975259155</v>
       </c>
       <c r="K14" t="n">
-        <v>3.973223117143322</v>
+        <v>3.365871633260046</v>
       </c>
       <c r="L14" t="n">
-        <v>1.573113870208393</v>
+        <v>1.713049884651966</v>
       </c>
       <c r="M14" t="n">
-        <v>1.024776923735377</v>
+        <v>1.034618900067366</v>
       </c>
       <c r="N14" t="n">
-        <v>41.36013553095724</v>
+        <v>29.88595530343486</v>
       </c>
       <c r="O14" t="n">
-        <v>2.744853949593619</v>
+        <v>2.402426424187828</v>
       </c>
       <c r="P14" t="n">
-        <v>1.956115385127771</v>
+        <v>2.18533320060236</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.010859200218768</v>
+        <v>1.015800881775204</v>
       </c>
       <c r="R14" t="n">
-        <v>93.08781308514166</v>
+        <v>64.28760725045655</v>
       </c>
       <c r="S14" t="n">
-        <v>2.045898869064182</v>
+        <v>1.843644638901385</v>
       </c>
       <c r="T14" t="n">
-        <v>1.213445957643777</v>
+        <v>1.248881205790012</v>
       </c>
       <c r="U14" t="n">
-        <v>5.685026650487873</v>
+        <v>5.017981176303556</v>
       </c>
       <c r="V14" t="n">
-        <v>4.154942927692451</v>
+        <v>3.618674861303731</v>
       </c>
       <c r="W14" t="n">
-        <v>1.316962944471204</v>
+        <v>1.381872532087524</v>
       </c>
       <c r="X14" t="n">
-        <v>1.438376490321731</v>
+        <v>1.507813452919128</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.281144226657969</v>
+        <v>2.969227073941376</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.38323925205122</v>
+        <v>6.96182067692632</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.135441906439938</v>
+        <v>1.167733995064669</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.832982350591304</v>
+        <v>1.964544390179003</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.200505628108611</v>
+        <v>2.03675891973662</v>
       </c>
       <c r="AD14" t="n">
-        <v>19.17243299975879</v>
+        <v>15.14677182662931</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.055028404837881</v>
+        <v>1.070687504701082</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>14/09/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1942,300 +1942,300 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>corinthians</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>palmeiras</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.35332782966545</v>
+        <v>3.203599047350063</v>
       </c>
       <c r="F15" t="n">
-        <v>9.051139223958181</v>
+        <v>7.534385120181534</v>
       </c>
       <c r="G15" t="n">
-        <v>1.515593920314922</v>
+        <v>1.801392049959356</v>
       </c>
       <c r="H15" t="n">
-        <v>7.001281680836554</v>
+        <v>4.992395223735421</v>
       </c>
       <c r="I15" t="n">
-        <v>2.145626039286928</v>
+        <v>1.713234955693616</v>
       </c>
       <c r="J15" t="n">
-        <v>1.872885187405856</v>
+        <v>2.402062520936747</v>
       </c>
       <c r="K15" t="n">
-        <v>1.166631072024702</v>
+        <v>1.250476203872513</v>
       </c>
       <c r="L15" t="n">
-        <v>12.25801026657795</v>
+        <v>8.537202742580837</v>
       </c>
       <c r="M15" t="n">
-        <v>1.681695277222779</v>
+        <v>1.404860605862751</v>
       </c>
       <c r="N15" t="n">
-        <v>2.466931095773453</v>
+        <v>3.469985929772096</v>
       </c>
       <c r="O15" t="n">
-        <v>1.088825642926329</v>
+        <v>1.132675215746895</v>
       </c>
       <c r="P15" t="n">
-        <v>23.37916035137073</v>
+        <v>16.03408723752135</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.403199681411778</v>
+        <v>1.224694910253183</v>
       </c>
       <c r="R15" t="n">
-        <v>3.480160689856106</v>
+        <v>5.450479091285214</v>
       </c>
       <c r="S15" t="n">
-        <v>1.044684428919548</v>
+        <v>1.066515511331093</v>
       </c>
       <c r="T15" t="n">
-        <v>2.699614224813995</v>
+        <v>3.025219852271958</v>
       </c>
       <c r="U15" t="n">
-        <v>1.588368810639626</v>
+        <v>1.493773551981612</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45809347148194</v>
+        <v>1.974188502434834</v>
       </c>
       <c r="W15" t="n">
-        <v>3.182960601392078</v>
+        <v>2.026495383081051</v>
       </c>
       <c r="X15" t="n">
-        <v>4.666832967329757</v>
+        <v>5.457692701052919</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.272714903817453</v>
+        <v>1.224331300307847</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.92307876622628</v>
+        <v>3.006257598067494</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.083331170197087</v>
+        <v>1.498440479908083</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.067843087740565</v>
+        <v>11.09594497941952</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.12394886577796</v>
+        <v>1.099049668162662</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.777926972316726</v>
+        <v>5.095803929965438</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.562452797876704</v>
+        <v>1.244152312244214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04/09/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ING C</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cambridge utd fc</t>
+          <t>palmeiras</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>goiás</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.187076313988499</v>
+        <v>1.243509787050745</v>
       </c>
       <c r="F16" t="n">
-        <v>15.15315124339484</v>
+        <v>12.95549687845695</v>
       </c>
       <c r="G16" t="n">
-        <v>10.91687534612468</v>
+        <v>8.429054329410119</v>
       </c>
       <c r="H16" t="n">
-        <v>1.330526933056074</v>
+        <v>1.422573306149743</v>
       </c>
       <c r="I16" t="n">
-        <v>1.051136027183571</v>
+        <v>1.07048820795465</v>
       </c>
       <c r="J16" t="n">
-        <v>20.55568422259607</v>
+        <v>15.18677008562015</v>
       </c>
       <c r="K16" t="n">
-        <v>4.025472056857618</v>
+        <v>3.366453312234632</v>
       </c>
       <c r="L16" t="n">
-        <v>1.563666913744709</v>
+        <v>1.712917153229575</v>
       </c>
       <c r="M16" t="n">
-        <v>1.024154946217296</v>
+        <v>1.034596087433808</v>
       </c>
       <c r="N16" t="n">
-        <v>42.39938839043873</v>
+        <v>29.90500268023917</v>
       </c>
       <c r="O16" t="n">
-        <v>2.774097389106133</v>
+        <v>2.402687528936448</v>
       </c>
       <c r="P16" t="n">
-        <v>1.940650304616354</v>
+        <v>2.185171508048879</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.010555063338169</v>
+        <v>1.015787979143835</v>
       </c>
       <c r="R16" t="n">
-        <v>95.74125999640526</v>
+        <v>64.33932866832421</v>
       </c>
       <c r="S16" t="n">
-        <v>2.063094324312</v>
+        <v>1.843759737058037</v>
       </c>
       <c r="T16" t="n">
-        <v>1.210777955168544</v>
+        <v>1.249002760779543</v>
       </c>
       <c r="U16" t="n">
-        <v>5.744329164785619</v>
+        <v>5.016019729537689</v>
       </c>
       <c r="V16" t="n">
-        <v>4.196567661092795</v>
+        <v>3.621347012687762</v>
       </c>
       <c r="W16" t="n">
-        <v>1.312835549258524</v>
+        <v>1.381483258477352</v>
       </c>
       <c r="X16" t="n">
-        <v>1.433152072418167</v>
+        <v>1.508051872744087</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.308658006453206</v>
+        <v>2.968302950245623</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.495841594558948</v>
+        <v>6.968763317088036</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.133407301553154</v>
+        <v>1.16753889321379</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.823132257574437</v>
+        <v>1.964998239244813</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.214871596633508</v>
+        <v>2.036271320849848</v>
       </c>
       <c r="AD16" t="n">
-        <v>19.49861993650461</v>
+        <v>15.16599657482472</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.054058086680652</v>
+        <v>1.070591574317981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ING C</t>
+          <t>BRA A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>exeter city</t>
+          <t>atlético mineiro</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>leyton orient</t>
+          <t>botafogo</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.186950916705289</v>
+        <v>3.856432549257272</v>
       </c>
       <c r="F17" t="n">
-        <v>15.15760706516327</v>
+        <v>8.917840313336137</v>
       </c>
       <c r="G17" t="n">
-        <v>10.92517616917338</v>
+        <v>1.590942534411954</v>
       </c>
       <c r="H17" t="n">
-        <v>1.330348999627553</v>
+        <v>5.959395744211424</v>
       </c>
       <c r="I17" t="n">
-        <v>1.051082826154511</v>
+        <v>2.018454962385572</v>
       </c>
       <c r="J17" t="n">
-        <v>20.57605080375313</v>
+        <v>1.981879451652583</v>
       </c>
       <c r="K17" t="n">
-        <v>4.027101644404662</v>
+        <v>1.201637467864344</v>
       </c>
       <c r="L17" t="n">
-        <v>1.563421929162684</v>
+        <v>9.961541686862704</v>
       </c>
       <c r="M17" t="n">
-        <v>1.024123942295256</v>
+        <v>1.614982770379844</v>
       </c>
       <c r="N17" t="n">
-        <v>42.45259459506558</v>
+        <v>2.626061815329147</v>
       </c>
       <c r="O17" t="n">
-        <v>2.774868794131115</v>
+        <v>1.111587942671288</v>
       </c>
       <c r="P17" t="n">
-        <v>1.940318584035024</v>
+        <v>18.03116108887746</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.010538555569908</v>
+        <v>1.3680558939099</v>
       </c>
       <c r="R17" t="n">
-        <v>95.88966427765895</v>
+        <v>3.716978634350564</v>
       </c>
       <c r="S17" t="n">
-        <v>2.063469357065002</v>
+        <v>1.058715902854859</v>
       </c>
       <c r="T17" t="n">
-        <v>1.210910807693671</v>
+        <v>2.226274183006438</v>
       </c>
       <c r="U17" t="n">
-        <v>5.741340716178035</v>
+        <v>1.81547831134169</v>
       </c>
       <c r="V17" t="n">
-        <v>4.202028663041529</v>
+        <v>1.408134925272668</v>
       </c>
       <c r="W17" t="n">
-        <v>1.312302013889571</v>
+        <v>3.450170122862966</v>
       </c>
       <c r="X17" t="n">
-        <v>1.433412215155218</v>
+        <v>3.566212276604236</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.307272303439511</v>
+        <v>1.389679376533596</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.510637954903578</v>
+        <v>1.822834168413668</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.133144482000642</v>
+        <v>2.215311709682509</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.823622572814919</v>
+        <v>6.386090325081632</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.214148364805339</v>
+        <v>1.18566342924909</v>
       </c>
       <c r="AD17" t="n">
-        <v>19.54155730964125</v>
+        <v>2.577385479207724</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.053932902360905</v>
+        <v>1.633960444787581</v>
       </c>
     </row>
     <row r="18">
@@ -2251,94 +2251,94 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>port vale fc</t>
+          <t>barnsley fc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>burton albion</t>
+          <t>portsmouth</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.186821751666223</v>
+        <v>2.222709554410091</v>
       </c>
       <c r="F18" t="n">
-        <v>15.16005650164152</v>
+        <v>6.893441701635143</v>
       </c>
       <c r="G18" t="n">
-        <v>10.93485662289476</v>
+        <v>2.468933134101469</v>
       </c>
       <c r="H18" t="n">
-        <v>1.330196815072175</v>
+        <v>3.208448280045695</v>
       </c>
       <c r="I18" t="n">
-        <v>1.051015359036952</v>
+        <v>1.374298413937422</v>
       </c>
       <c r="J18" t="n">
-        <v>20.60193986433902</v>
+        <v>3.671665074613938</v>
       </c>
       <c r="K18" t="n">
-        <v>4.028496806613405</v>
+        <v>1.452806619487285</v>
       </c>
       <c r="L18" t="n">
-        <v>1.563269168001074</v>
+        <v>5.08360286849619</v>
       </c>
       <c r="M18" t="n">
-        <v>1.024082095637518</v>
+        <v>1.199661874253392</v>
       </c>
       <c r="N18" t="n">
-        <v>42.5246253919057</v>
+        <v>6.008467458994669</v>
       </c>
       <c r="O18" t="n">
-        <v>2.775350146624913</v>
+        <v>1.244881794876458</v>
       </c>
       <c r="P18" t="n">
-        <v>1.940216284198627</v>
+        <v>8.860080428339007</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.010515209632332</v>
+        <v>1.10166271865121</v>
       </c>
       <c r="R18" t="n">
-        <v>96.10033893430307</v>
+        <v>10.83644755193742</v>
       </c>
       <c r="S18" t="n">
-        <v>2.063585067400027</v>
+        <v>1.127225161258473</v>
       </c>
       <c r="T18" t="n">
-        <v>1.211299467105636</v>
+        <v>2.720087294914452</v>
       </c>
       <c r="U18" t="n">
-        <v>5.732619602396185</v>
+        <v>1.581365842859583</v>
       </c>
       <c r="V18" t="n">
-        <v>4.212052986806177</v>
+        <v>2.972092753115126</v>
       </c>
       <c r="W18" t="n">
-        <v>1.311327367296741</v>
+        <v>1.507075541158191</v>
       </c>
       <c r="X18" t="n">
-        <v>1.434173264750902</v>
+        <v>4.715785736752515</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.303227953415623</v>
+        <v>1.269122083684505</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.537812507776675</v>
+        <v>5.326898617147982</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.132664483093512</v>
+        <v>1.231112417572459</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.825057087960328</v>
+        <v>9.191095077106132</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.212037342133692</v>
+        <v>1.122083798391618</v>
       </c>
       <c r="AD18" t="n">
-        <v>19.62046007970612</v>
+        <v>10.75528611009643</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.053704365827667</v>
+        <v>1.10250852601494</v>
       </c>
     </row>
     <row r="19">
@@ -2354,94 +2354,94 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>shrewsbury town</t>
+          <t>peterborough united</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>bolton wanderers fc</t>
+          <t>cheltenham town</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.325403253216502</v>
+        <v>1.244658589604496</v>
       </c>
       <c r="F19" t="n">
-        <v>9.062728104668476</v>
+        <v>12.92993460604138</v>
       </c>
       <c r="G19" t="n">
-        <v>1.518682145658913</v>
+        <v>8.38736788057318</v>
       </c>
       <c r="H19" t="n">
-        <v>6.934241489622611</v>
+        <v>1.424262021452304</v>
       </c>
       <c r="I19" t="n">
-        <v>2.14113195308106</v>
+        <v>1.070967163444247</v>
       </c>
       <c r="J19" t="n">
-        <v>1.87632284531162</v>
+        <v>15.09102395343194</v>
       </c>
       <c r="K19" t="n">
-        <v>1.168513533153096</v>
+        <v>3.357033977674619</v>
       </c>
       <c r="L19" t="n">
-        <v>12.09380696594152</v>
+        <v>1.715374365813044</v>
       </c>
       <c r="M19" t="n">
-        <v>1.680266185915498</v>
+        <v>1.034879127891289</v>
       </c>
       <c r="N19" t="n">
-        <v>2.470012798966638</v>
+        <v>29.67044162104051</v>
       </c>
       <c r="O19" t="n">
-        <v>1.090140382203336</v>
+        <v>2.397869490142368</v>
       </c>
       <c r="P19" t="n">
-        <v>22.9623110480969</v>
+        <v>2.188767322592804</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.403062517953976</v>
+        <v>1.015942593528796</v>
       </c>
       <c r="R19" t="n">
-        <v>3.481004696433191</v>
+        <v>63.72505149138534</v>
       </c>
       <c r="S19" t="n">
-        <v>1.045532548820114</v>
+        <v>1.841207510498281</v>
       </c>
       <c r="T19" t="n">
-        <v>2.647608850215162</v>
+        <v>1.248390288440662</v>
       </c>
       <c r="U19" t="n">
-        <v>1.606940172644381</v>
+        <v>5.025922294618577</v>
       </c>
       <c r="V19" t="n">
-        <v>1.448985142529196</v>
+        <v>3.596062986671456</v>
       </c>
       <c r="W19" t="n">
-        <v>3.227245192049921</v>
+        <v>1.385198666262775</v>
       </c>
       <c r="X19" t="n">
-        <v>4.542966929717571</v>
+        <v>1.506850580001245</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.282249318110264</v>
+        <v>2.972968049079758</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.904745070143642</v>
+        <v>6.903130128970252</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.105283723558985</v>
+        <v>1.169401652708347</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.757395039619666</v>
+        <v>1.962711642938559</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.128909253027938</v>
+        <v>2.038732633322708</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.741054604035804</v>
+        <v>14.98443454442259</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.57436452462891</v>
+        <v>1.071508075412233</v>
       </c>
     </row>
     <row r="20">
@@ -2457,94 +2457,94 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>stevenage f.c.</t>
+          <t>exeter city</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>carlisle utd</t>
+          <t>leyton orient</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.186983092909959</v>
+        <v>1.24397307314811</v>
       </c>
       <c r="F20" t="n">
-        <v>15.15654814173189</v>
+        <v>12.94024451930759</v>
       </c>
       <c r="G20" t="n">
-        <v>10.92300083604315</v>
+        <v>8.414265491840572</v>
       </c>
       <c r="H20" t="n">
-        <v>1.33039342510603</v>
+        <v>1.423355818449651</v>
       </c>
       <c r="I20" t="n">
-        <v>1.051096978630234</v>
+        <v>1.070637780983489</v>
       </c>
       <c r="J20" t="n">
-        <v>20.57062876919901</v>
+        <v>15.15673009651501</v>
       </c>
       <c r="K20" t="n">
-        <v>4.02669461318451</v>
+        <v>3.362079263873229</v>
       </c>
       <c r="L20" t="n">
-        <v>1.563480847559982</v>
+        <v>1.714233707851821</v>
       </c>
       <c r="M20" t="n">
-        <v>1.024132289970709</v>
+        <v>1.03467484587526</v>
       </c>
       <c r="N20" t="n">
-        <v>42.43825559918958</v>
+        <v>29.83934952724598</v>
       </c>
       <c r="O20" t="n">
-        <v>2.774683211204533</v>
+        <v>2.400101940032583</v>
       </c>
       <c r="P20" t="n">
-        <v>1.940394222374801</v>
+        <v>2.18741190899843</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.010543042337352</v>
+        <v>1.015826649977673</v>
       </c>
       <c r="R20" t="n">
-        <v>95.84928239898757</v>
+        <v>64.18456536352808</v>
       </c>
       <c r="S20" t="n">
-        <v>2.063383819473791</v>
+        <v>1.842167736757406</v>
       </c>
       <c r="T20" t="n">
-        <v>1.210866749168126</v>
+        <v>1.249525787500123</v>
       </c>
       <c r="U20" t="n">
-        <v>5.742331372513778</v>
+        <v>5.007601819509372</v>
       </c>
       <c r="V20" t="n">
-        <v>4.200452987089847</v>
+        <v>3.620210147656575</v>
       </c>
       <c r="W20" t="n">
-        <v>1.312455769240745</v>
+        <v>1.381648777635017</v>
       </c>
       <c r="X20" t="n">
-        <v>1.433325942698356</v>
+        <v>1.509077767860495</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.307731666774712</v>
+        <v>2.964336419959385</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.50636817077368</v>
+        <v>6.965809397435637</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.133220217453966</v>
+        <v>1.167621848668153</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.823459965266318</v>
+        <v>1.966951271411813</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.214388121074697</v>
+        <v>2.03417827719481</v>
       </c>
       <c r="AD20" t="n">
-        <v>19.52916509040461</v>
+        <v>15.15781637111612</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.053968972434589</v>
+        <v>1.070632361219216</v>
       </c>
     </row>
     <row r="21">
@@ -2560,94 +2560,94 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>wigan fc</t>
+          <t>wycombe wanderers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>charlton athletic</t>
+          <t>cambridge utd fc</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.432083957345671</v>
+        <v>5.454580162581523</v>
       </c>
       <c r="F21" t="n">
-        <v>8.836141187275548</v>
+        <v>10.08997766763227</v>
       </c>
       <c r="G21" t="n">
-        <v>5.303763949766493</v>
+        <v>1.393612487846326</v>
       </c>
       <c r="H21" t="n">
-        <v>1.777373158242569</v>
+        <v>9.145753193605998</v>
       </c>
       <c r="I21" t="n">
-        <v>1.118782070375414</v>
+        <v>2.491261764918467</v>
       </c>
       <c r="J21" t="n">
-        <v>9.418779002920818</v>
+        <v>1.670573083495287</v>
       </c>
       <c r="K21" t="n">
-        <v>2.286383494717943</v>
+        <v>1.12276335609885</v>
       </c>
       <c r="L21" t="n">
-        <v>2.377940862548808</v>
+        <v>16.72289127980258</v>
       </c>
       <c r="M21" t="n">
-        <v>1.056831268824989</v>
+        <v>1.888690647525167</v>
       </c>
       <c r="N21" t="n">
-        <v>18.59594710228076</v>
+        <v>2.125250955194374</v>
       </c>
       <c r="O21" t="n">
-        <v>1.725720549538155</v>
+        <v>1.063601533725835</v>
       </c>
       <c r="P21" t="n">
-        <v>3.449581919659218</v>
+        <v>33.35373376378178</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.025139911983457</v>
+        <v>1.530487290756354</v>
       </c>
       <c r="R21" t="n">
-        <v>40.77738667732965</v>
+        <v>2.885059298167591</v>
       </c>
       <c r="S21" t="n">
-        <v>1.408232928229287</v>
+        <v>1.030908333711995</v>
       </c>
       <c r="T21" t="n">
-        <v>1.762206277404765</v>
+        <v>3.005095633089699</v>
       </c>
       <c r="U21" t="n">
-        <v>2.311980797908013</v>
+        <v>1.498729329163755</v>
       </c>
       <c r="V21" t="n">
-        <v>5.113015035870005</v>
+        <v>1.369874925183767</v>
       </c>
       <c r="W21" t="n">
-        <v>1.243130645348705</v>
+        <v>3.703616633388069</v>
       </c>
       <c r="X21" t="n">
-        <v>2.5507644119697</v>
+        <v>5.408070329078555</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.644843273601986</v>
+        <v>1.226856634614774</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.05058359874083</v>
+        <v>1.746566438137538</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.099496709835366</v>
+        <v>2.33946551695346</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.089752120647562</v>
+        <v>10.96646622859442</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.323650558670194</v>
+        <v>1.100336466011487</v>
       </c>
       <c r="AD21" t="n">
-        <v>27.1508376323711</v>
+        <v>2.426581531092583</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.03823969289466</v>
+        <v>1.700976409833461</v>
       </c>
     </row>
     <row r="22">
@@ -2672,85 +2672,85 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.610293501568773</v>
+        <v>1.457788519116426</v>
       </c>
       <c r="F22" t="n">
-        <v>7.835203568268989</v>
+        <v>9.67257513946759</v>
       </c>
       <c r="G22" t="n">
-        <v>3.978261290609746</v>
+        <v>4.747338120391349</v>
       </c>
       <c r="H22" t="n">
-        <v>2.08711695627754</v>
+        <v>1.767311729048683</v>
       </c>
       <c r="I22" t="n">
-        <v>1.177887943571472</v>
+        <v>1.150094046796831</v>
       </c>
       <c r="J22" t="n">
-        <v>6.621516444132799</v>
+        <v>7.662489428069112</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91986422824657</v>
+        <v>2.3032512890684</v>
       </c>
       <c r="L22" t="n">
-        <v>2.931827073051386</v>
+        <v>2.272771582766983</v>
       </c>
       <c r="M22" t="n">
-        <v>1.089287832916314</v>
+        <v>1.080512830649328</v>
       </c>
       <c r="N22" t="n">
-        <v>12.19973424528358</v>
+        <v>13.42038060188795</v>
       </c>
       <c r="O22" t="n">
-        <v>1.517644676353183</v>
+        <v>1.785686931999233</v>
       </c>
       <c r="P22" t="n">
-        <v>4.483986766173949</v>
+        <v>3.115745874820113</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.04188087769302</v>
+        <v>1.04077979417908</v>
       </c>
       <c r="R22" t="n">
-        <v>24.87724553744616</v>
+        <v>25.52194818857128</v>
       </c>
       <c r="S22" t="n">
-        <v>1.287027496691149</v>
+        <v>1.472646555477756</v>
       </c>
       <c r="T22" t="n">
-        <v>1.95717238901914</v>
+        <v>1.354746405010968</v>
       </c>
       <c r="U22" t="n">
-        <v>2.044743884667158</v>
+        <v>3.818915106325271</v>
       </c>
       <c r="V22" t="n">
-        <v>4.069556426259478</v>
+        <v>2.532447143348993</v>
       </c>
       <c r="W22" t="n">
-        <v>1.325779969850102</v>
+        <v>1.652551054919004</v>
       </c>
       <c r="X22" t="n">
-        <v>2.969163641170635</v>
+        <v>1.71652285968408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.507829811140285</v>
+        <v>2.395628885365789</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.153247752943543</v>
+        <v>4.271185749179551</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.139796639867325</v>
+        <v>1.305699546487328</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.012336770116553</v>
+        <v>2.367601822232538</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.249231322616758</v>
+        <v>1.731206981259759</v>
       </c>
       <c r="AD22" t="n">
-        <v>18.50937474370872</v>
+        <v>8.083547919246898</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.057112262124569</v>
+        <v>1.141172193849762</v>
       </c>
     </row>
     <row r="23">
@@ -2766,94 +2766,94 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>barnsley fc</t>
+          <t>stevenage f.c.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>portsmouth</t>
+          <t>carlisle utd</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.120804699527166</v>
+        <v>1.244371769392363</v>
       </c>
       <c r="F23" t="n">
-        <v>8.924621879384302</v>
+        <v>12.92047708875387</v>
       </c>
       <c r="G23" t="n">
-        <v>1.549716327719668</v>
+        <v>8.404412418046125</v>
       </c>
       <c r="H23" t="n">
-        <v>6.527849033719519</v>
+        <v>1.424167829419184</v>
       </c>
       <c r="I23" t="n">
-        <v>2.080466119017536</v>
+        <v>1.070707128144244</v>
       </c>
       <c r="J23" t="n">
-        <v>1.925526476396406</v>
+        <v>15.14284565425952</v>
       </c>
       <c r="K23" t="n">
-        <v>1.180902190689374</v>
+        <v>3.357557388002069</v>
       </c>
       <c r="L23" t="n">
-        <v>11.235816034594</v>
+        <v>1.715811658536274</v>
       </c>
       <c r="M23" t="n">
-        <v>1.645237352315529</v>
+        <v>1.034694462110592</v>
       </c>
       <c r="N23" t="n">
-        <v>2.549817282603607</v>
+        <v>29.82304377028247</v>
       </c>
       <c r="O23" t="n">
-        <v>1.097696167713478</v>
+        <v>2.397015525068209</v>
       </c>
       <c r="P23" t="n">
-        <v>21.02994287922694</v>
+        <v>2.19042059157798</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.382398584611614</v>
+        <v>1.015827733579079</v>
       </c>
       <c r="R23" t="n">
-        <v>3.615072440750941</v>
+        <v>64.18023960940124</v>
       </c>
       <c r="S23" t="n">
-        <v>1.049925254706398</v>
+        <v>1.84003923241485</v>
       </c>
       <c r="T23" t="n">
-        <v>2.531411682355426</v>
+        <v>1.251030667195397</v>
       </c>
       <c r="U23" t="n">
-        <v>1.652992276029869</v>
+        <v>4.983577031333864</v>
       </c>
       <c r="V23" t="n">
-        <v>1.454428300869684</v>
+        <v>3.631690873754703</v>
       </c>
       <c r="W23" t="n">
-        <v>3.200567169972034</v>
+        <v>1.379983838517201</v>
       </c>
       <c r="X23" t="n">
-        <v>4.268758000776483</v>
+        <v>1.512029732328235</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.305926593453065</v>
+        <v>2.953011586754794</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.915698207990502</v>
+        <v>6.995651900711792</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.092062855724593</v>
+        <v>1.166787534793553</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.07757511102411</v>
+        <v>1.972572550589988</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.141291329913601</v>
+        <v>2.028200928962444</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.763072895802967</v>
+        <v>15.24049605468145</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.567191522472225</v>
+        <v>1.070222272887134</v>
       </c>
     </row>
     <row r="24">
@@ -2869,94 +2869,94 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>peterborough united</t>
+          <t>shrewsbury town</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cheltenham town</t>
+          <t>bolton wanderers fc</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.187236367430198</v>
+        <v>5.341053398041788</v>
       </c>
       <c r="F24" t="n">
-        <v>15.14647705345703</v>
+        <v>10.00715154718102</v>
       </c>
       <c r="G24" t="n">
-        <v>10.9068156279558</v>
+        <v>1.402834465158724</v>
       </c>
       <c r="H24" t="n">
-        <v>1.330768479326885</v>
+        <v>8.910348821437275</v>
       </c>
       <c r="I24" t="n">
-        <v>1.051198050635303</v>
+        <v>2.459839629788817</v>
       </c>
       <c r="J24" t="n">
-        <v>20.53199365193165</v>
+        <v>1.685006749778852</v>
       </c>
       <c r="K24" t="n">
-        <v>4.023262682209028</v>
+        <v>1.126416675493497</v>
       </c>
       <c r="L24" t="n">
-        <v>1.564025843189671</v>
+        <v>16.20185811383547</v>
       </c>
       <c r="M24" t="n">
-        <v>1.024189917428364</v>
+        <v>1.870966703459784</v>
       </c>
       <c r="N24" t="n">
-        <v>42.33953755573597</v>
+        <v>2.148149517114317</v>
       </c>
       <c r="O24" t="n">
-        <v>2.772968405746826</v>
+        <v>1.065781432277011</v>
       </c>
       <c r="P24" t="n">
-        <v>1.941184856389158</v>
+        <v>32.11938651276221</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.010573188759182</v>
+        <v>1.520181447254745</v>
       </c>
       <c r="R24" t="n">
-        <v>95.57884681493393</v>
+        <v>2.922406124396583</v>
       </c>
       <c r="S24" t="n">
-        <v>2.062490533301275</v>
+        <v>1.032134309575476</v>
       </c>
       <c r="T24" t="n">
-        <v>1.210725209700029</v>
+        <v>2.944051895490031</v>
       </c>
       <c r="U24" t="n">
-        <v>5.745516691730979</v>
+        <v>1.514389560443258</v>
       </c>
       <c r="V24" t="n">
-        <v>4.191639444151746</v>
+        <v>1.371068607590766</v>
       </c>
       <c r="W24" t="n">
-        <v>1.313318599264828</v>
+        <v>3.694919428761954</v>
       </c>
       <c r="X24" t="n">
-        <v>1.433048790001653</v>
+        <v>5.258134565499006</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.309208622881001</v>
+        <v>1.234844621422341</v>
       </c>
       <c r="Z24" t="n">
-        <v>8.482493436658203</v>
+        <v>1.748939632796666</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.13364528929632</v>
+        <v>2.335221099550884</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.822937596129349</v>
+        <v>10.57699452011932</v>
       </c>
       <c r="AC24" t="n">
-        <v>2.215158967950251</v>
+        <v>1.104416891739805</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.4599000241923</v>
+        <v>2.431250721535035</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.054171474314025</v>
+        <v>1.698689604101989</v>
       </c>
     </row>
     <row r="25">
@@ -2972,94 +2972,94 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>fleetwood town</t>
+          <t>port vale fc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>blackpool fc</t>
+          <t>burton albion</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.165977802386112</v>
+        <v>1.257427337461437</v>
       </c>
       <c r="F25" t="n">
-        <v>6.900345214292304</v>
+        <v>12.41594051295381</v>
       </c>
       <c r="G25" t="n">
-        <v>2.541977803575548</v>
+        <v>8.052580441441641</v>
       </c>
       <c r="H25" t="n">
-        <v>3.104332609943085</v>
+        <v>1.44847601459313</v>
       </c>
       <c r="I25" t="n">
-        <v>1.355543721068729</v>
+        <v>1.073972230767515</v>
       </c>
       <c r="J25" t="n">
-        <v>3.812593615755885</v>
+        <v>14.51858649690948</v>
       </c>
       <c r="K25" t="n">
-        <v>1.475210047724844</v>
+        <v>3.22977365000719</v>
       </c>
       <c r="L25" t="n">
-        <v>4.881379528326724</v>
+        <v>1.760227502328427</v>
       </c>
       <c r="M25" t="n">
-        <v>1.188761203398989</v>
+        <v>1.036145739640778</v>
       </c>
       <c r="N25" t="n">
-        <v>6.297698796114748</v>
+        <v>28.66577776352521</v>
       </c>
       <c r="O25" t="n">
-        <v>1.257640355111344</v>
+        <v>2.315395716331226</v>
       </c>
       <c r="P25" t="n">
-        <v>8.440443153742345</v>
+        <v>2.271528501807107</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.095487063116194</v>
+        <v>1.016405247800378</v>
       </c>
       <c r="R25" t="n">
-        <v>11.47262285973901</v>
+        <v>61.95610454460737</v>
       </c>
       <c r="S25" t="n">
-        <v>1.134400596757066</v>
+        <v>1.786455040983188</v>
       </c>
       <c r="T25" t="n">
-        <v>2.671749891995169</v>
+        <v>1.283241278226996</v>
       </c>
       <c r="U25" t="n">
-        <v>1.598175603173833</v>
+        <v>4.530558844599549</v>
       </c>
       <c r="V25" t="n">
-        <v>3.059193734167783</v>
+        <v>3.795099079219228</v>
       </c>
       <c r="W25" t="n">
-        <v>1.485626963314429</v>
+        <v>1.357769070668985</v>
       </c>
       <c r="X25" t="n">
-        <v>4.600379310205419</v>
+        <v>1.57529890909437</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.277748513098456</v>
+        <v>2.738226831638165</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.541680918802994</v>
+        <v>7.423283971266805</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.220182795286191</v>
+        <v>1.155683604286108</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.901034294230971</v>
+        <v>2.093601727349518</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.126565708078265</v>
+        <v>1.914409674922174</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.31574173149635</v>
+        <v>16.43429443786231</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.096939224151645</v>
+        <v>1.064790781595229</v>
       </c>
     </row>
     <row r="26">
@@ -3075,94 +3075,94 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lincoln city</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>oxford united</t>
+          <t>bristol rovers</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.842303563550387</v>
+        <v>1.993738537440193</v>
       </c>
       <c r="F26" t="n">
-        <v>7.008390713798031</v>
+        <v>7.167282800155714</v>
       </c>
       <c r="G26" t="n">
-        <v>3.179496773916811</v>
+        <v>2.786238426144414</v>
       </c>
       <c r="H26" t="n">
-        <v>2.532143819036887</v>
+        <v>2.760398664661327</v>
       </c>
       <c r="I26" t="n">
-        <v>1.242895400018249</v>
+        <v>1.30943212119936</v>
       </c>
       <c r="J26" t="n">
-        <v>5.116998510160628</v>
+        <v>4.2317265451434</v>
       </c>
       <c r="K26" t="n">
-        <v>1.652680242921716</v>
+        <v>1.568053146184581</v>
       </c>
       <c r="L26" t="n">
-        <v>3.815331488891667</v>
+        <v>4.16534677972947</v>
       </c>
       <c r="M26" t="n">
-        <v>1.122695278823939</v>
+        <v>1.165055020473407</v>
       </c>
       <c r="N26" t="n">
-        <v>9.150272851451327</v>
+        <v>7.058585780255743</v>
       </c>
       <c r="O26" t="n">
-        <v>1.355197959439469</v>
+        <v>1.315921151642497</v>
       </c>
       <c r="P26" t="n">
-        <v>6.322746649860497</v>
+        <v>6.870463926062956</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.058200243006119</v>
+        <v>1.083705686293096</v>
       </c>
       <c r="R26" t="n">
-        <v>18.18205884286208</v>
+        <v>12.94661968959315</v>
       </c>
       <c r="S26" t="n">
-        <v>1.187872928354801</v>
+        <v>1.170344288389258</v>
       </c>
       <c r="T26" t="n">
-        <v>2.509860522260958</v>
+        <v>2.271843364931227</v>
       </c>
       <c r="U26" t="n">
-        <v>1.662312833044034</v>
+        <v>1.786260342722371</v>
       </c>
       <c r="V26" t="n">
-        <v>4.105333662485354</v>
+        <v>2.954072324921621</v>
       </c>
       <c r="W26" t="n">
-        <v>1.322026586733887</v>
+        <v>1.511751784847631</v>
       </c>
       <c r="X26" t="n">
-        <v>4.218294322559602</v>
+        <v>3.669458057975109</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.31072360069438</v>
+        <v>1.374607871066736</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.249451303802442</v>
+        <v>5.282685919935744</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.137941474201708</v>
+        <v>1.233498327613761</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.953613397542212</v>
+        <v>6.629856992819519</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.14381012328834</v>
+        <v>1.1776244052514</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.7862024060834</v>
+        <v>10.64058687252132</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.05622335657543</v>
+        <v>1.103728124980681</v>
       </c>
     </row>
     <row r="27">
@@ -3173,99 +3173,99 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ING D</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>crawley town</t>
+          <t>wigan fc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>newport county afc</t>
+          <t>charlton athletic</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.918690915650612</v>
+        <v>1.278859737055437</v>
       </c>
       <c r="F27" t="n">
-        <v>6.963793897510975</v>
+        <v>12.0432527924921</v>
       </c>
       <c r="G27" t="n">
-        <v>2.983191850489623</v>
+        <v>7.406344584776186</v>
       </c>
       <c r="H27" t="n">
-        <v>2.664523711480822</v>
+        <v>1.479736009015997</v>
       </c>
       <c r="I27" t="n">
-        <v>1.270057369501021</v>
+        <v>1.083089054360039</v>
       </c>
       <c r="J27" t="n">
-        <v>4.702916909276267</v>
+        <v>13.03527958889548</v>
       </c>
       <c r="K27" t="n">
-        <v>1.600772457071437</v>
+        <v>3.084479758046794</v>
       </c>
       <c r="L27" t="n">
-        <v>4.056201260363359</v>
+        <v>1.805410608635572</v>
       </c>
       <c r="M27" t="n">
-        <v>1.138600965697634</v>
+        <v>1.041598509722258</v>
       </c>
       <c r="N27" t="n">
-        <v>8.214956944683633</v>
+        <v>25.03932272277871</v>
       </c>
       <c r="O27" t="n">
-        <v>1.327203582096916</v>
+        <v>2.241602717021665</v>
       </c>
       <c r="P27" t="n">
-        <v>6.788935730456433</v>
+        <v>2.337240556253655</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.067081174982312</v>
+        <v>1.019422202913695</v>
       </c>
       <c r="R27" t="n">
-        <v>15.90731192862496</v>
+        <v>52.48746537370787</v>
       </c>
       <c r="S27" t="n">
-        <v>1.172743323913384</v>
+        <v>1.747808608797769</v>
       </c>
       <c r="T27" t="n">
-        <v>2.534092439410147</v>
+        <v>1.269629052356439</v>
       </c>
       <c r="U27" t="n">
-        <v>1.651851201603272</v>
+        <v>4.708799149277275</v>
       </c>
       <c r="V27" t="n">
-        <v>3.740183682100533</v>
+        <v>3.347802861523938</v>
       </c>
       <c r="W27" t="n">
-        <v>1.364939039135301</v>
+        <v>1.425930139360555</v>
       </c>
       <c r="X27" t="n">
-        <v>4.275043911153091</v>
+        <v>1.548539967660212</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.305339417463846</v>
+        <v>2.823021218062713</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.278978360529687</v>
+        <v>6.265766648895028</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.159261577693292</v>
+        <v>1.189905870631362</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.09304159001689</v>
+        <v>2.042285201883513</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.140983242140784</v>
+        <v>1.959430296230725</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.0295800840864</v>
+        <v>13.24305133879616</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.06653545836978</v>
+        <v>1.081678984456364</v>
       </c>
     </row>
     <row r="28">
@@ -3276,99 +3276,99 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ING D</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>afc wimbledon</t>
+          <t>fleetwood town</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>stockport county fc</t>
+          <t>blackpool fc</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.187065347949062</v>
+        <v>2.35998318790585</v>
       </c>
       <c r="F28" t="n">
-        <v>15.15344827844417</v>
+        <v>6.758383657185364</v>
       </c>
       <c r="G28" t="n">
-        <v>10.91764869025612</v>
+        <v>2.334791360376906</v>
       </c>
       <c r="H28" t="n">
-        <v>1.330512712943657</v>
+        <v>3.493308894158895</v>
       </c>
       <c r="I28" t="n">
-        <v>1.051130827498324</v>
+        <v>1.408943523846415</v>
       </c>
       <c r="J28" t="n">
-        <v>20.55767291332756</v>
+        <v>3.445325434168184</v>
       </c>
       <c r="K28" t="n">
-        <v>4.025602225989017</v>
+        <v>1.4010734499615</v>
       </c>
       <c r="L28" t="n">
-        <v>1.563649780238711</v>
+        <v>5.70321098884633</v>
       </c>
       <c r="M28" t="n">
-        <v>1.024151806231261</v>
+        <v>1.217108108927073</v>
       </c>
       <c r="N28" t="n">
-        <v>42.40477074156239</v>
+        <v>5.606000231598463</v>
       </c>
       <c r="O28" t="n">
-        <v>2.774151317111291</v>
+        <v>1.212620697300526</v>
       </c>
       <c r="P28" t="n">
-        <v>1.940631606325189</v>
+        <v>10.28617021608205</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.010553345019991</v>
+        <v>1.110193995917655</v>
       </c>
       <c r="R28" t="n">
-        <v>95.75668597072044</v>
+        <v>10.07490459595706</v>
       </c>
       <c r="S28" t="n">
-        <v>2.063115456971245</v>
+        <v>1.107687020238782</v>
       </c>
       <c r="T28" t="n">
-        <v>1.210800390488374</v>
+        <v>3.084454479633988</v>
       </c>
       <c r="U28" t="n">
-        <v>5.743824229562579</v>
+        <v>1.47974182682828</v>
       </c>
       <c r="V28" t="n">
-        <v>4.197232663586878</v>
+        <v>3.05520291208803</v>
       </c>
       <c r="W28" t="n">
-        <v>1.312770481607094</v>
+        <v>1.48656996061962</v>
       </c>
       <c r="X28" t="n">
-        <v>1.433196003688926</v>
+        <v>5.604303154136215</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.308423880840073</v>
+        <v>1.217188131737517</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.497643102346549</v>
+        <v>5.531801087038229</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.133375246907529</v>
+        <v>1.220662818335116</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.823215057781594</v>
+        <v>11.480148547328</v>
       </c>
       <c r="AC28" t="n">
-        <v>2.214749403023322</v>
+        <v>1.095418494831827</v>
       </c>
       <c r="AD28" t="n">
-        <v>19.50384677890289</v>
+        <v>11.28984425940266</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.054042816715287</v>
+        <v>1.097183200716203</v>
       </c>
     </row>
     <row r="29">
@@ -3379,99 +3379,99 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ING D</t>
+          <t>ING C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>wrexham</t>
+          <t>lincoln city</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>doncaster rovers</t>
+          <t>oxford united</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.187034264785149</v>
+        <v>2.044127859450874</v>
       </c>
       <c r="F29" t="n">
-        <v>15.1546555235202</v>
+        <v>6.754089400360516</v>
       </c>
       <c r="G29" t="n">
-        <v>10.91965178226017</v>
+        <v>2.756830748826306</v>
       </c>
       <c r="H29" t="n">
-        <v>1.330467111618436</v>
+        <v>2.91405222737318</v>
       </c>
       <c r="I29" t="n">
-        <v>1.05111824980065</v>
+        <v>1.304047625030627</v>
       </c>
       <c r="J29" t="n">
-        <v>20.5624850987619</v>
+        <v>4.288958431756439</v>
       </c>
       <c r="K29" t="n">
-        <v>4.026019730382795</v>
+        <v>1.522451783550539</v>
       </c>
       <c r="L29" t="n">
-        <v>1.563584264649528</v>
+        <v>4.575495382889931</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02414459820523</v>
+        <v>1.156146892741974</v>
       </c>
       <c r="N29" t="n">
-        <v>42.41713154635956</v>
+        <v>7.40422606200979</v>
       </c>
       <c r="O29" t="n">
-        <v>2.774357558797107</v>
+        <v>1.279681524631627</v>
       </c>
       <c r="P29" t="n">
-        <v>1.940537867989614</v>
+        <v>7.931723834539175</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.010549558573776</v>
+        <v>1.075801375342863</v>
       </c>
       <c r="R29" t="n">
-        <v>95.79069602834169</v>
+        <v>14.192372769977</v>
       </c>
       <c r="S29" t="n">
-        <v>2.06322141195387</v>
+        <v>1.144264258627447</v>
       </c>
       <c r="T29" t="n">
-        <v>1.210821225463511</v>
+        <v>2.852034052233932</v>
       </c>
       <c r="U29" t="n">
-        <v>5.743355408362712</v>
+        <v>1.5399468755954</v>
       </c>
       <c r="V29" t="n">
-        <v>4.19837539069237</v>
+        <v>3.756110558513174</v>
       </c>
       <c r="W29" t="n">
-        <v>1.312658733840346</v>
+        <v>1.362830147328874</v>
       </c>
       <c r="X29" t="n">
-        <v>1.433236801291229</v>
+        <v>5.033811157027107</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.308206498200466</v>
+        <v>1.247904515375726</v>
       </c>
       <c r="Z29" t="n">
-        <v>8.500738964942116</v>
+        <v>7.32076928476439</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.133320197473066</v>
+        <v>1.158208590592035</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.823291952172366</v>
+        <v>9.999325008586037</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.214635947018997</v>
+        <v>1.111119444963475</v>
       </c>
       <c r="AD29" t="n">
-        <v>19.51282962761985</v>
+        <v>16.14659257914633</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.05401659390351</v>
+        <v>1.066021449694025</v>
       </c>
     </row>
     <row r="30">
@@ -3487,94 +3487,94 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>forest green rovers</t>
+          <t>crawley town</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>crewe alexandra fc</t>
+          <t>newport county afc</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3.408561658062419</v>
+        <v>2.132541792567665</v>
       </c>
       <c r="F30" t="n">
-        <v>8.485787273968743</v>
+        <v>6.765677077906601</v>
       </c>
       <c r="G30" t="n">
-        <v>1.698435863483832</v>
+        <v>2.609118923786587</v>
       </c>
       <c r="H30" t="n">
-        <v>5.149491860232961</v>
+        <v>3.069456428384107</v>
       </c>
       <c r="I30" t="n">
-        <v>1.860737609641229</v>
+        <v>1.335394107343128</v>
       </c>
       <c r="J30" t="n">
-        <v>2.16179424344757</v>
+        <v>3.981566992698953</v>
       </c>
       <c r="K30" t="n">
-        <v>1.240993363448569</v>
+        <v>1.483218678240464</v>
       </c>
       <c r="L30" t="n">
-        <v>8.410375655941019</v>
+        <v>4.864271798652019</v>
       </c>
       <c r="M30" t="n">
-        <v>1.516732393536598</v>
+        <v>1.174735479846146</v>
       </c>
       <c r="N30" t="n">
-        <v>2.935237683002306</v>
+        <v>6.722936182625876</v>
       </c>
       <c r="O30" t="n">
-        <v>1.134945925338925</v>
+        <v>1.258780968861671</v>
       </c>
       <c r="P30" t="n">
-        <v>14.86954482737025</v>
+        <v>8.505764950876005</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.305996852540818</v>
+        <v>1.086406768998065</v>
       </c>
       <c r="R30" t="n">
-        <v>4.268007470327195</v>
+        <v>12.57316737560678</v>
       </c>
       <c r="S30" t="n">
-        <v>1.072100419476391</v>
+        <v>1.133230924035703</v>
       </c>
       <c r="T30" t="n">
-        <v>2.137846292815398</v>
+        <v>2.868932312311683</v>
       </c>
       <c r="U30" t="n">
-        <v>1.878853326951286</v>
+        <v>1.535064856770067</v>
       </c>
       <c r="V30" t="n">
-        <v>1.478407255999797</v>
+        <v>3.439561960334693</v>
       </c>
       <c r="W30" t="n">
-        <v>3.090269299762509</v>
+        <v>1.40990965438025</v>
       </c>
       <c r="X30" t="n">
-        <v>3.367601799980408</v>
+        <v>5.074851947115828</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.422368322244169</v>
+        <v>1.245407689157344</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.964061475581947</v>
+        <v>6.499824318598992</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.037278249705351</v>
+        <v>1.181823989653316</v>
       </c>
       <c r="AB30" t="n">
-        <v>5.922147284444083</v>
+        <v>10.10455284940672</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.203163363916474</v>
+        <v>1.109835157919388</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.860663370404894</v>
+        <v>13.87785886529273</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.537442729246824</v>
+        <v>1.077652660311033</v>
       </c>
     </row>
     <row r="31">
@@ -3590,94 +3590,94 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>barrow</t>
+          <t>afc wimbledon</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>morecambe</t>
+          <t>stockport county fc</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.195510857600032</v>
+        <v>1.246725486921307</v>
       </c>
       <c r="F31" t="n">
-        <v>14.7103728755537</v>
+        <v>12.8569574843067</v>
       </c>
       <c r="G31" t="n">
-        <v>10.46482027064907</v>
+        <v>8.325014691569612</v>
       </c>
       <c r="H31" t="n">
-        <v>1.34485845532997</v>
+        <v>1.427876261152855</v>
       </c>
       <c r="I31" t="n">
-        <v>1.053755818274347</v>
+        <v>1.071582155255147</v>
       </c>
       <c r="J31" t="n">
-        <v>19.60263748374971</v>
+        <v>14.96996215656824</v>
       </c>
       <c r="K31" t="n">
-        <v>3.899740413913217</v>
+        <v>3.337124282860739</v>
       </c>
       <c r="L31" t="n">
-        <v>1.587729432264947</v>
+        <v>1.721644620303694</v>
       </c>
       <c r="M31" t="n">
-        <v>1.025490729506424</v>
+        <v>1.035188153917428</v>
       </c>
       <c r="N31" t="n">
-        <v>40.22994827386077</v>
+        <v>29.4186548219201</v>
       </c>
       <c r="O31" t="n">
-        <v>2.701463199054496</v>
+        <v>2.385723626096128</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98123565275494</v>
+        <v>2.199728759162582</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.011185798798781</v>
+        <v>1.016086853562831</v>
       </c>
       <c r="R31" t="n">
-        <v>90.39906912226502</v>
+        <v>63.16256001176738</v>
       </c>
       <c r="S31" t="n">
-        <v>2.019123181258627</v>
+        <v>1.833521737611763</v>
       </c>
       <c r="T31" t="n">
-        <v>1.220957679175815</v>
+        <v>1.251655549118948</v>
       </c>
       <c r="U31" t="n">
-        <v>5.525753545792373</v>
+        <v>4.973685474057797</v>
       </c>
       <c r="V31" t="n">
-        <v>4.162126249104774</v>
+        <v>3.602087218123814</v>
       </c>
       <c r="W31" t="n">
-        <v>1.316242907848195</v>
+        <v>1.384306872204319</v>
       </c>
       <c r="X31" t="n">
-        <v>1.453087499377657</v>
+        <v>1.513255588484492</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.207079209586584</v>
+        <v>2.948347027165814</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.402648873432883</v>
+        <v>6.918756178501353</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.135086780029358</v>
+        <v>1.168954417083828</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.860754281836118</v>
+        <v>1.974907551934604</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.161771740323906</v>
+        <v>2.025738284635915</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.2285864370981</v>
+        <v>15.02762418020875</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.054858889001115</v>
+        <v>1.071287909281949</v>
       </c>
     </row>
     <row r="32">
@@ -3693,94 +3693,94 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mk dons</t>
+          <t>wrexham</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>notts county</t>
+          <t>doncaster rovers</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.898438379157937</v>
+        <v>1.244107379823068</v>
       </c>
       <c r="F32" t="n">
-        <v>8.185283170707359</v>
+        <v>12.93838926326051</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876820007354994</v>
+        <v>8.408909299831775</v>
       </c>
       <c r="H32" t="n">
-        <v>4.214214610489794</v>
+        <v>1.423529860427426</v>
       </c>
       <c r="I32" t="n">
-        <v>1.68833112221733</v>
+        <v>1.07070379297415</v>
       </c>
       <c r="J32" t="n">
-        <v>2.452789170390387</v>
+        <v>15.14351278672715</v>
       </c>
       <c r="K32" t="n">
-        <v>1.311117993408541</v>
+        <v>3.361108609888329</v>
       </c>
       <c r="L32" t="n">
-        <v>6.601918148309679</v>
+        <v>1.71444592032361</v>
       </c>
       <c r="M32" t="n">
-        <v>1.412273254941731</v>
+        <v>1.034716059353149</v>
       </c>
       <c r="N32" t="n">
-        <v>3.425575726810936</v>
+        <v>29.80511263756905</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17851028407149</v>
+        <v>2.399686066577364</v>
       </c>
       <c r="P32" t="n">
-        <v>11.163152393396</v>
+        <v>2.187650064621598</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.242150090485197</v>
+        <v>1.015850153933523</v>
       </c>
       <c r="R32" t="n">
-        <v>5.129670147949542</v>
+        <v>64.09086991798823</v>
       </c>
       <c r="S32" t="n">
-        <v>1.098394667450799</v>
+        <v>1.841998859587156</v>
       </c>
       <c r="T32" t="n">
-        <v>1.916227646133493</v>
+        <v>1.24927612192658</v>
       </c>
       <c r="U32" t="n">
-        <v>2.091431811973835</v>
+        <v>5.011615682526277</v>
       </c>
       <c r="V32" t="n">
-        <v>1.533187277154579</v>
+        <v>3.61513988703971</v>
       </c>
       <c r="W32" t="n">
-        <v>2.875513619410849</v>
+        <v>1.382388722284368</v>
       </c>
       <c r="X32" t="n">
-        <v>2.88028197369648</v>
+        <v>1.508588054684651</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.531835125789182</v>
+        <v>2.96622785531219</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.075239150317571</v>
+        <v>6.952638535317608</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.930025659598287</v>
+        <v>1.167992730293785</v>
       </c>
       <c r="AB32" t="n">
-        <v>4.813415087647279</v>
+        <v>1.966018953420315</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.262232140224986</v>
+        <v>2.035176376673947</v>
       </c>
       <c r="AD32" t="n">
-        <v>3.087254777815244</v>
+        <v>15.12135268358821</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.479098196649818</v>
+        <v>1.070814745754647</v>
       </c>
     </row>
     <row r="33">
@@ -3796,94 +3796,94 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>salford city</t>
+          <t>forest green rovers</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>walsall</t>
+          <t>crewe alexandra fc</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.644050033198359</v>
+        <v>2.68740817653775</v>
       </c>
       <c r="F33" t="n">
-        <v>8.037634764677374</v>
+        <v>7.056079575657155</v>
       </c>
       <c r="G33" t="n">
-        <v>3.740676897723185</v>
+        <v>2.056883079571293</v>
       </c>
       <c r="H33" t="n">
-        <v>2.118397459721354</v>
+        <v>4.061941295031525</v>
       </c>
       <c r="I33" t="n">
-        <v>1.200204695049393</v>
+        <v>1.530461854350313</v>
       </c>
       <c r="J33" t="n">
-        <v>5.994887855918103</v>
+        <v>2.885149689462132</v>
       </c>
       <c r="K33" t="n">
-        <v>1.894136508723068</v>
+        <v>1.326590193490207</v>
       </c>
       <c r="L33" t="n">
-        <v>2.940933841149859</v>
+        <v>6.749920037711307</v>
       </c>
       <c r="M33" t="n">
-        <v>1.104838393209346</v>
+        <v>1.292246400394609</v>
       </c>
       <c r="N33" t="n">
-        <v>10.5384903315254</v>
+        <v>4.421770118125454</v>
       </c>
       <c r="O33" t="n">
-        <v>1.515215912463856</v>
+        <v>1.173915462031023</v>
       </c>
       <c r="P33" t="n">
-        <v>4.418141674589664</v>
+        <v>12.3478769345409</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.051727178508841</v>
+        <v>1.155654548699446</v>
       </c>
       <c r="R33" t="n">
-        <v>20.33219689972228</v>
+        <v>7.424482987200729</v>
       </c>
       <c r="S33" t="n">
-        <v>1.292556627314182</v>
+        <v>1.08812221050408</v>
       </c>
       <c r="T33" t="n">
-        <v>1.759971781532873</v>
+        <v>2.994189747553373</v>
       </c>
       <c r="U33" t="n">
-        <v>2.315838330185085</v>
+        <v>1.501456795285844</v>
       </c>
       <c r="V33" t="n">
-        <v>3.144680942942645</v>
+        <v>2.4124032006258</v>
       </c>
       <c r="W33" t="n">
-        <v>1.466269821294693</v>
+        <v>1.708013122284717</v>
       </c>
       <c r="X33" t="n">
-        <v>2.546040806362838</v>
+        <v>5.381218417411241</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.646813457888324</v>
+        <v>1.22824700910275</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.754199767648625</v>
+        <v>3.991664583201998</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.210340340934935</v>
+        <v>1.334262071227816</v>
       </c>
       <c r="AB33" t="n">
-        <v>4.079543054490038</v>
+        <v>10.8965215565053</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.324723500306962</v>
+        <v>1.101045604184297</v>
       </c>
       <c r="AD33" t="n">
-        <v>11.87547703116837</v>
+        <v>7.401469444561301</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.091949989608186</v>
+        <v>1.1562141331237</v>
       </c>
     </row>
     <row r="34">
@@ -3899,94 +3899,94 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>accrington stanley</t>
+          <t>barrow</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>mansfield town</t>
+          <t>morecambe</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.283524853212576</v>
+        <v>1.828588735370489</v>
       </c>
       <c r="F34" t="n">
-        <v>9.034624715719126</v>
+        <v>7.055124996082634</v>
       </c>
       <c r="G34" t="n">
-        <v>1.524710713042136</v>
+        <v>3.211414726018135</v>
       </c>
       <c r="H34" t="n">
-        <v>6.850539954436916</v>
+        <v>2.503541837000558</v>
       </c>
       <c r="I34" t="n">
-        <v>2.128849434515443</v>
+        <v>1.239753231358186</v>
       </c>
       <c r="J34" t="n">
-        <v>1.885857732151186</v>
+        <v>5.170955254012911</v>
       </c>
       <c r="K34" t="n">
-        <v>1.170924394634998</v>
+        <v>1.665096225054115</v>
       </c>
       <c r="L34" t="n">
-        <v>11.91592309047087</v>
+        <v>3.754072168129837</v>
       </c>
       <c r="M34" t="n">
-        <v>1.673206241630369</v>
+        <v>1.121271464509829</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48542888963448</v>
+        <v>9.245962923280707</v>
       </c>
       <c r="O34" t="n">
-        <v>1.091609293296776</v>
+        <v>1.363098691302289</v>
       </c>
       <c r="P34" t="n">
-        <v>22.55890635432844</v>
+        <v>6.186000282784652</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.398913668981913</v>
+        <v>1.057602949624322</v>
       </c>
       <c r="R34" t="n">
-        <v>3.506808058375509</v>
+        <v>18.36022211574003</v>
       </c>
       <c r="S34" t="n">
-        <v>1.046384542126796</v>
+        <v>1.192826830981784</v>
       </c>
       <c r="T34" t="n">
-        <v>2.623206154662769</v>
+        <v>2.45801944830408</v>
       </c>
       <c r="U34" t="n">
-        <v>1.616064692169527</v>
+        <v>1.685861907509647</v>
       </c>
       <c r="V34" t="n">
-        <v>1.449915911041352</v>
+        <v>4.062463774757253</v>
       </c>
       <c r="W34" t="n">
-        <v>3.222637553949697</v>
+        <v>1.326534474707138</v>
       </c>
       <c r="X34" t="n">
-        <v>4.485085834959699</v>
+        <v>4.097418597924447</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.286936978701864</v>
+        <v>1.322849485268181</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.906617377950721</v>
+        <v>8.134204106173767</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.103001138429927</v>
+        <v>1.140169805225312</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.613033404362108</v>
+        <v>7.658181459558008</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.13135368609141</v>
+        <v>1.150191160465366</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.744816168126995</v>
+        <v>18.45466640863486</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.573126280159055</v>
+        <v>1.057291269657568</v>
       </c>
     </row>
     <row r="35">
@@ -4002,94 +4002,94 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>bradford city</t>
+          <t>mk dons</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>grimsby town</t>
+          <t>notts county</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.346564075781911</v>
+        <v>3.596230595447494</v>
       </c>
       <c r="F35" t="n">
-        <v>8.4483954414117</v>
+        <v>8.646263635081215</v>
       </c>
       <c r="G35" t="n">
-        <v>1.715794473553829</v>
+        <v>1.649418766448299</v>
       </c>
       <c r="H35" t="n">
-        <v>5.033376312804488</v>
+        <v>5.492019484686817</v>
       </c>
       <c r="I35" t="n">
-        <v>1.840531929827418</v>
+        <v>1.925506010042615</v>
       </c>
       <c r="J35" t="n">
-        <v>2.18972279875831</v>
+        <v>2.080490012111272</v>
       </c>
       <c r="K35" t="n">
-        <v>1.247931242325534</v>
+        <v>1.2226170219005</v>
       </c>
       <c r="L35" t="n">
-        <v>8.180693855969997</v>
+        <v>9.072147993806094</v>
       </c>
       <c r="M35" t="n">
-        <v>1.504660519245039</v>
+        <v>1.556636508012477</v>
       </c>
       <c r="N35" t="n">
-        <v>2.98153008183794</v>
+        <v>2.796504515254657</v>
       </c>
       <c r="O35" t="n">
-        <v>1.139262308080243</v>
+        <v>1.123882763394244</v>
       </c>
       <c r="P35" t="n">
-        <v>14.38751791206747</v>
+        <v>16.22941391731784</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.298697115878181</v>
+        <v>1.330903810519665</v>
       </c>
       <c r="R35" t="n">
-        <v>4.347872968441497</v>
+        <v>4.022026245118056</v>
       </c>
       <c r="S35" t="n">
-        <v>1.07469644534321</v>
+        <v>1.065662408640878</v>
       </c>
       <c r="T35" t="n">
-        <v>2.107872454631812</v>
+        <v>2.190973994990585</v>
       </c>
       <c r="U35" t="n">
-        <v>1.902630980506089</v>
+        <v>1.839648895950835</v>
       </c>
       <c r="V35" t="n">
-        <v>1.482554060448693</v>
+        <v>1.451909340885197</v>
       </c>
       <c r="W35" t="n">
-        <v>3.072306673930316</v>
+        <v>3.212833215709165</v>
       </c>
       <c r="X35" t="n">
-        <v>3.300809526147225</v>
+        <v>3.486649927363279</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.434629633020744</v>
+        <v>1.402147479223322</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.972443690274823</v>
+        <v>1.910628214536249</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.028337177772617</v>
+        <v>2.098143000663849</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.767640748153889</v>
+        <v>6.199438686015912</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.209747347340971</v>
+        <v>1.192328453201985</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.877638424407328</v>
+        <v>2.752877201717803</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.532583902737103</v>
+        <v>1.570490619091862</v>
       </c>
     </row>
     <row r="36">
@@ -4105,409 +4105,409 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gillingham</t>
+          <t>salford city</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>harrogate town fc</t>
+          <t>walsall</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.187462922145961</v>
+        <v>1.741208149826081</v>
       </c>
       <c r="F36" t="n">
-        <v>15.13126294772783</v>
+        <v>7.81390095554695</v>
       </c>
       <c r="G36" t="n">
-        <v>10.89560738774141</v>
+        <v>3.358983945821411</v>
       </c>
       <c r="H36" t="n">
-        <v>1.331194502053463</v>
+        <v>2.281283808082807</v>
       </c>
       <c r="I36" t="n">
-        <v>1.051251519295588</v>
+        <v>1.23603509752713</v>
       </c>
       <c r="J36" t="n">
-        <v>20.51161670413316</v>
+        <v>5.236658066858295</v>
       </c>
       <c r="K36" t="n">
-        <v>4.019373793344481</v>
+        <v>1.780467210848708</v>
       </c>
       <c r="L36" t="n">
-        <v>1.564803235319485</v>
+        <v>3.223683691970859</v>
       </c>
       <c r="M36" t="n">
-        <v>1.024212535731109</v>
+        <v>1.126090350310418</v>
       </c>
       <c r="N36" t="n">
-        <v>42.30091994929583</v>
+        <v>8.930821014757491</v>
       </c>
       <c r="O36" t="n">
-        <v>2.770528101586287</v>
+        <v>1.449704246881307</v>
       </c>
       <c r="P36" t="n">
-        <v>1.942588880970883</v>
+        <v>4.932551015315631</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01058162162437</v>
+        <v>1.063786824857113</v>
       </c>
       <c r="R36" t="n">
-        <v>95.50347361664679</v>
+        <v>16.67721864570102</v>
       </c>
       <c r="S36" t="n">
-        <v>2.06090791031821</v>
+        <v>1.254287864570713</v>
       </c>
       <c r="T36" t="n">
-        <v>1.211329799574562</v>
+        <v>1.805467590154059</v>
       </c>
       <c r="U36" t="n">
-        <v>5.731940322723755</v>
+        <v>2.241514881820053</v>
       </c>
       <c r="V36" t="n">
-        <v>4.196443567852522</v>
+        <v>2.843151469605816</v>
       </c>
       <c r="W36" t="n">
-        <v>1.312847694249091</v>
+        <v>1.542549007225035</v>
       </c>
       <c r="X36" t="n">
-        <v>1.434232660186127</v>
+        <v>2.642539804171736</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.302912912104231</v>
+        <v>1.608813252172149</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.495505431860041</v>
+        <v>5.012266102593633</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.133413284679836</v>
+        <v>1.249235712295746</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.825169049315584</v>
+        <v>4.289049199619908</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.211872889354521</v>
+        <v>1.304039234230842</v>
       </c>
       <c r="AD36" t="n">
-        <v>19.49764463238654</v>
+        <v>9.944167264444202</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.05406093693946</v>
+        <v>1.111804706959731</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ifk varnamo</t>
+          <t>accrington stanley</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>elfsborg</t>
+          <t>mansfield town</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.341346291085443</v>
+        <v>3.452720384913628</v>
       </c>
       <c r="F37" t="n">
-        <v>9.070157472598732</v>
+        <v>7.976535735305125</v>
       </c>
       <c r="G37" t="n">
-        <v>1.516518592072553</v>
+        <v>1.709385358964589</v>
       </c>
       <c r="H37" t="n">
-        <v>6.9673557505829</v>
+        <v>5.386241943561528</v>
       </c>
       <c r="I37" t="n">
-        <v>2.145399084620244</v>
+        <v>1.820405826637473</v>
       </c>
       <c r="J37" t="n">
-        <v>1.873058144909858</v>
+        <v>2.21890894424606</v>
       </c>
       <c r="K37" t="n">
-        <v>1.167578411912566</v>
+        <v>1.227985599715464</v>
       </c>
       <c r="L37" t="n">
-        <v>12.16660913698633</v>
+        <v>9.177415257238669</v>
       </c>
       <c r="M37" t="n">
-        <v>1.682591958256404</v>
+        <v>1.476310045334981</v>
       </c>
       <c r="N37" t="n">
-        <v>2.465004074402481</v>
+        <v>3.099472832441976</v>
       </c>
       <c r="O37" t="n">
-        <v>1.089552700173571</v>
+        <v>1.122288029718779</v>
       </c>
       <c r="P37" t="n">
-        <v>23.13239932243206</v>
+        <v>17.09517307655273</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.404352241226789</v>
+        <v>1.271905726808382</v>
       </c>
       <c r="R37" t="n">
-        <v>3.47309127548308</v>
+        <v>4.677745267589454</v>
       </c>
       <c r="S37" t="n">
-        <v>1.045182629566351</v>
+        <v>1.062130428498267</v>
       </c>
       <c r="T37" t="n">
-        <v>2.660743905736176</v>
+        <v>2.756268361789304</v>
       </c>
       <c r="U37" t="n">
-        <v>1.602139798042323</v>
+        <v>1.569389064767522</v>
       </c>
       <c r="V37" t="n">
-        <v>1.449684088695864</v>
+        <v>1.726804262096361</v>
       </c>
       <c r="W37" t="n">
-        <v>3.223783374012888</v>
+        <v>2.375886262851081</v>
       </c>
       <c r="X37" t="n">
-        <v>4.574186128834888</v>
+        <v>4.80255769140131</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.279783974296263</v>
+        <v>1.262980888432355</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.906151025376872</v>
+        <v>2.476120104511235</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.103568800337776</v>
+        <v>1.677451649729488</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.835447053565911</v>
+        <v>9.41033566260646</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.127625136531923</v>
+        <v>1.118901318581866</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.74387915658897</v>
+        <v>3.928989838262363</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.573434229213452</v>
+        <v>1.341414636178204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>02/09/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>halmstad</t>
+          <t>bradford city</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ik sirius</t>
+          <t>grimsby town</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.885781617910918</v>
+        <v>3.882899605758596</v>
       </c>
       <c r="F38" t="n">
-        <v>6.978413209955017</v>
+        <v>8.935819428927283</v>
       </c>
       <c r="G38" t="n">
-        <v>3.063567319419363</v>
+        <v>1.585913658353208</v>
       </c>
       <c r="H38" t="n">
-        <v>2.60767650944255</v>
+        <v>6.010129402052311</v>
       </c>
       <c r="I38" t="n">
-        <v>1.258257821916608</v>
+        <v>2.02676827794632</v>
       </c>
       <c r="J38" t="n">
-        <v>4.872099565382774</v>
+        <v>1.97392958224239</v>
       </c>
       <c r="K38" t="n">
-        <v>1.622015681716182</v>
+        <v>1.199595643096636</v>
       </c>
       <c r="L38" t="n">
-        <v>3.953070656136265</v>
+        <v>10.06446051666467</v>
       </c>
       <c r="M38" t="n">
-        <v>1.131652593781066</v>
+        <v>1.619891585367242</v>
       </c>
       <c r="N38" t="n">
-        <v>8.595748562789179</v>
+        <v>2.613185311117862</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33863057015655</v>
+        <v>1.110320961535608</v>
       </c>
       <c r="P38" t="n">
-        <v>6.589889714137056</v>
+        <v>18.25298792044261</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.063175230044038</v>
+        <v>1.371006597831048</v>
       </c>
       <c r="R38" t="n">
-        <v>16.82898866063367</v>
+        <v>3.695369855539302</v>
       </c>
       <c r="S38" t="n">
-        <v>1.178894405997127</v>
+        <v>1.057960974911199</v>
       </c>
       <c r="T38" t="n">
-        <v>2.52603087635417</v>
+        <v>2.238715517808784</v>
       </c>
       <c r="U38" t="n">
-        <v>1.655294735837255</v>
+        <v>1.807287860386978</v>
       </c>
       <c r="V38" t="n">
-        <v>3.892044683672625</v>
+        <v>1.407225417806655</v>
       </c>
       <c r="W38" t="n">
-        <v>1.345776123600585</v>
+        <v>3.455642394293731</v>
       </c>
       <c r="X38" t="n">
-        <v>4.256146753948761</v>
+        <v>3.59434058988287</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.307111465042935</v>
+        <v>1.385454401746514</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.679478039695396</v>
+        <v>1.821016208173827</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.149712296987446</v>
+        <v>2.218002750791344</v>
       </c>
       <c r="AB38" t="n">
-        <v>8.046562091035037</v>
+        <v>6.452329635355</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.141913175117302</v>
+        <v>1.183407839745348</v>
       </c>
       <c r="AD38" t="n">
-        <v>17.15736317107305</v>
+        <v>2.573772904329922</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.061891286926714</v>
+        <v>1.635415692600056</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>09/09/2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SUE A</t>
+          <t>ING D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>norrkoping</t>
+          <t>gillingham</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>djurgardens if</t>
+          <t>harrogate town fc</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.682992480090268</v>
+        <v>1.421562634073242</v>
       </c>
       <c r="F39" t="n">
-        <v>7.278381861498759</v>
+        <v>8.812261188906623</v>
       </c>
       <c r="G39" t="n">
-        <v>3.72540620437589</v>
+        <v>5.462376340153743</v>
       </c>
       <c r="H39" t="n">
-        <v>2.248664677696971</v>
+        <v>1.765655030200426</v>
       </c>
       <c r="I39" t="n">
-        <v>1.189806578037047</v>
+        <v>1.112935329775878</v>
       </c>
       <c r="J39" t="n">
-        <v>6.268521303855001</v>
+        <v>9.854625049437733</v>
       </c>
       <c r="K39" t="n">
-        <v>1.800855520190091</v>
+        <v>2.306071220792776</v>
       </c>
       <c r="L39" t="n">
-        <v>3.287361427771724</v>
+        <v>2.368278088993756</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09282643716894</v>
+        <v>1.053098304285477</v>
       </c>
       <c r="N39" t="n">
-        <v>11.77279308027346</v>
+        <v>19.83299313333265</v>
       </c>
       <c r="O39" t="n">
-        <v>1.437184953745665</v>
+        <v>1.730845584712541</v>
       </c>
       <c r="P39" t="n">
-        <v>5.279560104572314</v>
+        <v>3.450939305583575</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.042264407130823</v>
+        <v>1.023005989691012</v>
       </c>
       <c r="R39" t="n">
-        <v>24.66057086532994</v>
+        <v>44.46694115014151</v>
       </c>
       <c r="S39" t="n">
-        <v>1.233668876137898</v>
+        <v>1.40800683954999</v>
       </c>
       <c r="T39" t="n">
-        <v>2.361822098003536</v>
+        <v>1.816614040361854</v>
       </c>
       <c r="U39" t="n">
-        <v>1.734310304896671</v>
+        <v>2.224568707582942</v>
       </c>
       <c r="V39" t="n">
-        <v>4.914382864775066</v>
+        <v>5.69263790427194</v>
       </c>
       <c r="W39" t="n">
-        <v>1.255468111972093</v>
+        <v>1.213099757620261</v>
       </c>
       <c r="X39" t="n">
-        <v>3.875074790855934</v>
+        <v>2.666285373381599</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.347817038770769</v>
+        <v>1.600137296992877</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.48512431069522</v>
+        <v>12.73488645112499</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.105428243979093</v>
+        <v>1.085215992857275</v>
       </c>
       <c r="AB39" t="n">
-        <v>7.120404201960421</v>
+        <v>4.340903535496806</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.163387901681345</v>
+        <v>1.299320225614145</v>
       </c>
       <c r="AD39" t="n">
-        <v>25.41809335503092</v>
+        <v>32.42949091872029</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.040953238463804</v>
+        <v>1.031817250956629</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4517,100 +4517,100 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>degerfors if</t>
+          <t>ifk gotemburgo</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bk hacken</t>
+          <t>brommapojkarna</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4.322627963226221</v>
+        <v>1.444721755849371</v>
       </c>
       <c r="F40" t="n">
-        <v>9.061287826015946</v>
+        <v>9.785308547917994</v>
       </c>
       <c r="G40" t="n">
-        <v>1.519065041284049</v>
+        <v>4.863075808216812</v>
       </c>
       <c r="H40" t="n">
-        <v>6.92853491995765</v>
+        <v>1.745908517005285</v>
       </c>
       <c r="I40" t="n">
-        <v>2.140370423154087</v>
+        <v>1.145273205997445</v>
       </c>
       <c r="J40" t="n">
-        <v>1.876908046452271</v>
+        <v>7.88358182180949</v>
       </c>
       <c r="K40" t="n">
-        <v>1.168675737513771</v>
+        <v>2.340646979089145</v>
       </c>
       <c r="L40" t="n">
-        <v>12.08137006642689</v>
+        <v>2.237112617024552</v>
       </c>
       <c r="M40" t="n">
-        <v>1.679844785377842</v>
+        <v>1.077697817426222</v>
       </c>
       <c r="N40" t="n">
-        <v>2.470923983691694</v>
+        <v>13.8703743956457</v>
       </c>
       <c r="O40" t="n">
-        <v>1.090241549014746</v>
+        <v>1.808333846279213</v>
       </c>
       <c r="P40" t="n">
-        <v>22.93347374063655</v>
+        <v>3.054588000071999</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.402824792726649</v>
+        <v>1.039213771365154</v>
       </c>
       <c r="R40" t="n">
-        <v>3.482468850120122</v>
+        <v>26.50124523061342</v>
       </c>
       <c r="S40" t="n">
-        <v>1.045592413305116</v>
+        <v>1.486715584810656</v>
       </c>
       <c r="T40" t="n">
-        <v>2.645498963831111</v>
+        <v>1.34662973711501</v>
       </c>
       <c r="U40" t="n">
-        <v>1.607718401518627</v>
+        <v>3.884922708371686</v>
       </c>
       <c r="V40" t="n">
-        <v>1.448910726427538</v>
+        <v>2.559351510460674</v>
       </c>
       <c r="W40" t="n">
-        <v>3.227614403331523</v>
+        <v>1.641292225192108</v>
       </c>
       <c r="X40" t="n">
-        <v>4.537956349030325</v>
+        <v>1.700429410158319</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.282649049718795</v>
+        <v>2.427695618569142</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.904595388457799</v>
+        <v>4.334366282746046</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.105466612763583</v>
+        <v>1.299907063352512</v>
       </c>
       <c r="AB40" t="n">
-        <v>8.744880172152946</v>
+        <v>2.336107536791017</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.129117556085057</v>
+        <v>1.748442750649952</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.740753924903114</v>
+        <v>8.239279600015832</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.574463734186702</v>
+        <v>1.138135291804148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4620,100 +4620,100 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>kalmar</t>
+          <t>djurgardens if</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>mjallby</t>
+          <t>ifk varnamo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.683085851539049</v>
+        <v>1.58734227886108</v>
       </c>
       <c r="F41" t="n">
-        <v>7.598905047885141</v>
+        <v>7.632370568382727</v>
       </c>
       <c r="G41" t="n">
-        <v>3.646237166142644</v>
+        <v>4.184183435784931</v>
       </c>
       <c r="H41" t="n">
-        <v>2.215150193736433</v>
+        <v>2.072541926198131</v>
       </c>
       <c r="I41" t="n">
-        <v>1.202159659193257</v>
+        <v>1.160792311806761</v>
       </c>
       <c r="J41" t="n">
-        <v>5.946585307823629</v>
+        <v>7.219202826076608</v>
       </c>
       <c r="K41" t="n">
-        <v>1.822943538300501</v>
+        <v>1.932364484384052</v>
       </c>
       <c r="L41" t="n">
-        <v>3.165252704123581</v>
+        <v>2.950769800975074</v>
       </c>
       <c r="M41" t="n">
-        <v>1.102871270800002</v>
+        <v>1.077434937731459</v>
       </c>
       <c r="N41" t="n">
-        <v>10.72088700978679</v>
+        <v>13.91406733570253</v>
       </c>
       <c r="O41" t="n">
-        <v>1.461839857350398</v>
+        <v>1.512618146692736</v>
       </c>
       <c r="P41" t="n">
-        <v>4.930977632489774</v>
+        <v>4.602435743530782</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.049093884734065</v>
+        <v>1.034570690375071</v>
       </c>
       <c r="R41" t="n">
-        <v>21.36913569616384</v>
+        <v>29.92623749050388</v>
       </c>
       <c r="S41" t="n">
-        <v>1.254389643872541</v>
+        <v>1.277589961679619</v>
       </c>
       <c r="T41" t="n">
-        <v>2.035454168158341</v>
+        <v>2.187176598966081</v>
       </c>
       <c r="U41" t="n">
-        <v>1.965759790004612</v>
+        <v>1.842334662653312</v>
       </c>
       <c r="V41" t="n">
-        <v>3.804672831979151</v>
+        <v>5.280685016407924</v>
       </c>
       <c r="W41" t="n">
-        <v>1.356547825685015</v>
+        <v>1.233607470805954</v>
       </c>
       <c r="X41" t="n">
-        <v>3.14056259338222</v>
+        <v>3.478112924752226</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.467166904201544</v>
+        <v>1.403532861643093</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.448502544312836</v>
+        <v>11.53266262535177</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.155074762416266</v>
+        <v>1.094942754322448</v>
       </c>
       <c r="AB41" t="n">
-        <v>5.400172732934671</v>
+        <v>6.179473901754323</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.227263805467258</v>
+        <v>1.193069801869509</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.50521303671686</v>
+        <v>28.644191094672</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.064494437943675</v>
+        <v>1.036173964959775</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>16/09/2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4723,100 +4723,100 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hammarby if</t>
+          <t>ik sirius</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>aik</t>
+          <t>varbergs bois fc</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.187041090650458</v>
+        <v>1.515856012932978</v>
       </c>
       <c r="F42" t="n">
-        <v>15.1542779847436</v>
+        <v>9.123329894313896</v>
       </c>
       <c r="G42" t="n">
-        <v>10.9192701890366</v>
+        <v>4.33467817357166</v>
       </c>
       <c r="H42" t="n">
-        <v>1.330478755546715</v>
+        <v>1.869289350963957</v>
       </c>
       <c r="I42" t="n">
-        <v>1.051120346813987</v>
+        <v>1.16854162289001</v>
       </c>
       <c r="J42" t="n">
-        <v>20.56168262392143</v>
+        <v>6.933252468160939</v>
       </c>
       <c r="K42" t="n">
-        <v>4.025913113070434</v>
+        <v>2.150364949128962</v>
       </c>
       <c r="L42" t="n">
-        <v>1.563603870207372</v>
+        <v>2.454276130740986</v>
       </c>
       <c r="M42" t="n">
-        <v>1.024145660298179</v>
+        <v>1.090462071407067</v>
       </c>
       <c r="N42" t="n">
-        <v>42.4153097347866</v>
+        <v>12.05435664301933</v>
       </c>
       <c r="O42" t="n">
-        <v>2.774295835889244</v>
+        <v>1.687627321154256</v>
       </c>
       <c r="P42" t="n">
-        <v>1.94057099453328</v>
+        <v>3.447103103457401</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.010550056480495</v>
+        <v>1.045876778715729</v>
       </c>
       <c r="R42" t="n">
-        <v>95.78622241016564</v>
+        <v>22.79751996530544</v>
       </c>
       <c r="S42" t="n">
-        <v>2.06318396571033</v>
+        <v>1.408646451629744</v>
       </c>
       <c r="T42" t="n">
-        <v>1.210829816494772</v>
+        <v>1.431843488902231</v>
       </c>
       <c r="U42" t="n">
-        <v>5.743162123014025</v>
+        <v>3.315653762760328</v>
       </c>
       <c r="V42" t="n">
-        <v>4.198353159494018</v>
+        <v>2.591526093066938</v>
       </c>
       <c r="W42" t="n">
-        <v>1.312660907077004</v>
+        <v>1.628327744267741</v>
       </c>
       <c r="X42" t="n">
-        <v>1.433253623656432</v>
+        <v>1.870311406641375</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.308116875193166</v>
+        <v>2.149014010811495</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.500678734187103</v>
+        <v>4.410175473786801</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.133321268039668</v>
+        <v>1.293240042246142</v>
       </c>
       <c r="AB42" t="n">
-        <v>1.823323658700121</v>
+        <v>2.672037875074925</v>
       </c>
       <c r="AC42" t="n">
-        <v>2.214589170896436</v>
+        <v>1.59807257652892</v>
       </c>
       <c r="AD42" t="n">
-        <v>19.51265485685823</v>
+        <v>8.426878122694644</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.054017103853127</v>
+        <v>1.134646076518242</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4826,100 +4826,100 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>varbergs bois fc</t>
+          <t>hammarby if</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>brommapojkarna</t>
+          <t>malmo</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.055507176540528</v>
+        <v>2.061808809274311</v>
       </c>
       <c r="F43" t="n">
-        <v>6.912504422856729</v>
+        <v>7.098438147720869</v>
       </c>
       <c r="G43" t="n">
-        <v>2.71122698450935</v>
+        <v>2.672989772332818</v>
       </c>
       <c r="H43" t="n">
-        <v>2.906432475931729</v>
+        <v>2.886893675024131</v>
       </c>
       <c r="I43" t="n">
-        <v>1.317601783422416</v>
+        <v>1.330869300860513</v>
       </c>
       <c r="J43" t="n">
-        <v>4.14859692922437</v>
+        <v>4.022341442373892</v>
       </c>
       <c r="K43" t="n">
-        <v>1.524539952306085</v>
+        <v>1.529971568211025</v>
       </c>
       <c r="L43" t="n">
-        <v>4.506806648914604</v>
+        <v>4.411896723345549</v>
       </c>
       <c r="M43" t="n">
-        <v>1.166447574230404</v>
+        <v>1.177114820946497</v>
       </c>
       <c r="N43" t="n">
-        <v>7.007897709676175</v>
+        <v>6.646054884938651</v>
       </c>
       <c r="O43" t="n">
-        <v>1.285159719401556</v>
+        <v>1.293092107143105</v>
       </c>
       <c r="P43" t="n">
-        <v>7.683500022001404</v>
+        <v>7.379288152323902</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.082768686071144</v>
+        <v>1.090301030524091</v>
       </c>
       <c r="R43" t="n">
-        <v>13.08186389645538</v>
+        <v>12.07407074090059</v>
       </c>
       <c r="S43" t="n">
-        <v>1.149622203442523</v>
+        <v>1.156757302087964</v>
       </c>
       <c r="T43" t="n">
-        <v>2.606416421600013</v>
+        <v>2.36113915128723</v>
       </c>
       <c r="U43" t="n">
-        <v>1.622503596548139</v>
+        <v>1.734678742474125</v>
       </c>
       <c r="V43" t="n">
-        <v>3.306600981573813</v>
+        <v>2.900369755631696</v>
       </c>
       <c r="W43" t="n">
-        <v>1.433538357084064</v>
+        <v>1.526213384019887</v>
       </c>
       <c r="X43" t="n">
-        <v>4.445352224693541</v>
+        <v>3.873505492213493</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.290246086548944</v>
+        <v>1.348006991011417</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.161261298734092</v>
+        <v>5.151389345278714</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.193751089534117</v>
+        <v>1.240883212059423</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.514197763423766</v>
+        <v>7.116635231620635</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.133081405558371</v>
+        <v>1.163488578627411</v>
       </c>
       <c r="AD43" t="n">
-        <v>12.96142416069337</v>
+        <v>10.30134557955225</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.083602085049882</v>
+        <v>1.107511326339531</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>03/09/2023</t>
+          <t>17/09/2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4929,94 +4929,403 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>malmo</t>
+          <t>bk hacken</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ifk gotemburgo</t>
+          <t>halmstad</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1.187018558139126</v>
+        <v>1.243720434167665</v>
       </c>
       <c r="F44" t="n">
-        <v>15.15539281372911</v>
+        <v>12.95222298037342</v>
       </c>
       <c r="G44" t="n">
-        <v>10.92059825918799</v>
+        <v>8.420771660414477</v>
       </c>
       <c r="H44" t="n">
-        <v>1.330442225662598</v>
+        <v>1.422853477115629</v>
       </c>
       <c r="I44" t="n">
-        <v>1.051112646318839</v>
+        <v>1.070588640334721</v>
       </c>
       <c r="J44" t="n">
-        <v>20.56462973491973</v>
+        <v>15.16658537773415</v>
       </c>
       <c r="K44" t="n">
-        <v>4.026247623150503</v>
+        <v>3.36488536601663</v>
       </c>
       <c r="L44" t="n">
-        <v>1.563545257982387</v>
+        <v>1.713273089796907</v>
       </c>
       <c r="M44" t="n">
-        <v>1.024141544951524</v>
+        <v>1.034658206012893</v>
       </c>
       <c r="N44" t="n">
-        <v>42.42236969539395</v>
+        <v>29.85319567977617</v>
       </c>
       <c r="O44" t="n">
-        <v>2.774480373732917</v>
+        <v>2.401987561713192</v>
       </c>
       <c r="P44" t="n">
-        <v>1.940476319113526</v>
+        <v>2.185601105579269</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.010548022579255</v>
+        <v>1.015823154130907</v>
       </c>
       <c r="R44" t="n">
-        <v>95.80449937286606</v>
+        <v>64.19852487859686</v>
       </c>
       <c r="S44" t="n">
-        <v>2.063290993804692</v>
+        <v>1.843454004297182</v>
       </c>
       <c r="T44" t="n">
-        <v>1.210816865972107</v>
+        <v>1.248666069114365</v>
       </c>
       <c r="U44" t="n">
-        <v>5.74345349642144</v>
+        <v>5.021457384843628</v>
       </c>
       <c r="V44" t="n">
-        <v>4.19869431575118</v>
+        <v>3.614030074886621</v>
       </c>
       <c r="W44" t="n">
-        <v>1.312627560275375</v>
+        <v>1.382551069173668</v>
       </c>
       <c r="X44" t="n">
-        <v>1.433228264836578</v>
+        <v>1.5073914853418</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.308251979766874</v>
+        <v>2.97086476397285</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.501603035158798</v>
+        <v>6.949756310016174</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.133304841020401</v>
+        <v>1.168074110584418</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.823275862823912</v>
+        <v>1.963741181008849</v>
       </c>
       <c r="AC44" t="n">
-        <v>2.214659684750028</v>
+        <v>2.03762298395633</v>
       </c>
       <c r="AD44" t="n">
-        <v>19.51533692014785</v>
+        <v>15.1133753885069</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.054009279135063</v>
+        <v>1.0708547723328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>17/09/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>elfsborg</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>kalmar</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1.243593090028465</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12.95501633678915</v>
+      </c>
+      <c r="G45" t="n">
+        <v>8.425432023866476</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.422667318140905</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.070535119539915</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15.17733473087991</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.365926952664528</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.713004048337088</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.034626488933804</v>
+      </c>
+      <c r="N45" t="n">
+        <v>29.87962455309041</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2.402516580841669</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.185210651796793</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.01580579071774</v>
+      </c>
+      <c r="R45" t="n">
+        <v>64.26795146525643</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.843731870350632</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.248742013533851</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5.020229577597716</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.616939624948267</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.382125743546632</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.50754044149698</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.970286342208556</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>6.957313059214755</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.167860911464641</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.964024711628101</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.037317807249092</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>15.13429228778328</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.070749916560331</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>aik</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>degerfors if</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.612939926308614</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.43579550194156</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.072830266633523</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.128255085557938</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.165478102884569</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.043095627568062</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.886324389582065</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.071940856893958</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.079107063416427</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13.64109621584498</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.482639259066061</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4.871995917596871</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.035021844817632</v>
+      </c>
+      <c r="R46" t="n">
+        <v>29.55360719023446</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.258264735108668</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.329400993285007</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.752218484152744</v>
+      </c>
+      <c r="V46" t="n">
+        <v>5.589713426253561</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.217878526855274</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.800721574256879</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.357050843322522</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12.43220231609115</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.087472209846433</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>6.942249891300825</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.16828642657118</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>31.46851141967736</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.032820769817923</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>18/09/2023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SUE A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>norrkoping</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>mjallby</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.25562903200256</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.61816949329897</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.042746741552259</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.442094530280958</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.074819440351247</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14.36551029124788</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.261959674924016</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.744336631734737</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.036999474382329</v>
+      </c>
+      <c r="N47" t="n">
+        <v>28.02741097526559</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.343478148683103</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2.236498050588457</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.017031416277839</v>
+      </c>
+      <c r="R47" t="n">
+        <v>59.71502308948678</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.808735605789345</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.255496358123441</v>
+      </c>
+      <c r="U47" t="n">
+        <v>4.913950113985018</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.512250368199549</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.398049498831069</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.520791465314394</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.920154354673064</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6.686507790521336</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.175854854479733</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.989270416035066</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.010845956566595</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>14.38810642191766</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.074693161862151</v>
       </c>
     </row>
   </sheetData>
